--- a/examples/X-OR/benchmark.xlsx
+++ b/examples/X-OR/benchmark.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\Visual Studio 2019\Projects\Neural-net-2\examples\X-OR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{23774639-E6D7-4AF9-A047-65100846A8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD09E0-B187-4BA5-BD8A-120B1B472AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="averageLearnTime" sheetId="1" r:id="rId1"/>
+    <sheet name="CPU" sheetId="2" r:id="rId2"/>
+    <sheet name="GPU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>averageLearnTime</t>
   </si>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,10 +516,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,248 +893,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AT1" s="1" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AT1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>15</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>16</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>17</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>18</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>19</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>1</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>2</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>3</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>4</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>5</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>6</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>7</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>8</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>9</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>10</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>11</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>12</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="1">
         <v>13</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="1">
         <v>14</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="1">
         <v>15</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="1">
         <v>16</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>17</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>18</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="1">
         <v>19</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1">
         <v>1</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2" s="1">
         <v>2</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2" s="1">
         <v>3</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2" s="1">
         <v>4</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="1">
         <v>5</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2" s="1">
         <v>6</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2" s="1">
         <v>7</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2" s="1">
         <v>8</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2" s="1">
         <v>9</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="1">
         <v>10</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="1">
         <v>11</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2" s="1">
         <v>12</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2" s="1">
         <v>13</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2" s="1">
         <v>14</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2" s="1">
         <v>15</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2" s="1">
         <v>16</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2" s="1">
         <v>17</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2" s="1">
         <v>18</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1192,7 +1194,7 @@
       <c r="T3">
         <v>5000.01</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>2</v>
       </c>
       <c r="X3">
@@ -1252,7 +1254,7 @@
       <c r="AP3">
         <v>5000.03</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="1">
         <v>2</v>
       </c>
       <c r="AT3">
@@ -1314,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1374,7 +1376,7 @@
       <c r="T4">
         <v>5000.24</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>3</v>
       </c>
       <c r="X4">
@@ -1434,7 +1436,7 @@
       <c r="AP4">
         <v>5002.25</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1">
         <v>3</v>
       </c>
       <c r="AT4">
@@ -1496,7 +1498,7 @@
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1556,7 +1558,7 @@
       <c r="T5">
         <v>5000.05</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>4</v>
       </c>
       <c r="X5">
@@ -1616,7 +1618,7 @@
       <c r="AP5">
         <v>5000.08</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="1">
         <v>4</v>
       </c>
       <c r="AT5">
@@ -1678,7 +1680,7 @@
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1738,7 +1740,7 @@
       <c r="T6">
         <v>5000.09</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>5</v>
       </c>
       <c r="X6">
@@ -1798,7 +1800,7 @@
       <c r="AP6">
         <v>5000.62</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="1">
         <v>5</v>
       </c>
       <c r="AT6">
@@ -1860,7 +1862,7 @@
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1920,7 +1922,7 @@
       <c r="T7">
         <v>4757.2700000000004</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>6</v>
       </c>
       <c r="X7">
@@ -1980,7 +1982,7 @@
       <c r="AP7">
         <v>5000.1000000000004</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7" s="1">
         <v>6</v>
       </c>
       <c r="AT7">
@@ -2042,7 +2044,7 @@
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2102,7 +2104,7 @@
       <c r="T8">
         <v>5000.08</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>7</v>
       </c>
       <c r="X8">
@@ -2162,7 +2164,7 @@
       <c r="AP8">
         <v>5000.1899999999996</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8" s="1">
         <v>7</v>
       </c>
       <c r="AT8">
@@ -2224,7 +2226,7 @@
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2284,7 +2286,7 @@
       <c r="T9">
         <v>2613.5100000000002</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <v>8</v>
       </c>
       <c r="X9">
@@ -2344,7 +2346,7 @@
       <c r="AP9">
         <v>5000.08</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9" s="1">
         <v>8</v>
       </c>
       <c r="AT9">
@@ -2406,7 +2408,7 @@
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2466,7 +2468,7 @@
       <c r="T10">
         <v>3374.03</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>9</v>
       </c>
       <c r="X10">
@@ -2526,7 +2528,7 @@
       <c r="AP10">
         <v>5000.17</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AS10" s="1">
         <v>9</v>
       </c>
       <c r="AT10">
@@ -2588,7 +2590,7 @@
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2648,7 +2650,7 @@
       <c r="T11">
         <v>1331.97</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <v>10</v>
       </c>
       <c r="X11">
@@ -2708,7 +2710,7 @@
       <c r="AP11">
         <v>2194.41</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11" s="1">
         <v>10</v>
       </c>
       <c r="AT11">
@@ -2770,7 +2772,7 @@
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2830,7 +2832,7 @@
       <c r="T12">
         <v>1697.48</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>11</v>
       </c>
       <c r="X12">
@@ -2890,7 +2892,7 @@
       <c r="AP12">
         <v>5000.22</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12" s="1">
         <v>11</v>
       </c>
       <c r="AT12">
@@ -2952,7 +2954,7 @@
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3012,7 +3014,7 @@
       <c r="T13">
         <v>1687.71</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <v>12</v>
       </c>
       <c r="X13">
@@ -3072,7 +3074,7 @@
       <c r="AP13">
         <v>5000.03</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13" s="1">
         <v>12</v>
       </c>
       <c r="AT13">
@@ -3134,7 +3136,7 @@
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3194,7 +3196,7 @@
       <c r="T14">
         <v>337.91699999999997</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>13</v>
       </c>
       <c r="X14">
@@ -3254,7 +3256,7 @@
       <c r="AP14">
         <v>761.66700000000003</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AS14" s="1">
         <v>13</v>
       </c>
       <c r="AT14">
@@ -3316,7 +3318,7 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3376,7 +3378,7 @@
       <c r="T15">
         <v>354.37200000000001</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>14</v>
       </c>
       <c r="X15">
@@ -3436,7 +3438,7 @@
       <c r="AP15">
         <v>916.47400000000005</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AS15" s="1">
         <v>14</v>
       </c>
       <c r="AT15">
@@ -3498,7 +3500,7 @@
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3558,7 +3560,7 @@
       <c r="T16">
         <v>102.51600000000001</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <v>15</v>
       </c>
       <c r="X16">
@@ -3618,7 +3620,7 @@
       <c r="AP16">
         <v>204.096</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AS16" s="1">
         <v>15</v>
       </c>
       <c r="AT16">
@@ -3680,7 +3682,7 @@
       </c>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3740,7 +3742,7 @@
       <c r="T17">
         <v>241.00200000000001</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <v>16</v>
       </c>
       <c r="X17">
@@ -3800,7 +3802,7 @@
       <c r="AP17">
         <v>1325.19</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AS17" s="1">
         <v>16</v>
       </c>
       <c r="AT17">
@@ -3862,7 +3864,7 @@
       </c>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3922,7 +3924,7 @@
       <c r="T18">
         <v>65.442999999999998</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <v>17</v>
       </c>
       <c r="X18">
@@ -3982,7 +3984,7 @@
       <c r="AP18">
         <v>176.41800000000001</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AS18" s="1">
         <v>17</v>
       </c>
       <c r="AT18">
@@ -4044,7 +4046,7 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4104,7 +4106,7 @@
       <c r="T19">
         <v>303.21199999999999</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="1">
         <v>18</v>
       </c>
       <c r="X19">
@@ -4164,7 +4166,7 @@
       <c r="AP19">
         <v>1474.66</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS19" s="1">
         <v>18</v>
       </c>
       <c r="AT19">
@@ -4226,7 +4228,7 @@
       </c>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4286,7 +4288,7 @@
       <c r="T20">
         <v>61.225900000000003</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="1">
         <v>19</v>
       </c>
       <c r="X20">
@@ -4346,7 +4348,7 @@
       <c r="AP20">
         <v>141.416</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AS20" s="1">
         <v>19</v>
       </c>
       <c r="AT20">
@@ -4408,7 +4410,7 @@
       </c>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4468,7 +4470,7 @@
       <c r="T21">
         <v>88.973799999999997</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="1">
         <v>20</v>
       </c>
       <c r="X21">
@@ -4528,7 +4530,7 @@
       <c r="AP21">
         <v>115.479</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21" s="1">
         <v>20</v>
       </c>
       <c r="AT21">
@@ -4673,4 +4675,7790 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E2D9F6-BAF9-4491-BF37-2F57F83658E7}">
+  <dimension ref="A1:BL22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="42" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="5.140625" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="64" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AT1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>11</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <v>5000.01</v>
+      </c>
+      <c r="G3">
+        <v>5000.05</v>
+      </c>
+      <c r="H3">
+        <v>5000.1899999999996</v>
+      </c>
+      <c r="I3">
+        <v>5000.12</v>
+      </c>
+      <c r="J3">
+        <v>5000.01</v>
+      </c>
+      <c r="K3">
+        <v>5000.03</v>
+      </c>
+      <c r="L3">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="M3">
+        <v>5000.07</v>
+      </c>
+      <c r="N3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="O3">
+        <v>5000.01</v>
+      </c>
+      <c r="P3">
+        <v>5000.07</v>
+      </c>
+      <c r="Q3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="R3">
+        <v>5000.01</v>
+      </c>
+      <c r="S3">
+        <v>5000.43</v>
+      </c>
+      <c r="T3">
+        <v>5000.03</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>5000.01</v>
+      </c>
+      <c r="Y3">
+        <v>5000.01</v>
+      </c>
+      <c r="Z3">
+        <v>5000.2</v>
+      </c>
+      <c r="AA3">
+        <v>5000.01</v>
+      </c>
+      <c r="AB3">
+        <v>5000.01</v>
+      </c>
+      <c r="AC3">
+        <v>5000.28</v>
+      </c>
+      <c r="AD3">
+        <v>5001.7299999999996</v>
+      </c>
+      <c r="AE3">
+        <v>5001.09</v>
+      </c>
+      <c r="AF3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AG3">
+        <v>5000.24</v>
+      </c>
+      <c r="AH3">
+        <v>5001.25</v>
+      </c>
+      <c r="AI3">
+        <v>5000.59</v>
+      </c>
+      <c r="AJ3">
+        <v>5000.09</v>
+      </c>
+      <c r="AK3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AL3">
+        <v>5000.59</v>
+      </c>
+      <c r="AM3">
+        <v>5000.08</v>
+      </c>
+      <c r="AN3">
+        <v>5000.03</v>
+      </c>
+      <c r="AO3">
+        <v>5004.12</v>
+      </c>
+      <c r="AP3">
+        <v>5000.17</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>5000</v>
+      </c>
+      <c r="AU3">
+        <v>5000</v>
+      </c>
+      <c r="AV3">
+        <v>5000</v>
+      </c>
+      <c r="AW3">
+        <v>5000</v>
+      </c>
+      <c r="AX3">
+        <v>5000</v>
+      </c>
+      <c r="AY3">
+        <v>5000</v>
+      </c>
+      <c r="AZ3">
+        <v>5000</v>
+      </c>
+      <c r="BA3">
+        <v>5000</v>
+      </c>
+      <c r="BB3">
+        <v>5000</v>
+      </c>
+      <c r="BC3">
+        <v>5000</v>
+      </c>
+      <c r="BD3">
+        <v>5000</v>
+      </c>
+      <c r="BE3">
+        <v>5000</v>
+      </c>
+      <c r="BF3">
+        <v>5000</v>
+      </c>
+      <c r="BG3">
+        <v>5000</v>
+      </c>
+      <c r="BH3">
+        <v>5000.01</v>
+      </c>
+      <c r="BI3">
+        <v>5000.01</v>
+      </c>
+      <c r="BJ3">
+        <v>5000</v>
+      </c>
+      <c r="BK3">
+        <v>5000.01</v>
+      </c>
+      <c r="BL3">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4">
+        <v>1705.74</v>
+      </c>
+      <c r="D4">
+        <v>999.53099999999995</v>
+      </c>
+      <c r="E4">
+        <v>2037.4</v>
+      </c>
+      <c r="F4">
+        <v>3269.78</v>
+      </c>
+      <c r="G4">
+        <v>2593.1799999999998</v>
+      </c>
+      <c r="H4">
+        <v>4203.1099999999997</v>
+      </c>
+      <c r="I4">
+        <v>4573.7</v>
+      </c>
+      <c r="J4">
+        <v>4881.57</v>
+      </c>
+      <c r="K4">
+        <v>5000.01</v>
+      </c>
+      <c r="L4">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="M4">
+        <v>5000.01</v>
+      </c>
+      <c r="N4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="O4">
+        <v>5000.01</v>
+      </c>
+      <c r="P4">
+        <v>5000.05</v>
+      </c>
+      <c r="Q4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="R4">
+        <v>5000.21</v>
+      </c>
+      <c r="S4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="T4">
+        <v>5000.12</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>5000</v>
+      </c>
+      <c r="Y4">
+        <v>5000.01</v>
+      </c>
+      <c r="Z4">
+        <v>5000.01</v>
+      </c>
+      <c r="AA4">
+        <v>5000.01</v>
+      </c>
+      <c r="AB4">
+        <v>5000.01</v>
+      </c>
+      <c r="AC4">
+        <v>5000.4799999999996</v>
+      </c>
+      <c r="AD4">
+        <v>5000.01</v>
+      </c>
+      <c r="AE4">
+        <v>5000.01</v>
+      </c>
+      <c r="AF4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AG4">
+        <v>5000.03</v>
+      </c>
+      <c r="AH4">
+        <v>5000.26</v>
+      </c>
+      <c r="AI4">
+        <v>5000.03</v>
+      </c>
+      <c r="AJ4">
+        <v>5000.03</v>
+      </c>
+      <c r="AK4">
+        <v>5000.03</v>
+      </c>
+      <c r="AL4">
+        <v>5000.37</v>
+      </c>
+      <c r="AM4">
+        <v>5000.03</v>
+      </c>
+      <c r="AN4">
+        <v>5001.91</v>
+      </c>
+      <c r="AO4">
+        <v>5000.03</v>
+      </c>
+      <c r="AP4">
+        <v>5000.9799999999996</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>5000</v>
+      </c>
+      <c r="AU4">
+        <v>31.349</v>
+      </c>
+      <c r="AV4">
+        <v>46.672699999999999</v>
+      </c>
+      <c r="AW4">
+        <v>293.88099999999997</v>
+      </c>
+      <c r="AX4">
+        <v>548.55600000000004</v>
+      </c>
+      <c r="AY4">
+        <v>76.888199999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>431.78199999999998</v>
+      </c>
+      <c r="BA4">
+        <v>736.93100000000004</v>
+      </c>
+      <c r="BB4">
+        <v>3815.59</v>
+      </c>
+      <c r="BC4">
+        <v>5000</v>
+      </c>
+      <c r="BD4">
+        <v>5000</v>
+      </c>
+      <c r="BE4">
+        <v>5000.01</v>
+      </c>
+      <c r="BF4">
+        <v>5000.01</v>
+      </c>
+      <c r="BG4">
+        <v>5000</v>
+      </c>
+      <c r="BH4">
+        <v>5000</v>
+      </c>
+      <c r="BI4">
+        <v>5000</v>
+      </c>
+      <c r="BJ4">
+        <v>5000</v>
+      </c>
+      <c r="BK4">
+        <v>5000</v>
+      </c>
+      <c r="BL4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3088.7</v>
+      </c>
+      <c r="C5">
+        <v>234.60599999999999</v>
+      </c>
+      <c r="D5">
+        <v>87.653499999999994</v>
+      </c>
+      <c r="E5">
+        <v>197.49700000000001</v>
+      </c>
+      <c r="F5">
+        <v>493.666</v>
+      </c>
+      <c r="G5">
+        <v>1055.24</v>
+      </c>
+      <c r="H5">
+        <v>1229.1500000000001</v>
+      </c>
+      <c r="I5">
+        <v>2121.5100000000002</v>
+      </c>
+      <c r="J5">
+        <v>3366.72</v>
+      </c>
+      <c r="K5">
+        <v>3851.69</v>
+      </c>
+      <c r="L5">
+        <v>4791.66</v>
+      </c>
+      <c r="M5">
+        <v>4708.9399999999996</v>
+      </c>
+      <c r="N5">
+        <v>5000.09</v>
+      </c>
+      <c r="O5">
+        <v>5000.16</v>
+      </c>
+      <c r="P5">
+        <v>4811.8</v>
+      </c>
+      <c r="Q5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="R5">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="S5">
+        <v>5000.09</v>
+      </c>
+      <c r="T5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>5000</v>
+      </c>
+      <c r="Y5">
+        <v>723.96</v>
+      </c>
+      <c r="Z5">
+        <v>183.41800000000001</v>
+      </c>
+      <c r="AA5">
+        <v>835.37599999999998</v>
+      </c>
+      <c r="AB5">
+        <v>1816.83</v>
+      </c>
+      <c r="AC5">
+        <v>5000.01</v>
+      </c>
+      <c r="AD5">
+        <v>5000</v>
+      </c>
+      <c r="AE5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AF5">
+        <v>5000.03</v>
+      </c>
+      <c r="AG5">
+        <v>5000.03</v>
+      </c>
+      <c r="AH5">
+        <v>5000.04</v>
+      </c>
+      <c r="AI5">
+        <v>5000.17</v>
+      </c>
+      <c r="AJ5">
+        <v>5000.58</v>
+      </c>
+      <c r="AK5">
+        <v>5001.41</v>
+      </c>
+      <c r="AL5">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="AM5">
+        <v>5000.05</v>
+      </c>
+      <c r="AN5">
+        <v>5000.6899999999996</v>
+      </c>
+      <c r="AO5">
+        <v>5000.62</v>
+      </c>
+      <c r="AP5">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>72.341099999999997</v>
+      </c>
+      <c r="AU5">
+        <v>20.385100000000001</v>
+      </c>
+      <c r="AV5">
+        <v>30.7852</v>
+      </c>
+      <c r="AW5">
+        <v>35.681699999999999</v>
+      </c>
+      <c r="AX5">
+        <v>43.119700000000002</v>
+      </c>
+      <c r="AY5">
+        <v>86.702600000000004</v>
+      </c>
+      <c r="AZ5">
+        <v>220.14500000000001</v>
+      </c>
+      <c r="BA5">
+        <v>145.84100000000001</v>
+      </c>
+      <c r="BB5">
+        <v>519.28800000000001</v>
+      </c>
+      <c r="BC5">
+        <v>819.452</v>
+      </c>
+      <c r="BD5">
+        <v>2916.45</v>
+      </c>
+      <c r="BE5">
+        <v>2089.11</v>
+      </c>
+      <c r="BF5">
+        <v>5000.01</v>
+      </c>
+      <c r="BG5">
+        <v>5000</v>
+      </c>
+      <c r="BH5">
+        <v>3117.46</v>
+      </c>
+      <c r="BI5">
+        <v>5000</v>
+      </c>
+      <c r="BJ5">
+        <v>5000</v>
+      </c>
+      <c r="BK5">
+        <v>5000</v>
+      </c>
+      <c r="BL5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>231.93899999999999</v>
+      </c>
+      <c r="C6">
+        <v>535.197</v>
+      </c>
+      <c r="D6">
+        <v>145.50399999999999</v>
+      </c>
+      <c r="E6">
+        <v>146.102</v>
+      </c>
+      <c r="F6">
+        <v>395.49599999999998</v>
+      </c>
+      <c r="G6">
+        <v>695.94299999999998</v>
+      </c>
+      <c r="H6">
+        <v>362.202</v>
+      </c>
+      <c r="I6">
+        <v>1384.6</v>
+      </c>
+      <c r="J6">
+        <v>1570.76</v>
+      </c>
+      <c r="K6">
+        <v>3259.66</v>
+      </c>
+      <c r="L6">
+        <v>2625.14</v>
+      </c>
+      <c r="M6">
+        <v>3379.26</v>
+      </c>
+      <c r="N6">
+        <v>3562.45</v>
+      </c>
+      <c r="O6">
+        <v>4150.97</v>
+      </c>
+      <c r="P6">
+        <v>4688.1099999999997</v>
+      </c>
+      <c r="Q6">
+        <v>4396.8</v>
+      </c>
+      <c r="R6">
+        <v>5000.03</v>
+      </c>
+      <c r="S6">
+        <v>4591.84</v>
+      </c>
+      <c r="T6">
+        <v>5000.67</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>627.85299999999995</v>
+      </c>
+      <c r="Y6">
+        <v>5000</v>
+      </c>
+      <c r="Z6">
+        <v>450.30399999999997</v>
+      </c>
+      <c r="AA6">
+        <v>445.916</v>
+      </c>
+      <c r="AB6">
+        <v>1949.52</v>
+      </c>
+      <c r="AC6">
+        <v>5000</v>
+      </c>
+      <c r="AD6">
+        <v>1016.62</v>
+      </c>
+      <c r="AE6">
+        <v>5000.01</v>
+      </c>
+      <c r="AF6">
+        <v>4840.05</v>
+      </c>
+      <c r="AG6">
+        <v>5000.17</v>
+      </c>
+      <c r="AH6">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AI6">
+        <v>5001.3599999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>5000.04</v>
+      </c>
+      <c r="AK6">
+        <v>5000.04</v>
+      </c>
+      <c r="AL6">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="AM6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AN6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AO6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AP6">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <v>46.581400000000002</v>
+      </c>
+      <c r="AU6">
+        <v>11.1751</v>
+      </c>
+      <c r="AV6">
+        <v>17.720500000000001</v>
+      </c>
+      <c r="AW6">
+        <v>29.612200000000001</v>
+      </c>
+      <c r="AX6">
+        <v>56.225700000000003</v>
+      </c>
+      <c r="AY6">
+        <v>45.4741</v>
+      </c>
+      <c r="AZ6">
+        <v>136.16399999999999</v>
+      </c>
+      <c r="BA6">
+        <v>45.365099999999998</v>
+      </c>
+      <c r="BB6">
+        <v>54.491999999999997</v>
+      </c>
+      <c r="BC6">
+        <v>123.81</v>
+      </c>
+      <c r="BD6">
+        <v>217.46600000000001</v>
+      </c>
+      <c r="BE6">
+        <v>71.107399999999998</v>
+      </c>
+      <c r="BF6">
+        <v>184.94200000000001</v>
+      </c>
+      <c r="BG6">
+        <v>404.76299999999998</v>
+      </c>
+      <c r="BH6">
+        <v>1880.59</v>
+      </c>
+      <c r="BI6">
+        <v>1457.24</v>
+      </c>
+      <c r="BJ6">
+        <v>5000</v>
+      </c>
+      <c r="BK6">
+        <v>918.096</v>
+      </c>
+      <c r="BL6">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>408.959</v>
+      </c>
+      <c r="C7">
+        <v>87.218699999999998</v>
+      </c>
+      <c r="D7">
+        <v>84.623599999999996</v>
+      </c>
+      <c r="E7">
+        <v>111.137</v>
+      </c>
+      <c r="F7">
+        <v>125.306</v>
+      </c>
+      <c r="G7">
+        <v>158.20099999999999</v>
+      </c>
+      <c r="H7">
+        <v>1005.19</v>
+      </c>
+      <c r="I7">
+        <v>527.93600000000004</v>
+      </c>
+      <c r="J7">
+        <v>2145.1799999999998</v>
+      </c>
+      <c r="K7">
+        <v>1347.78</v>
+      </c>
+      <c r="L7">
+        <v>1634.09</v>
+      </c>
+      <c r="M7">
+        <v>2003.34</v>
+      </c>
+      <c r="N7">
+        <v>2916.01</v>
+      </c>
+      <c r="O7">
+        <v>3786.13</v>
+      </c>
+      <c r="P7">
+        <v>4435.53</v>
+      </c>
+      <c r="Q7">
+        <v>4914.17</v>
+      </c>
+      <c r="R7">
+        <v>5000.04</v>
+      </c>
+      <c r="S7">
+        <v>4096.41</v>
+      </c>
+      <c r="T7">
+        <v>4738.91</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>1820.16</v>
+      </c>
+      <c r="Y7">
+        <v>320.84899999999999</v>
+      </c>
+      <c r="Z7">
+        <v>182.41399999999999</v>
+      </c>
+      <c r="AA7">
+        <v>243.12200000000001</v>
+      </c>
+      <c r="AB7">
+        <v>765.303</v>
+      </c>
+      <c r="AC7">
+        <v>340.423</v>
+      </c>
+      <c r="AD7">
+        <v>5000</v>
+      </c>
+      <c r="AE7">
+        <v>1023.04</v>
+      </c>
+      <c r="AF7">
+        <v>5000.01</v>
+      </c>
+      <c r="AG7">
+        <v>5000.05</v>
+      </c>
+      <c r="AH7">
+        <v>5000.05</v>
+      </c>
+      <c r="AI7">
+        <v>5000.04</v>
+      </c>
+      <c r="AJ7">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AK7">
+        <v>5000.12</v>
+      </c>
+      <c r="AL7">
+        <v>5000.07</v>
+      </c>
+      <c r="AM7">
+        <v>5000.08</v>
+      </c>
+      <c r="AN7">
+        <v>5000.07</v>
+      </c>
+      <c r="AO7">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="AP7">
+        <v>5000.09</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>36.552100000000003</v>
+      </c>
+      <c r="AU7">
+        <v>12.6143</v>
+      </c>
+      <c r="AV7">
+        <v>15.9909</v>
+      </c>
+      <c r="AW7">
+        <v>18.918099999999999</v>
+      </c>
+      <c r="AX7">
+        <v>23.470600000000001</v>
+      </c>
+      <c r="AY7">
+        <v>18.152699999999999</v>
+      </c>
+      <c r="AZ7">
+        <v>41.984999999999999</v>
+      </c>
+      <c r="BA7">
+        <v>39.364400000000003</v>
+      </c>
+      <c r="BB7">
+        <v>41.624099999999999</v>
+      </c>
+      <c r="BC7">
+        <v>61.766300000000001</v>
+      </c>
+      <c r="BD7">
+        <v>84.125699999999995</v>
+      </c>
+      <c r="BE7">
+        <v>179.33199999999999</v>
+      </c>
+      <c r="BF7">
+        <v>301.61900000000003</v>
+      </c>
+      <c r="BG7">
+        <v>1275.5899999999999</v>
+      </c>
+      <c r="BH7">
+        <v>2383.4</v>
+      </c>
+      <c r="BI7">
+        <v>4141.26</v>
+      </c>
+      <c r="BJ7">
+        <v>5000</v>
+      </c>
+      <c r="BK7">
+        <v>1572.45</v>
+      </c>
+      <c r="BL7">
+        <v>2388.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>173.654</v>
+      </c>
+      <c r="C8">
+        <v>103.428</v>
+      </c>
+      <c r="D8">
+        <v>108.227</v>
+      </c>
+      <c r="E8">
+        <v>88.885400000000004</v>
+      </c>
+      <c r="F8">
+        <v>148.16399999999999</v>
+      </c>
+      <c r="G8">
+        <v>117.191</v>
+      </c>
+      <c r="H8">
+        <v>131.28700000000001</v>
+      </c>
+      <c r="I8">
+        <v>254.8</v>
+      </c>
+      <c r="J8">
+        <v>131.46</v>
+      </c>
+      <c r="K8">
+        <v>1196.07</v>
+      </c>
+      <c r="L8">
+        <v>1780.85</v>
+      </c>
+      <c r="M8">
+        <v>1595.43</v>
+      </c>
+      <c r="N8">
+        <v>3076.61</v>
+      </c>
+      <c r="O8">
+        <v>3809.24</v>
+      </c>
+      <c r="P8">
+        <v>2899.1</v>
+      </c>
+      <c r="Q8">
+        <v>3123.93</v>
+      </c>
+      <c r="R8">
+        <v>4284.3</v>
+      </c>
+      <c r="S8">
+        <v>4125.42</v>
+      </c>
+      <c r="T8">
+        <v>3866.74</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>670.11300000000006</v>
+      </c>
+      <c r="Y8">
+        <v>398.1</v>
+      </c>
+      <c r="Z8">
+        <v>457.89</v>
+      </c>
+      <c r="AA8">
+        <v>354.65100000000001</v>
+      </c>
+      <c r="AB8">
+        <v>397.53699999999998</v>
+      </c>
+      <c r="AC8">
+        <v>303.15300000000002</v>
+      </c>
+      <c r="AD8">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>569.08199999999999</v>
+      </c>
+      <c r="AF8">
+        <v>333.928</v>
+      </c>
+      <c r="AG8">
+        <v>5006.26</v>
+      </c>
+      <c r="AH8">
+        <v>5000.01</v>
+      </c>
+      <c r="AI8">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AJ8">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AK8">
+        <v>5000.07</v>
+      </c>
+      <c r="AL8">
+        <v>5000.08</v>
+      </c>
+      <c r="AM8">
+        <v>5003.18</v>
+      </c>
+      <c r="AN8">
+        <v>5000.08</v>
+      </c>
+      <c r="AO8">
+        <v>5000.51</v>
+      </c>
+      <c r="AP8">
+        <v>5000.09</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT8">
+        <v>23.714600000000001</v>
+      </c>
+      <c r="AU8">
+        <v>8.1850000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>8.4344999999999999</v>
+      </c>
+      <c r="AW8">
+        <v>18.4969</v>
+      </c>
+      <c r="AX8">
+        <v>29.5321</v>
+      </c>
+      <c r="AY8">
+        <v>40.996600000000001</v>
+      </c>
+      <c r="AZ8">
+        <v>25.340599999999998</v>
+      </c>
+      <c r="BA8">
+        <v>44.848100000000002</v>
+      </c>
+      <c r="BB8">
+        <v>37.761000000000003</v>
+      </c>
+      <c r="BC8">
+        <v>73.729699999999994</v>
+      </c>
+      <c r="BD8">
+        <v>92.474299999999999</v>
+      </c>
+      <c r="BE8">
+        <v>48.244399999999999</v>
+      </c>
+      <c r="BF8">
+        <v>336.83</v>
+      </c>
+      <c r="BG8">
+        <v>42.749499999999998</v>
+      </c>
+      <c r="BH8">
+        <v>264.017</v>
+      </c>
+      <c r="BI8">
+        <v>307.18700000000001</v>
+      </c>
+      <c r="BJ8">
+        <v>565.75900000000001</v>
+      </c>
+      <c r="BK8">
+        <v>452.423</v>
+      </c>
+      <c r="BL8">
+        <v>281.87200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>207.67</v>
+      </c>
+      <c r="C9">
+        <v>95.188199999999995</v>
+      </c>
+      <c r="D9">
+        <v>36.610300000000002</v>
+      </c>
+      <c r="E9">
+        <v>68.707499999999996</v>
+      </c>
+      <c r="F9">
+        <v>51.061</v>
+      </c>
+      <c r="G9">
+        <v>99.268100000000004</v>
+      </c>
+      <c r="H9">
+        <v>111.749</v>
+      </c>
+      <c r="I9">
+        <v>561.00300000000004</v>
+      </c>
+      <c r="J9">
+        <v>299.11200000000002</v>
+      </c>
+      <c r="K9">
+        <v>424.39499999999998</v>
+      </c>
+      <c r="L9">
+        <v>629.54899999999998</v>
+      </c>
+      <c r="M9">
+        <v>3326.43</v>
+      </c>
+      <c r="N9">
+        <v>3549.71</v>
+      </c>
+      <c r="O9">
+        <v>4208.26</v>
+      </c>
+      <c r="P9">
+        <v>2912.27</v>
+      </c>
+      <c r="Q9">
+        <v>2867.77</v>
+      </c>
+      <c r="R9">
+        <v>4548.88</v>
+      </c>
+      <c r="S9">
+        <v>3567.21</v>
+      </c>
+      <c r="T9">
+        <v>4560.99</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>596.31399999999996</v>
+      </c>
+      <c r="Y9">
+        <v>592.09900000000005</v>
+      </c>
+      <c r="Z9">
+        <v>113.485</v>
+      </c>
+      <c r="AA9">
+        <v>302.899</v>
+      </c>
+      <c r="AB9">
+        <v>135.24199999999999</v>
+      </c>
+      <c r="AC9">
+        <v>232.643</v>
+      </c>
+      <c r="AD9">
+        <v>400.41500000000002</v>
+      </c>
+      <c r="AE9">
+        <v>3952.22</v>
+      </c>
+      <c r="AF9">
+        <v>782.65599999999995</v>
+      </c>
+      <c r="AG9">
+        <v>2058.5100000000002</v>
+      </c>
+      <c r="AH9">
+        <v>3191.49</v>
+      </c>
+      <c r="AI9">
+        <v>5000.09</v>
+      </c>
+      <c r="AJ9">
+        <v>5000.08</v>
+      </c>
+      <c r="AK9">
+        <v>5000.08</v>
+      </c>
+      <c r="AL9">
+        <v>5000.5600000000004</v>
+      </c>
+      <c r="AM9">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AN9">
+        <v>5001.8900000000003</v>
+      </c>
+      <c r="AO9">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AP9">
+        <v>5000.12</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT9">
+        <v>11.6004</v>
+      </c>
+      <c r="AU9">
+        <v>12.4057</v>
+      </c>
+      <c r="AV9">
+        <v>11.061299999999999</v>
+      </c>
+      <c r="AW9">
+        <v>16.753</v>
+      </c>
+      <c r="AX9">
+        <v>23.624700000000001</v>
+      </c>
+      <c r="AY9">
+        <v>18.7181</v>
+      </c>
+      <c r="AZ9">
+        <v>34.350900000000003</v>
+      </c>
+      <c r="BA9">
+        <v>25.263500000000001</v>
+      </c>
+      <c r="BB9">
+        <v>48.595799999999997</v>
+      </c>
+      <c r="BC9">
+        <v>43.388300000000001</v>
+      </c>
+      <c r="BD9">
+        <v>80.728499999999997</v>
+      </c>
+      <c r="BE9">
+        <v>80.127799999999993</v>
+      </c>
+      <c r="BF9">
+        <v>105.748</v>
+      </c>
+      <c r="BG9">
+        <v>1739.76</v>
+      </c>
+      <c r="BH9">
+        <v>206.61600000000001</v>
+      </c>
+      <c r="BI9">
+        <v>58.543700000000001</v>
+      </c>
+      <c r="BJ9">
+        <v>486.36599999999999</v>
+      </c>
+      <c r="BK9">
+        <v>88.626199999999997</v>
+      </c>
+      <c r="BL9">
+        <v>609.34299999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>154.16900000000001</v>
+      </c>
+      <c r="C10">
+        <v>62.146700000000003</v>
+      </c>
+      <c r="D10">
+        <v>366.64100000000002</v>
+      </c>
+      <c r="E10">
+        <v>38.427</v>
+      </c>
+      <c r="F10">
+        <v>106.63200000000001</v>
+      </c>
+      <c r="G10">
+        <v>102.84699999999999</v>
+      </c>
+      <c r="H10">
+        <v>406.54500000000002</v>
+      </c>
+      <c r="I10">
+        <v>498.93799999999999</v>
+      </c>
+      <c r="J10">
+        <v>297.80700000000002</v>
+      </c>
+      <c r="K10">
+        <v>780.92100000000005</v>
+      </c>
+      <c r="L10">
+        <v>1822.54</v>
+      </c>
+      <c r="M10">
+        <v>3085.74</v>
+      </c>
+      <c r="N10">
+        <v>3209.4</v>
+      </c>
+      <c r="O10">
+        <v>4817.7700000000004</v>
+      </c>
+      <c r="P10">
+        <v>3349.81</v>
+      </c>
+      <c r="Q10">
+        <v>3884.43</v>
+      </c>
+      <c r="R10">
+        <v>1552.29</v>
+      </c>
+      <c r="S10">
+        <v>2161.0300000000002</v>
+      </c>
+      <c r="T10">
+        <v>2816</v>
+      </c>
+      <c r="W10" s="1">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>261.54300000000001</v>
+      </c>
+      <c r="Y10">
+        <v>236.37200000000001</v>
+      </c>
+      <c r="Z10">
+        <v>2879.82</v>
+      </c>
+      <c r="AA10">
+        <v>74.919300000000007</v>
+      </c>
+      <c r="AB10">
+        <v>278.834</v>
+      </c>
+      <c r="AC10">
+        <v>400.55399999999997</v>
+      </c>
+      <c r="AD10">
+        <v>294.47500000000002</v>
+      </c>
+      <c r="AE10">
+        <v>3983.82</v>
+      </c>
+      <c r="AF10">
+        <v>655.33600000000001</v>
+      </c>
+      <c r="AG10">
+        <v>5000</v>
+      </c>
+      <c r="AH10">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AI10">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AJ10">
+        <v>5000.07</v>
+      </c>
+      <c r="AK10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>5000.09</v>
+      </c>
+      <c r="AM10">
+        <v>5000.5</v>
+      </c>
+      <c r="AN10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AP10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>70.337199999999996</v>
+      </c>
+      <c r="AU10">
+        <v>7.8987999999999996</v>
+      </c>
+      <c r="AV10">
+        <v>16.620100000000001</v>
+      </c>
+      <c r="AW10">
+        <v>14.359</v>
+      </c>
+      <c r="AX10">
+        <v>26.79</v>
+      </c>
+      <c r="AY10">
+        <v>16.6355</v>
+      </c>
+      <c r="AZ10">
+        <v>39.172499999999999</v>
+      </c>
+      <c r="BA10">
+        <v>23.501799999999999</v>
+      </c>
+      <c r="BB10">
+        <v>41.136200000000002</v>
+      </c>
+      <c r="BC10">
+        <v>28.037099999999999</v>
+      </c>
+      <c r="BD10">
+        <v>31.036999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>109.182</v>
+      </c>
+      <c r="BF10">
+        <v>215.44300000000001</v>
+      </c>
+      <c r="BG10">
+        <v>3177.19</v>
+      </c>
+      <c r="BH10">
+        <v>175.791</v>
+      </c>
+      <c r="BI10">
+        <v>606.93399999999997</v>
+      </c>
+      <c r="BJ10">
+        <v>155.65100000000001</v>
+      </c>
+      <c r="BK10">
+        <v>139.096</v>
+      </c>
+      <c r="BL10">
+        <v>191.584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>206.28299999999999</v>
+      </c>
+      <c r="C11">
+        <v>552.80399999999997</v>
+      </c>
+      <c r="D11">
+        <v>104.82599999999999</v>
+      </c>
+      <c r="E11">
+        <v>65.049599999999998</v>
+      </c>
+      <c r="F11">
+        <v>142.72999999999999</v>
+      </c>
+      <c r="G11">
+        <v>172.298</v>
+      </c>
+      <c r="H11">
+        <v>178.51900000000001</v>
+      </c>
+      <c r="I11">
+        <v>759.00800000000004</v>
+      </c>
+      <c r="J11">
+        <v>1396.28</v>
+      </c>
+      <c r="K11">
+        <v>1387.51</v>
+      </c>
+      <c r="L11">
+        <v>1936.73</v>
+      </c>
+      <c r="M11">
+        <v>3599.11</v>
+      </c>
+      <c r="N11">
+        <v>4034.26</v>
+      </c>
+      <c r="O11">
+        <v>505.76400000000001</v>
+      </c>
+      <c r="P11">
+        <v>486.80599999999998</v>
+      </c>
+      <c r="Q11">
+        <v>911.80399999999997</v>
+      </c>
+      <c r="R11">
+        <v>574.21100000000001</v>
+      </c>
+      <c r="S11">
+        <v>2002.4</v>
+      </c>
+      <c r="T11">
+        <v>3245.69</v>
+      </c>
+      <c r="W11" s="1">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>606.70699999999999</v>
+      </c>
+      <c r="Y11">
+        <v>5000</v>
+      </c>
+      <c r="Z11">
+        <v>164.34</v>
+      </c>
+      <c r="AA11">
+        <v>184.471</v>
+      </c>
+      <c r="AB11">
+        <v>491.77100000000002</v>
+      </c>
+      <c r="AC11">
+        <v>420.63499999999999</v>
+      </c>
+      <c r="AD11">
+        <v>253.12299999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1648.96</v>
+      </c>
+      <c r="AF11">
+        <v>5000.07</v>
+      </c>
+      <c r="AG11">
+        <v>5001.1499999999996</v>
+      </c>
+      <c r="AH11">
+        <v>5000.12</v>
+      </c>
+      <c r="AI11">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AJ11">
+        <v>5000.08</v>
+      </c>
+      <c r="AK11">
+        <v>1374.55</v>
+      </c>
+      <c r="AL11">
+        <v>1944</v>
+      </c>
+      <c r="AM11">
+        <v>977.11</v>
+      </c>
+      <c r="AN11">
+        <v>902.10299999999995</v>
+      </c>
+      <c r="AO11">
+        <v>5000.09</v>
+      </c>
+      <c r="AP11">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT11">
+        <v>16.601099999999999</v>
+      </c>
+      <c r="AU11">
+        <v>11.925800000000001</v>
+      </c>
+      <c r="AV11">
+        <v>14.984299999999999</v>
+      </c>
+      <c r="AW11">
+        <v>17.947900000000001</v>
+      </c>
+      <c r="AX11">
+        <v>18.856000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>15.8794</v>
+      </c>
+      <c r="AZ11">
+        <v>38.748899999999999</v>
+      </c>
+      <c r="BA11">
+        <v>24.171099999999999</v>
+      </c>
+      <c r="BB11">
+        <v>22.677800000000001</v>
+      </c>
+      <c r="BC11">
+        <v>104.711</v>
+      </c>
+      <c r="BD11">
+        <v>85.7898</v>
+      </c>
+      <c r="BE11">
+        <v>283.83699999999999</v>
+      </c>
+      <c r="BF11">
+        <v>314.32</v>
+      </c>
+      <c r="BG11">
+        <v>68.799400000000006</v>
+      </c>
+      <c r="BH11">
+        <v>94.872500000000002</v>
+      </c>
+      <c r="BI11">
+        <v>160.947</v>
+      </c>
+      <c r="BJ11">
+        <v>95.293099999999995</v>
+      </c>
+      <c r="BK11">
+        <v>97.238500000000002</v>
+      </c>
+      <c r="BL11">
+        <v>177.53399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>112.831</v>
+      </c>
+      <c r="C12">
+        <v>50.806699999999999</v>
+      </c>
+      <c r="D12">
+        <v>644.43600000000004</v>
+      </c>
+      <c r="E12">
+        <v>148.56800000000001</v>
+      </c>
+      <c r="F12">
+        <v>220.47</v>
+      </c>
+      <c r="G12">
+        <v>493.60599999999999</v>
+      </c>
+      <c r="H12">
+        <v>436.267</v>
+      </c>
+      <c r="I12">
+        <v>1246.4000000000001</v>
+      </c>
+      <c r="J12">
+        <v>2631.74</v>
+      </c>
+      <c r="K12">
+        <v>3394.57</v>
+      </c>
+      <c r="L12">
+        <v>108.209</v>
+      </c>
+      <c r="M12">
+        <v>135.14400000000001</v>
+      </c>
+      <c r="N12">
+        <v>147.059</v>
+      </c>
+      <c r="O12">
+        <v>255.018</v>
+      </c>
+      <c r="P12">
+        <v>363.642</v>
+      </c>
+      <c r="Q12">
+        <v>249.773</v>
+      </c>
+      <c r="R12">
+        <v>1071.5</v>
+      </c>
+      <c r="S12">
+        <v>1708.18</v>
+      </c>
+      <c r="T12">
+        <v>1200.33</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>314.67399999999998</v>
+      </c>
+      <c r="Y12">
+        <v>108.157</v>
+      </c>
+      <c r="Z12">
+        <v>5000.01</v>
+      </c>
+      <c r="AA12">
+        <v>871.57399999999996</v>
+      </c>
+      <c r="AB12">
+        <v>1000.9</v>
+      </c>
+      <c r="AC12">
+        <v>3818.14</v>
+      </c>
+      <c r="AD12">
+        <v>974.846</v>
+      </c>
+      <c r="AE12">
+        <v>5000.05</v>
+      </c>
+      <c r="AF12">
+        <v>5000.08</v>
+      </c>
+      <c r="AG12">
+        <v>5000.12</v>
+      </c>
+      <c r="AH12">
+        <v>171.749</v>
+      </c>
+      <c r="AI12">
+        <v>275.37900000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>218.95599999999999</v>
+      </c>
+      <c r="AK12">
+        <v>518.52200000000005</v>
+      </c>
+      <c r="AL12">
+        <v>2027.77</v>
+      </c>
+      <c r="AM12">
+        <v>635.6</v>
+      </c>
+      <c r="AN12">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AO12">
+        <v>5000.03</v>
+      </c>
+      <c r="AP12">
+        <v>1824.64</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>21.636600000000001</v>
+      </c>
+      <c r="AU12">
+        <v>11.9123</v>
+      </c>
+      <c r="AV12">
+        <v>19.716200000000001</v>
+      </c>
+      <c r="AW12">
+        <v>9.8384999999999998</v>
+      </c>
+      <c r="AX12">
+        <v>25.808399999999999</v>
+      </c>
+      <c r="AY12">
+        <v>12.3086</v>
+      </c>
+      <c r="AZ12">
+        <v>35.4133</v>
+      </c>
+      <c r="BA12">
+        <v>53.517299999999999</v>
+      </c>
+      <c r="BB12">
+        <v>80.521199999999993</v>
+      </c>
+      <c r="BC12">
+        <v>156.16499999999999</v>
+      </c>
+      <c r="BD12">
+        <v>40.289299999999997</v>
+      </c>
+      <c r="BE12">
+        <v>57.109499999999997</v>
+      </c>
+      <c r="BF12">
+        <v>87.463899999999995</v>
+      </c>
+      <c r="BG12">
+        <v>95.837599999999995</v>
+      </c>
+      <c r="BH12">
+        <v>56.072200000000002</v>
+      </c>
+      <c r="BI12">
+        <v>106.904</v>
+      </c>
+      <c r="BJ12">
+        <v>241.03700000000001</v>
+      </c>
+      <c r="BK12">
+        <v>259.99599999999998</v>
+      </c>
+      <c r="BL12">
+        <v>420.21199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>166.227</v>
+      </c>
+      <c r="C13">
+        <v>85.712299999999999</v>
+      </c>
+      <c r="D13">
+        <v>58.043300000000002</v>
+      </c>
+      <c r="E13">
+        <v>73.644099999999995</v>
+      </c>
+      <c r="F13">
+        <v>251.75200000000001</v>
+      </c>
+      <c r="G13">
+        <v>176.69900000000001</v>
+      </c>
+      <c r="H13">
+        <v>1595.78</v>
+      </c>
+      <c r="I13">
+        <v>2454.39</v>
+      </c>
+      <c r="J13">
+        <v>4025.15</v>
+      </c>
+      <c r="K13">
+        <v>58.499499999999998</v>
+      </c>
+      <c r="L13">
+        <v>125.09699999999999</v>
+      </c>
+      <c r="M13">
+        <v>102.76</v>
+      </c>
+      <c r="N13">
+        <v>95.245599999999996</v>
+      </c>
+      <c r="O13">
+        <v>152.172</v>
+      </c>
+      <c r="P13">
+        <v>100.253</v>
+      </c>
+      <c r="Q13">
+        <v>231.68199999999999</v>
+      </c>
+      <c r="R13">
+        <v>588.71799999999996</v>
+      </c>
+      <c r="S13">
+        <v>348.40800000000002</v>
+      </c>
+      <c r="T13">
+        <v>1665.17</v>
+      </c>
+      <c r="W13" s="1">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>284.161</v>
+      </c>
+      <c r="Y13">
+        <v>211.88200000000001</v>
+      </c>
+      <c r="Z13">
+        <v>114.426</v>
+      </c>
+      <c r="AA13">
+        <v>213.54900000000001</v>
+      </c>
+      <c r="AB13">
+        <v>476.55700000000002</v>
+      </c>
+      <c r="AC13">
+        <v>389.10599999999999</v>
+      </c>
+      <c r="AD13">
+        <v>4705.6499999999996</v>
+      </c>
+      <c r="AE13">
+        <v>5000.03</v>
+      </c>
+      <c r="AF13">
+        <v>5001.67</v>
+      </c>
+      <c r="AG13">
+        <v>104.858</v>
+      </c>
+      <c r="AH13">
+        <v>366.63</v>
+      </c>
+      <c r="AI13">
+        <v>120.49</v>
+      </c>
+      <c r="AJ13">
+        <v>280.07</v>
+      </c>
+      <c r="AK13">
+        <v>517.46400000000006</v>
+      </c>
+      <c r="AL13">
+        <v>226.46700000000001</v>
+      </c>
+      <c r="AM13">
+        <v>419.50200000000001</v>
+      </c>
+      <c r="AN13">
+        <v>5000.09</v>
+      </c>
+      <c r="AO13">
+        <v>577.85799999999995</v>
+      </c>
+      <c r="AP13">
+        <v>5000.12</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>16.663900000000002</v>
+      </c>
+      <c r="AU13">
+        <v>15.0336</v>
+      </c>
+      <c r="AV13">
+        <v>10.931900000000001</v>
+      </c>
+      <c r="AW13">
+        <v>15.1593</v>
+      </c>
+      <c r="AX13">
+        <v>29.179400000000001</v>
+      </c>
+      <c r="AY13">
+        <v>46.487200000000001</v>
+      </c>
+      <c r="AZ13">
+        <v>114.07899999999999</v>
+      </c>
+      <c r="BA13">
+        <v>53.507399999999997</v>
+      </c>
+      <c r="BB13">
+        <v>138.68700000000001</v>
+      </c>
+      <c r="BC13">
+        <v>41.332900000000002</v>
+      </c>
+      <c r="BD13">
+        <v>47.404000000000003</v>
+      </c>
+      <c r="BE13">
+        <v>78.004099999999994</v>
+      </c>
+      <c r="BF13">
+        <v>40.968299999999999</v>
+      </c>
+      <c r="BG13">
+        <v>29.668600000000001</v>
+      </c>
+      <c r="BH13">
+        <v>49.602200000000003</v>
+      </c>
+      <c r="BI13">
+        <v>94.728200000000001</v>
+      </c>
+      <c r="BJ13">
+        <v>61.694699999999997</v>
+      </c>
+      <c r="BK13">
+        <v>154.98099999999999</v>
+      </c>
+      <c r="BL13">
+        <v>125.511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>120.97499999999999</v>
+      </c>
+      <c r="C14">
+        <v>80.757199999999997</v>
+      </c>
+      <c r="D14">
+        <v>113.637</v>
+      </c>
+      <c r="E14">
+        <v>185.34800000000001</v>
+      </c>
+      <c r="F14">
+        <v>403.24299999999999</v>
+      </c>
+      <c r="G14">
+        <v>829.351</v>
+      </c>
+      <c r="H14">
+        <v>1235.4000000000001</v>
+      </c>
+      <c r="I14">
+        <v>56.744799999999998</v>
+      </c>
+      <c r="J14">
+        <v>65.610100000000003</v>
+      </c>
+      <c r="K14">
+        <v>92.100800000000007</v>
+      </c>
+      <c r="L14">
+        <v>65.498400000000004</v>
+      </c>
+      <c r="M14">
+        <v>75.386300000000006</v>
+      </c>
+      <c r="N14">
+        <v>105.881</v>
+      </c>
+      <c r="O14">
+        <v>152.506</v>
+      </c>
+      <c r="P14">
+        <v>291.87400000000002</v>
+      </c>
+      <c r="Q14">
+        <v>165.54300000000001</v>
+      </c>
+      <c r="R14">
+        <v>338.142</v>
+      </c>
+      <c r="S14">
+        <v>285.90800000000002</v>
+      </c>
+      <c r="T14">
+        <v>457.64499999999998</v>
+      </c>
+      <c r="W14" s="1">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>552.85299999999995</v>
+      </c>
+      <c r="Y14">
+        <v>255.76599999999999</v>
+      </c>
+      <c r="Z14">
+        <v>580.79499999999996</v>
+      </c>
+      <c r="AA14">
+        <v>514.11099999999999</v>
+      </c>
+      <c r="AB14">
+        <v>2212.12</v>
+      </c>
+      <c r="AC14">
+        <v>1807.2</v>
+      </c>
+      <c r="AD14">
+        <v>3781.36</v>
+      </c>
+      <c r="AE14">
+        <v>127.44</v>
+      </c>
+      <c r="AF14">
+        <v>184.05199999999999</v>
+      </c>
+      <c r="AG14">
+        <v>297.26100000000002</v>
+      </c>
+      <c r="AH14">
+        <v>121.52500000000001</v>
+      </c>
+      <c r="AI14">
+        <v>96.162499999999994</v>
+      </c>
+      <c r="AJ14">
+        <v>168.23400000000001</v>
+      </c>
+      <c r="AK14">
+        <v>296.13200000000001</v>
+      </c>
+      <c r="AL14">
+        <v>1086.04</v>
+      </c>
+      <c r="AM14">
+        <v>257.779</v>
+      </c>
+      <c r="AN14">
+        <v>1138.57</v>
+      </c>
+      <c r="AO14">
+        <v>644.61599999999999</v>
+      </c>
+      <c r="AP14">
+        <v>807.77</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT14">
+        <v>12.1648</v>
+      </c>
+      <c r="AU14">
+        <v>12.6066</v>
+      </c>
+      <c r="AV14">
+        <v>10.769</v>
+      </c>
+      <c r="AW14">
+        <v>37.307600000000001</v>
+      </c>
+      <c r="AX14">
+        <v>54.737499999999997</v>
+      </c>
+      <c r="AY14">
+        <v>39.237499999999997</v>
+      </c>
+      <c r="AZ14">
+        <v>154.99799999999999</v>
+      </c>
+      <c r="BA14">
+        <v>25.5367</v>
+      </c>
+      <c r="BB14">
+        <v>28.2347</v>
+      </c>
+      <c r="BC14">
+        <v>44.335900000000002</v>
+      </c>
+      <c r="BD14">
+        <v>29.080400000000001</v>
+      </c>
+      <c r="BE14">
+        <v>53.0197</v>
+      </c>
+      <c r="BF14">
+        <v>62.914200000000001</v>
+      </c>
+      <c r="BG14">
+        <v>68.189700000000002</v>
+      </c>
+      <c r="BH14">
+        <v>87.9482</v>
+      </c>
+      <c r="BI14">
+        <v>79.6066</v>
+      </c>
+      <c r="BJ14">
+        <v>136.423</v>
+      </c>
+      <c r="BK14">
+        <v>83.689599999999999</v>
+      </c>
+      <c r="BL14">
+        <v>138.73099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>101.092</v>
+      </c>
+      <c r="C15">
+        <v>91.409199999999998</v>
+      </c>
+      <c r="D15">
+        <v>339.423</v>
+      </c>
+      <c r="E15">
+        <v>212.47300000000001</v>
+      </c>
+      <c r="F15">
+        <v>1325.09</v>
+      </c>
+      <c r="G15">
+        <v>841.26499999999999</v>
+      </c>
+      <c r="H15">
+        <v>70.943200000000004</v>
+      </c>
+      <c r="I15">
+        <v>71.437700000000007</v>
+      </c>
+      <c r="J15">
+        <v>53.132100000000001</v>
+      </c>
+      <c r="K15">
+        <v>54.406500000000001</v>
+      </c>
+      <c r="L15">
+        <v>96.263000000000005</v>
+      </c>
+      <c r="M15">
+        <v>115.85899999999999</v>
+      </c>
+      <c r="N15">
+        <v>113.96299999999999</v>
+      </c>
+      <c r="O15">
+        <v>148.411</v>
+      </c>
+      <c r="P15">
+        <v>208.64099999999999</v>
+      </c>
+      <c r="Q15">
+        <v>282.78699999999998</v>
+      </c>
+      <c r="R15">
+        <v>672.74699999999996</v>
+      </c>
+      <c r="S15">
+        <v>749.58299999999997</v>
+      </c>
+      <c r="T15">
+        <v>429.25599999999997</v>
+      </c>
+      <c r="W15" s="1">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>341.32799999999997</v>
+      </c>
+      <c r="Y15">
+        <v>261.51400000000001</v>
+      </c>
+      <c r="Z15">
+        <v>2380.92</v>
+      </c>
+      <c r="AA15">
+        <v>587.952</v>
+      </c>
+      <c r="AB15">
+        <v>2135.46</v>
+      </c>
+      <c r="AC15">
+        <v>657.904</v>
+      </c>
+      <c r="AD15">
+        <v>108.633</v>
+      </c>
+      <c r="AE15">
+        <v>96.973399999999998</v>
+      </c>
+      <c r="AF15">
+        <v>72.982299999999995</v>
+      </c>
+      <c r="AG15">
+        <v>89.669700000000006</v>
+      </c>
+      <c r="AH15">
+        <v>134.23099999999999</v>
+      </c>
+      <c r="AI15">
+        <v>226.24199999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>226.44200000000001</v>
+      </c>
+      <c r="AK15">
+        <v>229.191</v>
+      </c>
+      <c r="AL15">
+        <v>821.904</v>
+      </c>
+      <c r="AM15">
+        <v>850.20399999999995</v>
+      </c>
+      <c r="AN15">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AO15">
+        <v>5000.76</v>
+      </c>
+      <c r="AP15">
+        <v>778.04</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>28.291899999999998</v>
+      </c>
+      <c r="AU15">
+        <v>11.762700000000001</v>
+      </c>
+      <c r="AV15">
+        <v>21.338899999999999</v>
+      </c>
+      <c r="AW15">
+        <v>16.373100000000001</v>
+      </c>
+      <c r="AX15">
+        <v>97.790599999999998</v>
+      </c>
+      <c r="AY15">
+        <v>25.1539</v>
+      </c>
+      <c r="AZ15">
+        <v>42.822000000000003</v>
+      </c>
+      <c r="BA15">
+        <v>47.343499999999999</v>
+      </c>
+      <c r="BB15">
+        <v>28.6706</v>
+      </c>
+      <c r="BC15">
+        <v>28.715900000000001</v>
+      </c>
+      <c r="BD15">
+        <v>54.65</v>
+      </c>
+      <c r="BE15">
+        <v>65.304400000000001</v>
+      </c>
+      <c r="BF15">
+        <v>35.9741</v>
+      </c>
+      <c r="BG15">
+        <v>53.703299999999999</v>
+      </c>
+      <c r="BH15">
+        <v>72.979399999999998</v>
+      </c>
+      <c r="BI15">
+        <v>42.278100000000002</v>
+      </c>
+      <c r="BJ15">
+        <v>96.134100000000004</v>
+      </c>
+      <c r="BK15">
+        <v>202.28800000000001</v>
+      </c>
+      <c r="BL15">
+        <v>204.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>110.39100000000001</v>
+      </c>
+      <c r="C16">
+        <v>80.972099999999998</v>
+      </c>
+      <c r="D16">
+        <v>739.96500000000003</v>
+      </c>
+      <c r="E16">
+        <v>310.10300000000001</v>
+      </c>
+      <c r="F16">
+        <v>797.75699999999995</v>
+      </c>
+      <c r="G16">
+        <v>2089.2199999999998</v>
+      </c>
+      <c r="H16">
+        <v>83.386300000000006</v>
+      </c>
+      <c r="I16">
+        <v>52.825200000000002</v>
+      </c>
+      <c r="J16">
+        <v>69.983900000000006</v>
+      </c>
+      <c r="K16">
+        <v>108.235</v>
+      </c>
+      <c r="L16">
+        <v>84.555700000000002</v>
+      </c>
+      <c r="M16">
+        <v>90.394000000000005</v>
+      </c>
+      <c r="N16">
+        <v>101.288</v>
+      </c>
+      <c r="O16">
+        <v>179.73699999999999</v>
+      </c>
+      <c r="P16">
+        <v>612.11800000000005</v>
+      </c>
+      <c r="Q16">
+        <v>168.78899999999999</v>
+      </c>
+      <c r="R16">
+        <v>429.036</v>
+      </c>
+      <c r="S16">
+        <v>322.79300000000001</v>
+      </c>
+      <c r="T16">
+        <v>528.15</v>
+      </c>
+      <c r="W16" s="1">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>237.06899999999999</v>
+      </c>
+      <c r="Y16">
+        <v>167.39699999999999</v>
+      </c>
+      <c r="Z16">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AA16">
+        <v>717.62699999999995</v>
+      </c>
+      <c r="AB16">
+        <v>2980.21</v>
+      </c>
+      <c r="AC16">
+        <v>5000.07</v>
+      </c>
+      <c r="AD16">
+        <v>170.90100000000001</v>
+      </c>
+      <c r="AE16">
+        <v>87.682299999999998</v>
+      </c>
+      <c r="AF16">
+        <v>100.565</v>
+      </c>
+      <c r="AG16">
+        <v>271.59899999999999</v>
+      </c>
+      <c r="AH16">
+        <v>130.517</v>
+      </c>
+      <c r="AI16">
+        <v>143.66200000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>191.982</v>
+      </c>
+      <c r="AK16">
+        <v>440.20100000000002</v>
+      </c>
+      <c r="AL16">
+        <v>5000.01</v>
+      </c>
+      <c r="AM16">
+        <v>232.64</v>
+      </c>
+      <c r="AN16">
+        <v>2666.55</v>
+      </c>
+      <c r="AO16">
+        <v>1118.52</v>
+      </c>
+      <c r="AP16">
+        <v>1414.04</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT16">
+        <v>33.097099999999998</v>
+      </c>
+      <c r="AU16">
+        <v>20.683499999999999</v>
+      </c>
+      <c r="AV16">
+        <v>17.808800000000002</v>
+      </c>
+      <c r="AW16">
+        <v>20.4512</v>
+      </c>
+      <c r="AX16">
+        <v>84.981499999999997</v>
+      </c>
+      <c r="AY16">
+        <v>231.124</v>
+      </c>
+      <c r="AZ16">
+        <v>28.619</v>
+      </c>
+      <c r="BA16">
+        <v>28.251000000000001</v>
+      </c>
+      <c r="BB16">
+        <v>43.616</v>
+      </c>
+      <c r="BC16">
+        <v>68.192800000000005</v>
+      </c>
+      <c r="BD16">
+        <v>36.475499999999997</v>
+      </c>
+      <c r="BE16">
+        <v>65.769900000000007</v>
+      </c>
+      <c r="BF16">
+        <v>36.284199999999998</v>
+      </c>
+      <c r="BG16">
+        <v>71.898700000000005</v>
+      </c>
+      <c r="BH16">
+        <v>60.214300000000001</v>
+      </c>
+      <c r="BI16">
+        <v>106.47499999999999</v>
+      </c>
+      <c r="BJ16">
+        <v>97.836799999999997</v>
+      </c>
+      <c r="BK16">
+        <v>119.194</v>
+      </c>
+      <c r="BL16">
+        <v>75.8566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>83.662800000000004</v>
+      </c>
+      <c r="C17">
+        <v>156.79499999999999</v>
+      </c>
+      <c r="D17">
+        <v>279.24900000000002</v>
+      </c>
+      <c r="E17">
+        <v>622.95500000000004</v>
+      </c>
+      <c r="F17">
+        <v>1276.8800000000001</v>
+      </c>
+      <c r="G17">
+        <v>33.445900000000002</v>
+      </c>
+      <c r="H17">
+        <v>30.366399999999999</v>
+      </c>
+      <c r="I17">
+        <v>58.152900000000002</v>
+      </c>
+      <c r="J17">
+        <v>49.049199999999999</v>
+      </c>
+      <c r="K17">
+        <v>60.695799999999998</v>
+      </c>
+      <c r="L17">
+        <v>144.05699999999999</v>
+      </c>
+      <c r="M17">
+        <v>109.31</v>
+      </c>
+      <c r="N17">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="O17">
+        <v>136.82</v>
+      </c>
+      <c r="P17">
+        <v>107.86499999999999</v>
+      </c>
+      <c r="Q17">
+        <v>206.94399999999999</v>
+      </c>
+      <c r="R17">
+        <v>136.66800000000001</v>
+      </c>
+      <c r="S17">
+        <v>152.91900000000001</v>
+      </c>
+      <c r="T17">
+        <v>179.482</v>
+      </c>
+      <c r="W17" s="1">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>242.04400000000001</v>
+      </c>
+      <c r="Y17">
+        <v>543.47699999999998</v>
+      </c>
+      <c r="Z17">
+        <v>762.7</v>
+      </c>
+      <c r="AA17">
+        <v>1820.52</v>
+      </c>
+      <c r="AB17">
+        <v>4577.54</v>
+      </c>
+      <c r="AC17">
+        <v>55.0745</v>
+      </c>
+      <c r="AD17">
+        <v>47.164099999999998</v>
+      </c>
+      <c r="AE17">
+        <v>81.882800000000003</v>
+      </c>
+      <c r="AF17">
+        <v>125.233</v>
+      </c>
+      <c r="AG17">
+        <v>115.39</v>
+      </c>
+      <c r="AH17">
+        <v>222.273</v>
+      </c>
+      <c r="AI17">
+        <v>338.56</v>
+      </c>
+      <c r="AJ17">
+        <v>102.29600000000001</v>
+      </c>
+      <c r="AK17">
+        <v>271.00700000000001</v>
+      </c>
+      <c r="AL17">
+        <v>173.232</v>
+      </c>
+      <c r="AM17">
+        <v>571.90700000000004</v>
+      </c>
+      <c r="AN17">
+        <v>245.77699999999999</v>
+      </c>
+      <c r="AO17">
+        <v>192.626</v>
+      </c>
+      <c r="AP17">
+        <v>313.50299999999999</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT17">
+        <v>13.180099999999999</v>
+      </c>
+      <c r="AU17">
+        <v>20.7608</v>
+      </c>
+      <c r="AV17">
+        <v>21.951599999999999</v>
+      </c>
+      <c r="AW17">
+        <v>74.260300000000001</v>
+      </c>
+      <c r="AX17">
+        <v>45.2759</v>
+      </c>
+      <c r="AY17">
+        <v>16.595500000000001</v>
+      </c>
+      <c r="AZ17">
+        <v>22.035</v>
+      </c>
+      <c r="BA17">
+        <v>44.041499999999999</v>
+      </c>
+      <c r="BB17">
+        <v>29.921099999999999</v>
+      </c>
+      <c r="BC17">
+        <v>33.820300000000003</v>
+      </c>
+      <c r="BD17">
+        <v>39.637099999999997</v>
+      </c>
+      <c r="BE17">
+        <v>42.373699999999999</v>
+      </c>
+      <c r="BF17">
+        <v>28.753399999999999</v>
+      </c>
+      <c r="BG17">
+        <v>55.286700000000003</v>
+      </c>
+      <c r="BH17">
+        <v>70.010499999999993</v>
+      </c>
+      <c r="BI17">
+        <v>80.308999999999997</v>
+      </c>
+      <c r="BJ17">
+        <v>83.586699999999993</v>
+      </c>
+      <c r="BK17">
+        <v>106.625</v>
+      </c>
+      <c r="BL17">
+        <v>65.821399999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>81.573400000000007</v>
+      </c>
+      <c r="C18">
+        <v>469.79700000000003</v>
+      </c>
+      <c r="D18">
+        <v>678.976</v>
+      </c>
+      <c r="E18">
+        <v>533.57500000000005</v>
+      </c>
+      <c r="F18">
+        <v>27.128699999999998</v>
+      </c>
+      <c r="G18">
+        <v>34.765700000000002</v>
+      </c>
+      <c r="H18">
+        <v>58.912799999999997</v>
+      </c>
+      <c r="I18">
+        <v>43.812800000000003</v>
+      </c>
+      <c r="J18">
+        <v>43.896500000000003</v>
+      </c>
+      <c r="K18">
+        <v>49.848999999999997</v>
+      </c>
+      <c r="L18">
+        <v>76.589600000000004</v>
+      </c>
+      <c r="M18">
+        <v>102.98099999999999</v>
+      </c>
+      <c r="N18">
+        <v>101.16</v>
+      </c>
+      <c r="O18">
+        <v>88.836600000000004</v>
+      </c>
+      <c r="P18">
+        <v>165.08</v>
+      </c>
+      <c r="Q18">
+        <v>231.797</v>
+      </c>
+      <c r="R18">
+        <v>183.32599999999999</v>
+      </c>
+      <c r="S18">
+        <v>579.21600000000001</v>
+      </c>
+      <c r="T18">
+        <v>234.84100000000001</v>
+      </c>
+      <c r="W18" s="1">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>223.46799999999999</v>
+      </c>
+      <c r="Y18">
+        <v>3775.43</v>
+      </c>
+      <c r="Z18">
+        <v>2167.5100000000002</v>
+      </c>
+      <c r="AA18">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="AB18">
+        <v>46.180900000000001</v>
+      </c>
+      <c r="AC18">
+        <v>60.442399999999999</v>
+      </c>
+      <c r="AD18">
+        <v>142.65299999999999</v>
+      </c>
+      <c r="AE18">
+        <v>60.979799999999997</v>
+      </c>
+      <c r="AF18">
+        <v>82.608099999999993</v>
+      </c>
+      <c r="AG18">
+        <v>69.2881</v>
+      </c>
+      <c r="AH18">
+        <v>129.65100000000001</v>
+      </c>
+      <c r="AI18">
+        <v>158.77799999999999</v>
+      </c>
+      <c r="AJ18">
+        <v>138.16</v>
+      </c>
+      <c r="AK18">
+        <v>146.578</v>
+      </c>
+      <c r="AL18">
+        <v>225.678</v>
+      </c>
+      <c r="AM18">
+        <v>357.41800000000001</v>
+      </c>
+      <c r="AN18">
+        <v>814.37800000000004</v>
+      </c>
+      <c r="AO18">
+        <v>5000</v>
+      </c>
+      <c r="AP18">
+        <v>832.51499999999999</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT18">
+        <v>25.5458</v>
+      </c>
+      <c r="AU18">
+        <v>23.2788</v>
+      </c>
+      <c r="AV18">
+        <v>42.889000000000003</v>
+      </c>
+      <c r="AW18">
+        <v>93.608800000000002</v>
+      </c>
+      <c r="AX18">
+        <v>16.196400000000001</v>
+      </c>
+      <c r="AY18">
+        <v>20.895700000000001</v>
+      </c>
+      <c r="AZ18">
+        <v>25.334800000000001</v>
+      </c>
+      <c r="BA18">
+        <v>22.663499999999999</v>
+      </c>
+      <c r="BB18">
+        <v>22.1252</v>
+      </c>
+      <c r="BC18">
+        <v>26.939900000000002</v>
+      </c>
+      <c r="BD18">
+        <v>42.965699999999998</v>
+      </c>
+      <c r="BE18">
+        <v>47.307699999999997</v>
+      </c>
+      <c r="BF18">
+        <v>74.193600000000004</v>
+      </c>
+      <c r="BG18">
+        <v>35.443399999999997</v>
+      </c>
+      <c r="BH18">
+        <v>82.584599999999995</v>
+      </c>
+      <c r="BI18">
+        <v>79.069000000000003</v>
+      </c>
+      <c r="BJ18">
+        <v>65.9696</v>
+      </c>
+      <c r="BK18">
+        <v>41.747700000000002</v>
+      </c>
+      <c r="BL18">
+        <v>99.503699999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>182.18899999999999</v>
+      </c>
+      <c r="C19">
+        <v>179.60599999999999</v>
+      </c>
+      <c r="D19">
+        <v>601.45799999999997</v>
+      </c>
+      <c r="E19">
+        <v>1239.52</v>
+      </c>
+      <c r="F19">
+        <v>34.687199999999997</v>
+      </c>
+      <c r="G19">
+        <v>44.107799999999997</v>
+      </c>
+      <c r="H19">
+        <v>57.482700000000001</v>
+      </c>
+      <c r="I19">
+        <v>106.066</v>
+      </c>
+      <c r="J19">
+        <v>61.315199999999997</v>
+      </c>
+      <c r="K19">
+        <v>52.375900000000001</v>
+      </c>
+      <c r="L19">
+        <v>75.480500000000006</v>
+      </c>
+      <c r="M19">
+        <v>85.6173</v>
+      </c>
+      <c r="N19">
+        <v>55.369</v>
+      </c>
+      <c r="O19">
+        <v>82.203599999999994</v>
+      </c>
+      <c r="P19">
+        <v>103.54600000000001</v>
+      </c>
+      <c r="Q19">
+        <v>78.867999999999995</v>
+      </c>
+      <c r="R19">
+        <v>131.49700000000001</v>
+      </c>
+      <c r="S19">
+        <v>155.21299999999999</v>
+      </c>
+      <c r="T19">
+        <v>183.52600000000001</v>
+      </c>
+      <c r="W19" s="1">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>510.38900000000001</v>
+      </c>
+      <c r="Y19">
+        <v>381.94400000000002</v>
+      </c>
+      <c r="Z19">
+        <v>760.30200000000002</v>
+      </c>
+      <c r="AA19">
+        <v>4700.3500000000004</v>
+      </c>
+      <c r="AB19">
+        <v>56.976700000000001</v>
+      </c>
+      <c r="AC19">
+        <v>72.700999999999993</v>
+      </c>
+      <c r="AD19">
+        <v>100.88800000000001</v>
+      </c>
+      <c r="AE19">
+        <v>236.33099999999999</v>
+      </c>
+      <c r="AF19">
+        <v>115.318</v>
+      </c>
+      <c r="AG19">
+        <v>79.697400000000002</v>
+      </c>
+      <c r="AH19">
+        <v>143.65899999999999</v>
+      </c>
+      <c r="AI19">
+        <v>133.06399999999999</v>
+      </c>
+      <c r="AJ19">
+        <v>81.777100000000004</v>
+      </c>
+      <c r="AK19">
+        <v>172.09200000000001</v>
+      </c>
+      <c r="AL19">
+        <v>228.02</v>
+      </c>
+      <c r="AM19">
+        <v>116.782</v>
+      </c>
+      <c r="AN19">
+        <v>254.501</v>
+      </c>
+      <c r="AO19">
+        <v>344.08800000000002</v>
+      </c>
+      <c r="AP19">
+        <v>498.09899999999999</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT19">
+        <v>18.489000000000001</v>
+      </c>
+      <c r="AU19">
+        <v>31.241199999999999</v>
+      </c>
+      <c r="AV19">
+        <v>19.627800000000001</v>
+      </c>
+      <c r="AW19">
+        <v>64.9452</v>
+      </c>
+      <c r="AX19">
+        <v>19.2105</v>
+      </c>
+      <c r="AY19">
+        <v>19.519600000000001</v>
+      </c>
+      <c r="AZ19">
+        <v>28.360199999999999</v>
+      </c>
+      <c r="BA19">
+        <v>43.9574</v>
+      </c>
+      <c r="BB19">
+        <v>32.4544</v>
+      </c>
+      <c r="BC19">
+        <v>36.286900000000003</v>
+      </c>
+      <c r="BD19">
+        <v>48.420699999999997</v>
+      </c>
+      <c r="BE19">
+        <v>47.233199999999997</v>
+      </c>
+      <c r="BF19">
+        <v>34.638300000000001</v>
+      </c>
+      <c r="BG19">
+        <v>40.048200000000001</v>
+      </c>
+      <c r="BH19">
+        <v>54.044699999999999</v>
+      </c>
+      <c r="BI19">
+        <v>39.436100000000003</v>
+      </c>
+      <c r="BJ19">
+        <v>78.6721</v>
+      </c>
+      <c r="BK19">
+        <v>95.778000000000006</v>
+      </c>
+      <c r="BL19">
+        <v>84.040700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>84.952299999999994</v>
+      </c>
+      <c r="C20">
+        <v>148.75200000000001</v>
+      </c>
+      <c r="D20">
+        <v>496.64400000000001</v>
+      </c>
+      <c r="E20">
+        <v>34.631999999999998</v>
+      </c>
+      <c r="F20">
+        <v>32.076000000000001</v>
+      </c>
+      <c r="G20">
+        <v>54.148099999999999</v>
+      </c>
+      <c r="H20">
+        <v>65.676699999999997</v>
+      </c>
+      <c r="I20">
+        <v>74.594399999999993</v>
+      </c>
+      <c r="J20">
+        <v>80.776899999999998</v>
+      </c>
+      <c r="K20">
+        <v>99.3048</v>
+      </c>
+      <c r="L20">
+        <v>51.159300000000002</v>
+      </c>
+      <c r="M20">
+        <v>79.380200000000002</v>
+      </c>
+      <c r="N20">
+        <v>92.503500000000003</v>
+      </c>
+      <c r="O20">
+        <v>103.075</v>
+      </c>
+      <c r="P20">
+        <v>274.43099999999998</v>
+      </c>
+      <c r="Q20">
+        <v>133.60400000000001</v>
+      </c>
+      <c r="R20">
+        <v>97.667199999999994</v>
+      </c>
+      <c r="S20">
+        <v>276.90699999999998</v>
+      </c>
+      <c r="T20">
+        <v>625.71799999999996</v>
+      </c>
+      <c r="W20" s="1">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>164.25800000000001</v>
+      </c>
+      <c r="Y20">
+        <v>495.35399999999998</v>
+      </c>
+      <c r="Z20">
+        <v>1527.83</v>
+      </c>
+      <c r="AA20">
+        <v>82.142700000000005</v>
+      </c>
+      <c r="AB20">
+        <v>52.8645</v>
+      </c>
+      <c r="AC20">
+        <v>74.343400000000003</v>
+      </c>
+      <c r="AD20">
+        <v>106.557</v>
+      </c>
+      <c r="AE20">
+        <v>161.196</v>
+      </c>
+      <c r="AF20">
+        <v>150.096</v>
+      </c>
+      <c r="AG20">
+        <v>253.54</v>
+      </c>
+      <c r="AH20">
+        <v>85.965000000000003</v>
+      </c>
+      <c r="AI20">
+        <v>180.33</v>
+      </c>
+      <c r="AJ20">
+        <v>190.99600000000001</v>
+      </c>
+      <c r="AK20">
+        <v>205.566</v>
+      </c>
+      <c r="AL20">
+        <v>1860.7</v>
+      </c>
+      <c r="AM20">
+        <v>243.28399999999999</v>
+      </c>
+      <c r="AN20">
+        <v>242.04300000000001</v>
+      </c>
+      <c r="AO20">
+        <v>820.26800000000003</v>
+      </c>
+      <c r="AP20">
+        <v>209.36799999999999</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT20">
+        <v>19.4666</v>
+      </c>
+      <c r="AU20">
+        <v>21.6907</v>
+      </c>
+      <c r="AV20">
+        <v>28.3812</v>
+      </c>
+      <c r="AW20">
+        <v>16.0778</v>
+      </c>
+      <c r="AX20">
+        <v>17.247</v>
+      </c>
+      <c r="AY20">
+        <v>31.105899999999998</v>
+      </c>
+      <c r="AZ20">
+        <v>33.192399999999999</v>
+      </c>
+      <c r="BA20">
+        <v>50.840600000000002</v>
+      </c>
+      <c r="BB20">
+        <v>21.137899999999998</v>
+      </c>
+      <c r="BC20">
+        <v>47.171300000000002</v>
+      </c>
+      <c r="BD20">
+        <v>34.596699999999998</v>
+      </c>
+      <c r="BE20">
+        <v>29.722899999999999</v>
+      </c>
+      <c r="BF20">
+        <v>43.260300000000001</v>
+      </c>
+      <c r="BG20">
+        <v>49.909700000000001</v>
+      </c>
+      <c r="BH20">
+        <v>25.716799999999999</v>
+      </c>
+      <c r="BI20">
+        <v>64.047899999999998</v>
+      </c>
+      <c r="BJ20">
+        <v>52.919800000000002</v>
+      </c>
+      <c r="BK20">
+        <v>148.892</v>
+      </c>
+      <c r="BL20">
+        <v>55.667000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>65.630300000000005</v>
+      </c>
+      <c r="C21">
+        <v>113.788</v>
+      </c>
+      <c r="D21">
+        <v>684.18</v>
+      </c>
+      <c r="E21">
+        <v>27.093599999999999</v>
+      </c>
+      <c r="F21">
+        <v>27.425899999999999</v>
+      </c>
+      <c r="G21">
+        <v>42.293199999999999</v>
+      </c>
+      <c r="H21">
+        <v>57.404400000000003</v>
+      </c>
+      <c r="I21">
+        <v>52.057600000000001</v>
+      </c>
+      <c r="J21">
+        <v>47.268999999999998</v>
+      </c>
+      <c r="K21">
+        <v>77.327399999999997</v>
+      </c>
+      <c r="L21">
+        <v>81.295299999999997</v>
+      </c>
+      <c r="M21">
+        <v>118.404</v>
+      </c>
+      <c r="N21">
+        <v>94.696899999999999</v>
+      </c>
+      <c r="O21">
+        <v>98.816500000000005</v>
+      </c>
+      <c r="P21">
+        <v>108.28700000000001</v>
+      </c>
+      <c r="Q21">
+        <v>149.31700000000001</v>
+      </c>
+      <c r="R21">
+        <v>153.44800000000001</v>
+      </c>
+      <c r="S21">
+        <v>291.94299999999998</v>
+      </c>
+      <c r="T21">
+        <v>166.28200000000001</v>
+      </c>
+      <c r="W21" s="1">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>218.78899999999999</v>
+      </c>
+      <c r="Y21">
+        <v>220.19</v>
+      </c>
+      <c r="Z21">
+        <v>1485.41</v>
+      </c>
+      <c r="AA21">
+        <v>31.8889</v>
+      </c>
+      <c r="AB21">
+        <v>49.175800000000002</v>
+      </c>
+      <c r="AC21">
+        <v>71.340900000000005</v>
+      </c>
+      <c r="AD21">
+        <v>84.700299999999999</v>
+      </c>
+      <c r="AE21">
+        <v>132.529</v>
+      </c>
+      <c r="AF21">
+        <v>90.362099999999998</v>
+      </c>
+      <c r="AG21">
+        <v>176.899</v>
+      </c>
+      <c r="AH21">
+        <v>139.672</v>
+      </c>
+      <c r="AI21">
+        <v>224.309</v>
+      </c>
+      <c r="AJ21">
+        <v>127.051</v>
+      </c>
+      <c r="AK21">
+        <v>134.58000000000001</v>
+      </c>
+      <c r="AL21">
+        <v>196.44399999999999</v>
+      </c>
+      <c r="AM21">
+        <v>308.98099999999999</v>
+      </c>
+      <c r="AN21">
+        <v>418.06599999999997</v>
+      </c>
+      <c r="AO21">
+        <v>741.70500000000004</v>
+      </c>
+      <c r="AP21">
+        <v>483.815</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT21">
+        <v>17.3264</v>
+      </c>
+      <c r="AU21">
+        <v>20.582899999999999</v>
+      </c>
+      <c r="AV21">
+        <v>132.994</v>
+      </c>
+      <c r="AW21">
+        <v>13.325100000000001</v>
+      </c>
+      <c r="AX21">
+        <v>15.8437</v>
+      </c>
+      <c r="AY21">
+        <v>15.407</v>
+      </c>
+      <c r="AZ21">
+        <v>19.837700000000002</v>
+      </c>
+      <c r="BA21">
+        <v>19.354600000000001</v>
+      </c>
+      <c r="BB21">
+        <v>28.389399999999998</v>
+      </c>
+      <c r="BC21">
+        <v>40.084699999999998</v>
+      </c>
+      <c r="BD21">
+        <v>39.927799999999998</v>
+      </c>
+      <c r="BE21">
+        <v>61.806899999999999</v>
+      </c>
+      <c r="BF21">
+        <v>41.387099999999997</v>
+      </c>
+      <c r="BG21">
+        <v>67.349100000000007</v>
+      </c>
+      <c r="BH21">
+        <v>56.218600000000002</v>
+      </c>
+      <c r="BI21">
+        <v>84.208299999999994</v>
+      </c>
+      <c r="BJ21">
+        <v>71.142300000000006</v>
+      </c>
+      <c r="BK21">
+        <v>88.712199999999996</v>
+      </c>
+      <c r="BL21">
+        <v>35.967199999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="X1:AP1"/>
+    <mergeCell ref="AT1:BL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:BL22 AU4:BL4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:AP22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4:BL22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:AP3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU3:BL3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:BL3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA6965-6ABD-4CDC-9570-24036AA1D793}">
+  <dimension ref="A1:BL22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="42" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="5.140625" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="64" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AT1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>11</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5016.3500000000004</v>
+      </c>
+      <c r="C3">
+        <v>5011.1499999999996</v>
+      </c>
+      <c r="D3">
+        <v>5024.88</v>
+      </c>
+      <c r="E3">
+        <v>5025.6099999999997</v>
+      </c>
+      <c r="F3">
+        <v>5012.6099999999997</v>
+      </c>
+      <c r="G3">
+        <v>5038.3900000000003</v>
+      </c>
+      <c r="H3">
+        <v>5023.34</v>
+      </c>
+      <c r="I3">
+        <v>5029.38</v>
+      </c>
+      <c r="J3">
+        <v>5033.07</v>
+      </c>
+      <c r="K3">
+        <v>5032.33</v>
+      </c>
+      <c r="L3">
+        <v>5026.7</v>
+      </c>
+      <c r="M3">
+        <v>5049.92</v>
+      </c>
+      <c r="N3">
+        <v>5064.1400000000003</v>
+      </c>
+      <c r="O3">
+        <v>5062.79</v>
+      </c>
+      <c r="P3">
+        <v>5057.2</v>
+      </c>
+      <c r="Q3">
+        <v>5085.6000000000004</v>
+      </c>
+      <c r="R3">
+        <v>5047.3</v>
+      </c>
+      <c r="S3">
+        <v>5085.53</v>
+      </c>
+      <c r="T3">
+        <v>5038.3500000000004</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>5000.01</v>
+      </c>
+      <c r="Y3">
+        <v>5000.01</v>
+      </c>
+      <c r="Z3">
+        <v>5000.2</v>
+      </c>
+      <c r="AA3">
+        <v>5000.01</v>
+      </c>
+      <c r="AB3">
+        <v>5000.01</v>
+      </c>
+      <c r="AC3">
+        <v>5000.28</v>
+      </c>
+      <c r="AD3">
+        <v>5001.7299999999996</v>
+      </c>
+      <c r="AE3">
+        <v>5001.09</v>
+      </c>
+      <c r="AF3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AG3">
+        <v>5000.24</v>
+      </c>
+      <c r="AH3">
+        <v>5001.25</v>
+      </c>
+      <c r="AI3">
+        <v>5000.59</v>
+      </c>
+      <c r="AJ3">
+        <v>5000.09</v>
+      </c>
+      <c r="AK3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AL3">
+        <v>5000.59</v>
+      </c>
+      <c r="AM3">
+        <v>5000.08</v>
+      </c>
+      <c r="AN3">
+        <v>5000.03</v>
+      </c>
+      <c r="AO3">
+        <v>5004.12</v>
+      </c>
+      <c r="AP3">
+        <v>5000.17</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>5000.76</v>
+      </c>
+      <c r="AU3">
+        <v>5004.33</v>
+      </c>
+      <c r="AV3">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="AW3">
+        <v>5010.03</v>
+      </c>
+      <c r="AX3">
+        <v>5001.93</v>
+      </c>
+      <c r="AY3">
+        <v>5004.54</v>
+      </c>
+      <c r="AZ3">
+        <v>5008.8599999999997</v>
+      </c>
+      <c r="BA3">
+        <v>5004.99</v>
+      </c>
+      <c r="BB3">
+        <v>5004.45</v>
+      </c>
+      <c r="BC3">
+        <v>5008.17</v>
+      </c>
+      <c r="BD3">
+        <v>5002.37</v>
+      </c>
+      <c r="BE3">
+        <v>5000.93</v>
+      </c>
+      <c r="BF3">
+        <v>5031.37</v>
+      </c>
+      <c r="BG3">
+        <v>5007.58</v>
+      </c>
+      <c r="BH3">
+        <v>5018.55</v>
+      </c>
+      <c r="BI3">
+        <v>5001.4399999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>5000.97</v>
+      </c>
+      <c r="BK3">
+        <v>5025.74</v>
+      </c>
+      <c r="BL3">
+        <v>5005.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5014.51</v>
+      </c>
+      <c r="C4">
+        <v>5012.93</v>
+      </c>
+      <c r="D4">
+        <v>5024.3500000000004</v>
+      </c>
+      <c r="E4">
+        <v>5018.8</v>
+      </c>
+      <c r="F4">
+        <v>5035.71</v>
+      </c>
+      <c r="G4">
+        <v>5049.72</v>
+      </c>
+      <c r="H4">
+        <v>5022.3</v>
+      </c>
+      <c r="I4">
+        <v>5027.51</v>
+      </c>
+      <c r="J4">
+        <v>5021.32</v>
+      </c>
+      <c r="K4">
+        <v>5041.91</v>
+      </c>
+      <c r="L4">
+        <v>5062.4399999999996</v>
+      </c>
+      <c r="M4">
+        <v>5033.8100000000004</v>
+      </c>
+      <c r="N4">
+        <v>5031.88</v>
+      </c>
+      <c r="O4">
+        <v>5030.51</v>
+      </c>
+      <c r="P4">
+        <v>5043.0200000000004</v>
+      </c>
+      <c r="Q4">
+        <v>5041.7299999999996</v>
+      </c>
+      <c r="R4">
+        <v>5067.66</v>
+      </c>
+      <c r="S4">
+        <v>5055.95</v>
+      </c>
+      <c r="T4">
+        <v>5064.16</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>5000</v>
+      </c>
+      <c r="Y4">
+        <v>5000.01</v>
+      </c>
+      <c r="Z4">
+        <v>5000.01</v>
+      </c>
+      <c r="AA4">
+        <v>5000.01</v>
+      </c>
+      <c r="AB4">
+        <v>5000.01</v>
+      </c>
+      <c r="AC4">
+        <v>5000.4799999999996</v>
+      </c>
+      <c r="AD4">
+        <v>5000.01</v>
+      </c>
+      <c r="AE4">
+        <v>5000.01</v>
+      </c>
+      <c r="AF4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AG4">
+        <v>5000.03</v>
+      </c>
+      <c r="AH4">
+        <v>5000.26</v>
+      </c>
+      <c r="AI4">
+        <v>5000.03</v>
+      </c>
+      <c r="AJ4">
+        <v>5000.03</v>
+      </c>
+      <c r="AK4">
+        <v>5000.03</v>
+      </c>
+      <c r="AL4">
+        <v>5000.37</v>
+      </c>
+      <c r="AM4">
+        <v>5000.03</v>
+      </c>
+      <c r="AN4">
+        <v>5001.91</v>
+      </c>
+      <c r="AO4">
+        <v>5000.03</v>
+      </c>
+      <c r="AP4">
+        <v>5000.9799999999996</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>5000.03</v>
+      </c>
+      <c r="AU4">
+        <v>5000.53</v>
+      </c>
+      <c r="AV4">
+        <v>5000.54</v>
+      </c>
+      <c r="AW4">
+        <v>5004.53</v>
+      </c>
+      <c r="AX4">
+        <v>5001.59</v>
+      </c>
+      <c r="AY4">
+        <v>5004.37</v>
+      </c>
+      <c r="AZ4">
+        <v>5001.97</v>
+      </c>
+      <c r="BA4">
+        <v>5004.58</v>
+      </c>
+      <c r="BB4">
+        <v>5005.42</v>
+      </c>
+      <c r="BC4">
+        <v>5000.07</v>
+      </c>
+      <c r="BD4">
+        <v>5005.67</v>
+      </c>
+      <c r="BE4">
+        <v>5000.6400000000003</v>
+      </c>
+      <c r="BF4">
+        <v>5002.5600000000004</v>
+      </c>
+      <c r="BG4">
+        <v>5002.2299999999996</v>
+      </c>
+      <c r="BH4">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="BI4">
+        <v>5004.5600000000004</v>
+      </c>
+      <c r="BJ4">
+        <v>5009.41</v>
+      </c>
+      <c r="BK4">
+        <v>5013.99</v>
+      </c>
+      <c r="BL4">
+        <v>5001.8100000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5009.57</v>
+      </c>
+      <c r="C5">
+        <v>5017.3599999999997</v>
+      </c>
+      <c r="D5">
+        <v>5021.78</v>
+      </c>
+      <c r="E5">
+        <v>5016.29</v>
+      </c>
+      <c r="F5">
+        <v>5027.87</v>
+      </c>
+      <c r="G5">
+        <v>5020.49</v>
+      </c>
+      <c r="H5">
+        <v>5040.8900000000003</v>
+      </c>
+      <c r="I5">
+        <v>5017.83</v>
+      </c>
+      <c r="J5">
+        <v>5041.4799999999996</v>
+      </c>
+      <c r="K5">
+        <v>5035.07</v>
+      </c>
+      <c r="L5">
+        <v>5037.71</v>
+      </c>
+      <c r="M5">
+        <v>5053.9399999999996</v>
+      </c>
+      <c r="N5">
+        <v>5051.87</v>
+      </c>
+      <c r="O5">
+        <v>5029.57</v>
+      </c>
+      <c r="P5">
+        <v>5039.12</v>
+      </c>
+      <c r="Q5">
+        <v>5072.46</v>
+      </c>
+      <c r="R5">
+        <v>5031.6899999999996</v>
+      </c>
+      <c r="S5">
+        <v>5068.17</v>
+      </c>
+      <c r="T5">
+        <v>5070.53</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>5000</v>
+      </c>
+      <c r="Y5">
+        <v>723.96</v>
+      </c>
+      <c r="Z5">
+        <v>183.41800000000001</v>
+      </c>
+      <c r="AA5">
+        <v>835.37599999999998</v>
+      </c>
+      <c r="AB5">
+        <v>1816.83</v>
+      </c>
+      <c r="AC5">
+        <v>5000.01</v>
+      </c>
+      <c r="AD5">
+        <v>5000</v>
+      </c>
+      <c r="AE5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AF5">
+        <v>5000.03</v>
+      </c>
+      <c r="AG5">
+        <v>5000.03</v>
+      </c>
+      <c r="AH5">
+        <v>5000.04</v>
+      </c>
+      <c r="AI5">
+        <v>5000.17</v>
+      </c>
+      <c r="AJ5">
+        <v>5000.58</v>
+      </c>
+      <c r="AK5">
+        <v>5001.41</v>
+      </c>
+      <c r="AL5">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="AM5">
+        <v>5000.05</v>
+      </c>
+      <c r="AN5">
+        <v>5000.6899999999996</v>
+      </c>
+      <c r="AO5">
+        <v>5000.62</v>
+      </c>
+      <c r="AP5">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>5001.6899999999996</v>
+      </c>
+      <c r="AU5">
+        <v>5001.41</v>
+      </c>
+      <c r="AV5">
+        <v>5004.46</v>
+      </c>
+      <c r="AW5">
+        <v>5001.46</v>
+      </c>
+      <c r="AX5">
+        <v>5000.8900000000003</v>
+      </c>
+      <c r="AY5">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="AZ5">
+        <v>5000.49</v>
+      </c>
+      <c r="BA5">
+        <v>5001.53</v>
+      </c>
+      <c r="BB5">
+        <v>5005.92</v>
+      </c>
+      <c r="BC5">
+        <v>5000.43</v>
+      </c>
+      <c r="BD5">
+        <v>5005.74</v>
+      </c>
+      <c r="BE5">
+        <v>5008.62</v>
+      </c>
+      <c r="BF5">
+        <v>5001.54</v>
+      </c>
+      <c r="BG5">
+        <v>5001.8599999999997</v>
+      </c>
+      <c r="BH5">
+        <v>5006.04</v>
+      </c>
+      <c r="BI5">
+        <v>5010.18</v>
+      </c>
+      <c r="BJ5">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="BK5">
+        <v>5000.79</v>
+      </c>
+      <c r="BL5">
+        <v>5000.1499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5011.47</v>
+      </c>
+      <c r="C6">
+        <v>5008.57</v>
+      </c>
+      <c r="D6">
+        <v>5019.03</v>
+      </c>
+      <c r="E6">
+        <v>5024.87</v>
+      </c>
+      <c r="F6">
+        <v>5022.01</v>
+      </c>
+      <c r="G6">
+        <v>5034.3100000000004</v>
+      </c>
+      <c r="H6">
+        <v>5029.67</v>
+      </c>
+      <c r="I6">
+        <v>5033.28</v>
+      </c>
+      <c r="J6">
+        <v>5052.37</v>
+      </c>
+      <c r="K6">
+        <v>5040.54</v>
+      </c>
+      <c r="L6">
+        <v>5052.34</v>
+      </c>
+      <c r="M6">
+        <v>5043.18</v>
+      </c>
+      <c r="N6">
+        <v>5079.1000000000004</v>
+      </c>
+      <c r="O6">
+        <v>5032.17</v>
+      </c>
+      <c r="P6">
+        <v>5052.9799999999996</v>
+      </c>
+      <c r="Q6">
+        <v>5079.1099999999997</v>
+      </c>
+      <c r="R6">
+        <v>5077.84</v>
+      </c>
+      <c r="S6">
+        <v>5059.33</v>
+      </c>
+      <c r="T6">
+        <v>5054.7299999999996</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>627.85299999999995</v>
+      </c>
+      <c r="Y6">
+        <v>5000</v>
+      </c>
+      <c r="Z6">
+        <v>450.30399999999997</v>
+      </c>
+      <c r="AA6">
+        <v>445.916</v>
+      </c>
+      <c r="AB6">
+        <v>1949.52</v>
+      </c>
+      <c r="AC6">
+        <v>5000</v>
+      </c>
+      <c r="AD6">
+        <v>1016.62</v>
+      </c>
+      <c r="AE6">
+        <v>5000.01</v>
+      </c>
+      <c r="AF6">
+        <v>4840.05</v>
+      </c>
+      <c r="AG6">
+        <v>5000.17</v>
+      </c>
+      <c r="AH6">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AI6">
+        <v>5001.3599999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>5000.04</v>
+      </c>
+      <c r="AK6">
+        <v>5000.04</v>
+      </c>
+      <c r="AL6">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="AM6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AN6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AO6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AP6">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <v>5000.43</v>
+      </c>
+      <c r="AU6">
+        <v>5000.33</v>
+      </c>
+      <c r="AV6">
+        <v>5001.29</v>
+      </c>
+      <c r="AW6">
+        <v>5000.01</v>
+      </c>
+      <c r="AX6">
+        <v>5000.9799999999996</v>
+      </c>
+      <c r="AY6">
+        <v>5002.9399999999996</v>
+      </c>
+      <c r="AZ6">
+        <v>5001.17</v>
+      </c>
+      <c r="BA6">
+        <v>5007.2700000000004</v>
+      </c>
+      <c r="BB6">
+        <v>5000.79</v>
+      </c>
+      <c r="BC6">
+        <v>5002.58</v>
+      </c>
+      <c r="BD6">
+        <v>5008.87</v>
+      </c>
+      <c r="BE6">
+        <v>5003.3</v>
+      </c>
+      <c r="BF6">
+        <v>5002.28</v>
+      </c>
+      <c r="BG6">
+        <v>5005.17</v>
+      </c>
+      <c r="BH6">
+        <v>5004.1899999999996</v>
+      </c>
+      <c r="BI6">
+        <v>5001.1499999999996</v>
+      </c>
+      <c r="BJ6">
+        <v>5011.33</v>
+      </c>
+      <c r="BK6">
+        <v>5000.6499999999996</v>
+      </c>
+      <c r="BL6">
+        <v>5001.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5012.37</v>
+      </c>
+      <c r="C7">
+        <v>5013.3100000000004</v>
+      </c>
+      <c r="D7">
+        <v>5033.59</v>
+      </c>
+      <c r="E7">
+        <v>5019.3999999999996</v>
+      </c>
+      <c r="F7">
+        <v>5016.93</v>
+      </c>
+      <c r="G7">
+        <v>5023.79</v>
+      </c>
+      <c r="H7">
+        <v>5031.8599999999997</v>
+      </c>
+      <c r="I7">
+        <v>5037.33</v>
+      </c>
+      <c r="J7">
+        <v>5037.92</v>
+      </c>
+      <c r="K7">
+        <v>5037.6899999999996</v>
+      </c>
+      <c r="L7">
+        <v>5036.7</v>
+      </c>
+      <c r="M7">
+        <v>5031.63</v>
+      </c>
+      <c r="N7">
+        <v>5031.75</v>
+      </c>
+      <c r="O7">
+        <v>5023.5</v>
+      </c>
+      <c r="P7">
+        <v>5035.93</v>
+      </c>
+      <c r="Q7">
+        <v>5053.71</v>
+      </c>
+      <c r="R7">
+        <v>5053.58</v>
+      </c>
+      <c r="S7">
+        <v>5049.72</v>
+      </c>
+      <c r="T7">
+        <v>5033.62</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>1820.16</v>
+      </c>
+      <c r="Y7">
+        <v>320.84899999999999</v>
+      </c>
+      <c r="Z7">
+        <v>182.41399999999999</v>
+      </c>
+      <c r="AA7">
+        <v>243.12200000000001</v>
+      </c>
+      <c r="AB7">
+        <v>765.303</v>
+      </c>
+      <c r="AC7">
+        <v>340.423</v>
+      </c>
+      <c r="AD7">
+        <v>5000</v>
+      </c>
+      <c r="AE7">
+        <v>1023.04</v>
+      </c>
+      <c r="AF7">
+        <v>5000.01</v>
+      </c>
+      <c r="AG7">
+        <v>5000.05</v>
+      </c>
+      <c r="AH7">
+        <v>5000.05</v>
+      </c>
+      <c r="AI7">
+        <v>5000.04</v>
+      </c>
+      <c r="AJ7">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AK7">
+        <v>5000.12</v>
+      </c>
+      <c r="AL7">
+        <v>5000.07</v>
+      </c>
+      <c r="AM7">
+        <v>5000.08</v>
+      </c>
+      <c r="AN7">
+        <v>5000.07</v>
+      </c>
+      <c r="AO7">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="AP7">
+        <v>5000.09</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>5000.49</v>
+      </c>
+      <c r="AU7">
+        <v>5000.3500000000004</v>
+      </c>
+      <c r="AV7">
+        <v>5004.8900000000003</v>
+      </c>
+      <c r="AW7">
+        <v>5003.13</v>
+      </c>
+      <c r="AX7">
+        <v>5001.49</v>
+      </c>
+      <c r="AY7">
+        <v>5002.84</v>
+      </c>
+      <c r="AZ7">
+        <v>5002.1099999999997</v>
+      </c>
+      <c r="BA7">
+        <v>5003.25</v>
+      </c>
+      <c r="BB7">
+        <v>5010.5</v>
+      </c>
+      <c r="BC7">
+        <v>5001.75</v>
+      </c>
+      <c r="BD7">
+        <v>5001.55</v>
+      </c>
+      <c r="BE7">
+        <v>5004.53</v>
+      </c>
+      <c r="BF7">
+        <v>5004.6899999999996</v>
+      </c>
+      <c r="BG7">
+        <v>5001.08</v>
+      </c>
+      <c r="BH7">
+        <v>5002.25</v>
+      </c>
+      <c r="BI7">
+        <v>5009.96</v>
+      </c>
+      <c r="BJ7">
+        <v>5009.47</v>
+      </c>
+      <c r="BK7">
+        <v>5009.0200000000004</v>
+      </c>
+      <c r="BL7">
+        <v>5010.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5008.83</v>
+      </c>
+      <c r="C8">
+        <v>5012.6400000000003</v>
+      </c>
+      <c r="D8">
+        <v>5011.32</v>
+      </c>
+      <c r="E8">
+        <v>5030.12</v>
+      </c>
+      <c r="F8">
+        <v>5029.4799999999996</v>
+      </c>
+      <c r="G8">
+        <v>5027.63</v>
+      </c>
+      <c r="H8">
+        <v>5034.2</v>
+      </c>
+      <c r="I8">
+        <v>5051.7700000000004</v>
+      </c>
+      <c r="J8">
+        <v>5019.8900000000003</v>
+      </c>
+      <c r="K8">
+        <v>5037.2</v>
+      </c>
+      <c r="L8">
+        <v>5052.66</v>
+      </c>
+      <c r="M8">
+        <v>5029.3500000000004</v>
+      </c>
+      <c r="N8">
+        <v>5061.47</v>
+      </c>
+      <c r="O8">
+        <v>5055.76</v>
+      </c>
+      <c r="P8">
+        <v>5050.8999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>5072.93</v>
+      </c>
+      <c r="R8">
+        <v>5079.71</v>
+      </c>
+      <c r="S8">
+        <v>5114.8</v>
+      </c>
+      <c r="T8">
+        <v>5071.34</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>670.11300000000006</v>
+      </c>
+      <c r="Y8">
+        <v>398.1</v>
+      </c>
+      <c r="Z8">
+        <v>457.89</v>
+      </c>
+      <c r="AA8">
+        <v>354.65100000000001</v>
+      </c>
+      <c r="AB8">
+        <v>397.53699999999998</v>
+      </c>
+      <c r="AC8">
+        <v>303.15300000000002</v>
+      </c>
+      <c r="AD8">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>569.08199999999999</v>
+      </c>
+      <c r="AF8">
+        <v>333.928</v>
+      </c>
+      <c r="AG8">
+        <v>5006.26</v>
+      </c>
+      <c r="AH8">
+        <v>5000.01</v>
+      </c>
+      <c r="AI8">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AJ8">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AK8">
+        <v>5000.07</v>
+      </c>
+      <c r="AL8">
+        <v>5000.08</v>
+      </c>
+      <c r="AM8">
+        <v>5003.18</v>
+      </c>
+      <c r="AN8">
+        <v>5000.08</v>
+      </c>
+      <c r="AO8">
+        <v>5000.51</v>
+      </c>
+      <c r="AP8">
+        <v>5000.09</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT8">
+        <v>5000.93</v>
+      </c>
+      <c r="AU8">
+        <v>5000.12</v>
+      </c>
+      <c r="AV8">
+        <v>5001.91</v>
+      </c>
+      <c r="AW8">
+        <v>5002.1499999999996</v>
+      </c>
+      <c r="AX8">
+        <v>5000.21</v>
+      </c>
+      <c r="AY8">
+        <v>5005.7299999999996</v>
+      </c>
+      <c r="AZ8">
+        <v>5005.38</v>
+      </c>
+      <c r="BA8">
+        <v>5013.75</v>
+      </c>
+      <c r="BB8">
+        <v>5000.78</v>
+      </c>
+      <c r="BC8">
+        <v>5009.2</v>
+      </c>
+      <c r="BD8">
+        <v>5002.2</v>
+      </c>
+      <c r="BE8">
+        <v>5008.32</v>
+      </c>
+      <c r="BF8">
+        <v>5008.3500000000004</v>
+      </c>
+      <c r="BG8">
+        <v>5004.25</v>
+      </c>
+      <c r="BH8">
+        <v>5002.07</v>
+      </c>
+      <c r="BI8">
+        <v>5015.17</v>
+      </c>
+      <c r="BJ8">
+        <v>5010.53</v>
+      </c>
+      <c r="BK8">
+        <v>5007.18</v>
+      </c>
+      <c r="BL8">
+        <v>5005.5200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5013.07</v>
+      </c>
+      <c r="C9">
+        <v>5012.1899999999996</v>
+      </c>
+      <c r="D9">
+        <v>5018.9799999999996</v>
+      </c>
+      <c r="E9">
+        <v>5031.83</v>
+      </c>
+      <c r="F9">
+        <v>5018.7299999999996</v>
+      </c>
+      <c r="G9">
+        <v>5030.88</v>
+      </c>
+      <c r="H9">
+        <v>5047.24</v>
+      </c>
+      <c r="I9">
+        <v>5041.8</v>
+      </c>
+      <c r="J9">
+        <v>5021.37</v>
+      </c>
+      <c r="K9">
+        <v>5045.54</v>
+      </c>
+      <c r="L9">
+        <v>5048.71</v>
+      </c>
+      <c r="M9">
+        <v>5047.78</v>
+      </c>
+      <c r="N9">
+        <v>5040.05</v>
+      </c>
+      <c r="O9">
+        <v>5037.53</v>
+      </c>
+      <c r="P9">
+        <v>5052.3</v>
+      </c>
+      <c r="Q9">
+        <v>5042.84</v>
+      </c>
+      <c r="R9">
+        <v>5042.07</v>
+      </c>
+      <c r="S9">
+        <v>5080.34</v>
+      </c>
+      <c r="T9">
+        <v>5073.4399999999996</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>596.31399999999996</v>
+      </c>
+      <c r="Y9">
+        <v>592.09900000000005</v>
+      </c>
+      <c r="Z9">
+        <v>113.485</v>
+      </c>
+      <c r="AA9">
+        <v>302.899</v>
+      </c>
+      <c r="AB9">
+        <v>135.24199999999999</v>
+      </c>
+      <c r="AC9">
+        <v>232.643</v>
+      </c>
+      <c r="AD9">
+        <v>400.41500000000002</v>
+      </c>
+      <c r="AE9">
+        <v>3952.22</v>
+      </c>
+      <c r="AF9">
+        <v>782.65599999999995</v>
+      </c>
+      <c r="AG9">
+        <v>2058.5100000000002</v>
+      </c>
+      <c r="AH9">
+        <v>3191.49</v>
+      </c>
+      <c r="AI9">
+        <v>5000.09</v>
+      </c>
+      <c r="AJ9">
+        <v>5000.08</v>
+      </c>
+      <c r="AK9">
+        <v>5000.08</v>
+      </c>
+      <c r="AL9">
+        <v>5000.5600000000004</v>
+      </c>
+      <c r="AM9">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AN9">
+        <v>5001.8900000000003</v>
+      </c>
+      <c r="AO9">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AP9">
+        <v>5000.12</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT9">
+        <v>5001.47</v>
+      </c>
+      <c r="AU9">
+        <v>5002.59</v>
+      </c>
+      <c r="AV9">
+        <v>5002.3900000000003</v>
+      </c>
+      <c r="AW9">
+        <v>5003.7299999999996</v>
+      </c>
+      <c r="AX9">
+        <v>5001.79</v>
+      </c>
+      <c r="AY9">
+        <v>5002.71</v>
+      </c>
+      <c r="AZ9">
+        <v>5002.49</v>
+      </c>
+      <c r="BA9">
+        <v>5007.1899999999996</v>
+      </c>
+      <c r="BB9">
+        <v>5000.6099999999997</v>
+      </c>
+      <c r="BC9">
+        <v>5007.2299999999996</v>
+      </c>
+      <c r="BD9">
+        <v>5002.47</v>
+      </c>
+      <c r="BE9">
+        <v>5000.49</v>
+      </c>
+      <c r="BF9">
+        <v>5008.8599999999997</v>
+      </c>
+      <c r="BG9">
+        <v>5010.43</v>
+      </c>
+      <c r="BH9">
+        <v>5000.03</v>
+      </c>
+      <c r="BI9">
+        <v>5009.84</v>
+      </c>
+      <c r="BJ9">
+        <v>5010.37</v>
+      </c>
+      <c r="BK9">
+        <v>5002.87</v>
+      </c>
+      <c r="BL9">
+        <v>5033.9799999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5011.8500000000004</v>
+      </c>
+      <c r="C10">
+        <v>5010.57</v>
+      </c>
+      <c r="D10">
+        <v>5019.88</v>
+      </c>
+      <c r="E10">
+        <v>5028.7299999999996</v>
+      </c>
+      <c r="F10">
+        <v>5044.2</v>
+      </c>
+      <c r="G10">
+        <v>5043.5200000000004</v>
+      </c>
+      <c r="H10">
+        <v>5042.62</v>
+      </c>
+      <c r="I10">
+        <v>5026.88</v>
+      </c>
+      <c r="J10">
+        <v>5025.21</v>
+      </c>
+      <c r="K10">
+        <v>5033.5</v>
+      </c>
+      <c r="L10">
+        <v>5067.6099999999997</v>
+      </c>
+      <c r="M10">
+        <v>5051.51</v>
+      </c>
+      <c r="N10">
+        <v>5057.18</v>
+      </c>
+      <c r="O10">
+        <v>5028.2</v>
+      </c>
+      <c r="P10">
+        <v>5066.57</v>
+      </c>
+      <c r="Q10">
+        <v>5073.43</v>
+      </c>
+      <c r="R10">
+        <v>5050.4799999999996</v>
+      </c>
+      <c r="S10">
+        <v>5046.5200000000004</v>
+      </c>
+      <c r="T10">
+        <v>5050.3900000000003</v>
+      </c>
+      <c r="W10" s="1">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>261.54300000000001</v>
+      </c>
+      <c r="Y10">
+        <v>236.37200000000001</v>
+      </c>
+      <c r="Z10">
+        <v>2879.82</v>
+      </c>
+      <c r="AA10">
+        <v>74.919300000000007</v>
+      </c>
+      <c r="AB10">
+        <v>278.834</v>
+      </c>
+      <c r="AC10">
+        <v>400.55399999999997</v>
+      </c>
+      <c r="AD10">
+        <v>294.47500000000002</v>
+      </c>
+      <c r="AE10">
+        <v>3983.82</v>
+      </c>
+      <c r="AF10">
+        <v>655.33600000000001</v>
+      </c>
+      <c r="AG10">
+        <v>5000</v>
+      </c>
+      <c r="AH10">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AI10">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AJ10">
+        <v>5000.07</v>
+      </c>
+      <c r="AK10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>5000.09</v>
+      </c>
+      <c r="AM10">
+        <v>5000.5</v>
+      </c>
+      <c r="AN10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AP10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>5000.58</v>
+      </c>
+      <c r="AU10">
+        <v>5001.5200000000004</v>
+      </c>
+      <c r="AV10">
+        <v>5000.78</v>
+      </c>
+      <c r="AW10">
+        <v>5000.63</v>
+      </c>
+      <c r="AX10">
+        <v>5001.76</v>
+      </c>
+      <c r="AY10">
+        <v>5000.18</v>
+      </c>
+      <c r="AZ10">
+        <v>5004.76</v>
+      </c>
+      <c r="BA10">
+        <v>5008.55</v>
+      </c>
+      <c r="BB10">
+        <v>5000.24</v>
+      </c>
+      <c r="BC10">
+        <v>5009.51</v>
+      </c>
+      <c r="BD10">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="BE10">
+        <v>5004.93</v>
+      </c>
+      <c r="BF10">
+        <v>5001.1899999999996</v>
+      </c>
+      <c r="BG10">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="BH10">
+        <v>5000.6499999999996</v>
+      </c>
+      <c r="BI10">
+        <v>5005.66</v>
+      </c>
+      <c r="BJ10">
+        <v>5005.53</v>
+      </c>
+      <c r="BK10">
+        <v>5018.1400000000003</v>
+      </c>
+      <c r="BL10">
+        <v>5007.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5006.0200000000004</v>
+      </c>
+      <c r="C11">
+        <v>5020.45</v>
+      </c>
+      <c r="D11">
+        <v>5014.3100000000004</v>
+      </c>
+      <c r="E11">
+        <v>5013.1899999999996</v>
+      </c>
+      <c r="F11">
+        <v>5035.07</v>
+      </c>
+      <c r="G11">
+        <v>5042.68</v>
+      </c>
+      <c r="H11">
+        <v>5031.3599999999997</v>
+      </c>
+      <c r="I11">
+        <v>5040.4399999999996</v>
+      </c>
+      <c r="J11">
+        <v>5070.1400000000003</v>
+      </c>
+      <c r="K11">
+        <v>5036.07</v>
+      </c>
+      <c r="L11">
+        <v>5032.04</v>
+      </c>
+      <c r="M11">
+        <v>5040.24</v>
+      </c>
+      <c r="N11">
+        <v>5040.07</v>
+      </c>
+      <c r="O11">
+        <v>5070.91</v>
+      </c>
+      <c r="P11">
+        <v>5051.5</v>
+      </c>
+      <c r="Q11">
+        <v>5042.16</v>
+      </c>
+      <c r="R11">
+        <v>5061.75</v>
+      </c>
+      <c r="S11">
+        <v>5072.8100000000004</v>
+      </c>
+      <c r="T11">
+        <v>5035.22</v>
+      </c>
+      <c r="W11" s="1">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>606.70699999999999</v>
+      </c>
+      <c r="Y11">
+        <v>5000</v>
+      </c>
+      <c r="Z11">
+        <v>164.34</v>
+      </c>
+      <c r="AA11">
+        <v>184.471</v>
+      </c>
+      <c r="AB11">
+        <v>491.77100000000002</v>
+      </c>
+      <c r="AC11">
+        <v>420.63499999999999</v>
+      </c>
+      <c r="AD11">
+        <v>253.12299999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1648.96</v>
+      </c>
+      <c r="AF11">
+        <v>5000.07</v>
+      </c>
+      <c r="AG11">
+        <v>5001.1499999999996</v>
+      </c>
+      <c r="AH11">
+        <v>5000.12</v>
+      </c>
+      <c r="AI11">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AJ11">
+        <v>5000.08</v>
+      </c>
+      <c r="AK11">
+        <v>1374.55</v>
+      </c>
+      <c r="AL11">
+        <v>1944</v>
+      </c>
+      <c r="AM11">
+        <v>977.11</v>
+      </c>
+      <c r="AN11">
+        <v>902.10299999999995</v>
+      </c>
+      <c r="AO11">
+        <v>5000.09</v>
+      </c>
+      <c r="AP11">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT11">
+        <v>5000.01</v>
+      </c>
+      <c r="AU11">
+        <v>5000.53</v>
+      </c>
+      <c r="AV11">
+        <v>5002.1099999999997</v>
+      </c>
+      <c r="AW11">
+        <v>5000.67</v>
+      </c>
+      <c r="AX11">
+        <v>5002.83</v>
+      </c>
+      <c r="AY11">
+        <v>5002.42</v>
+      </c>
+      <c r="AZ11">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="BA11">
+        <v>5000.05</v>
+      </c>
+      <c r="BB11">
+        <v>5021.18</v>
+      </c>
+      <c r="BC11">
+        <v>5001.04</v>
+      </c>
+      <c r="BD11">
+        <v>5003.26</v>
+      </c>
+      <c r="BE11">
+        <v>5000.1899999999996</v>
+      </c>
+      <c r="BF11">
+        <v>5005.5200000000004</v>
+      </c>
+      <c r="BG11">
+        <v>5010.09</v>
+      </c>
+      <c r="BH11">
+        <v>5003.97</v>
+      </c>
+      <c r="BI11">
+        <v>5002.29</v>
+      </c>
+      <c r="BJ11">
+        <v>5019.37</v>
+      </c>
+      <c r="BK11">
+        <v>5002.37</v>
+      </c>
+      <c r="BL11">
+        <v>5005.7700000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5008.59</v>
+      </c>
+      <c r="C12">
+        <v>5013.6899999999996</v>
+      </c>
+      <c r="D12">
+        <v>5021.99</v>
+      </c>
+      <c r="E12">
+        <v>5020.78</v>
+      </c>
+      <c r="F12">
+        <v>5033.8900000000003</v>
+      </c>
+      <c r="G12">
+        <v>5036.8599999999997</v>
+      </c>
+      <c r="H12">
+        <v>5040.67</v>
+      </c>
+      <c r="I12">
+        <v>5021.8</v>
+      </c>
+      <c r="J12">
+        <v>5044.21</v>
+      </c>
+      <c r="K12">
+        <v>5047.5600000000004</v>
+      </c>
+      <c r="L12">
+        <v>5036.82</v>
+      </c>
+      <c r="M12">
+        <v>5060.25</v>
+      </c>
+      <c r="N12">
+        <v>5043.24</v>
+      </c>
+      <c r="O12">
+        <v>5036.37</v>
+      </c>
+      <c r="P12">
+        <v>5036.12</v>
+      </c>
+      <c r="Q12">
+        <v>5080.08</v>
+      </c>
+      <c r="R12">
+        <v>5079.6000000000004</v>
+      </c>
+      <c r="S12">
+        <v>5083.1000000000004</v>
+      </c>
+      <c r="T12">
+        <v>5107.59</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>314.67399999999998</v>
+      </c>
+      <c r="Y12">
+        <v>108.157</v>
+      </c>
+      <c r="Z12">
+        <v>5000.01</v>
+      </c>
+      <c r="AA12">
+        <v>871.57399999999996</v>
+      </c>
+      <c r="AB12">
+        <v>1000.9</v>
+      </c>
+      <c r="AC12">
+        <v>3818.14</v>
+      </c>
+      <c r="AD12">
+        <v>974.846</v>
+      </c>
+      <c r="AE12">
+        <v>5000.05</v>
+      </c>
+      <c r="AF12">
+        <v>5000.08</v>
+      </c>
+      <c r="AG12">
+        <v>5000.12</v>
+      </c>
+      <c r="AH12">
+        <v>171.749</v>
+      </c>
+      <c r="AI12">
+        <v>275.37900000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>218.95599999999999</v>
+      </c>
+      <c r="AK12">
+        <v>518.52200000000005</v>
+      </c>
+      <c r="AL12">
+        <v>2027.77</v>
+      </c>
+      <c r="AM12">
+        <v>635.6</v>
+      </c>
+      <c r="AN12">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AO12">
+        <v>5000.03</v>
+      </c>
+      <c r="AP12">
+        <v>1824.64</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>5000.41</v>
+      </c>
+      <c r="AU12">
+        <v>5003.3</v>
+      </c>
+      <c r="AV12">
+        <v>5005.87</v>
+      </c>
+      <c r="AW12">
+        <v>5004.1899999999996</v>
+      </c>
+      <c r="AX12">
+        <v>5007.49</v>
+      </c>
+      <c r="AY12">
+        <v>5003.75</v>
+      </c>
+      <c r="AZ12">
+        <v>5002.2700000000004</v>
+      </c>
+      <c r="BA12">
+        <v>5000.58</v>
+      </c>
+      <c r="BB12">
+        <v>5007.63</v>
+      </c>
+      <c r="BC12">
+        <v>5007.8999999999996</v>
+      </c>
+      <c r="BD12">
+        <v>5001.57</v>
+      </c>
+      <c r="BE12">
+        <v>5000.72</v>
+      </c>
+      <c r="BF12">
+        <v>5008.9399999999996</v>
+      </c>
+      <c r="BG12">
+        <v>5006.42</v>
+      </c>
+      <c r="BH12">
+        <v>5010.21</v>
+      </c>
+      <c r="BI12">
+        <v>5006.53</v>
+      </c>
+      <c r="BJ12">
+        <v>5003.68</v>
+      </c>
+      <c r="BK12">
+        <v>5016.5200000000004</v>
+      </c>
+      <c r="BL12">
+        <v>5010.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5007.6899999999996</v>
+      </c>
+      <c r="C13">
+        <v>5016.22</v>
+      </c>
+      <c r="D13">
+        <v>5033.12</v>
+      </c>
+      <c r="E13">
+        <v>5043.45</v>
+      </c>
+      <c r="F13">
+        <v>5038.63</v>
+      </c>
+      <c r="G13">
+        <v>5029.59</v>
+      </c>
+      <c r="H13">
+        <v>5039.37</v>
+      </c>
+      <c r="I13">
+        <v>5067.95</v>
+      </c>
+      <c r="J13">
+        <v>5036.87</v>
+      </c>
+      <c r="K13">
+        <v>5028.99</v>
+      </c>
+      <c r="L13">
+        <v>5021.6099999999997</v>
+      </c>
+      <c r="M13">
+        <v>5020.8100000000004</v>
+      </c>
+      <c r="N13">
+        <v>5032.05</v>
+      </c>
+      <c r="O13">
+        <v>5053.05</v>
+      </c>
+      <c r="P13">
+        <v>5041.83</v>
+      </c>
+      <c r="Q13">
+        <v>5073.74</v>
+      </c>
+      <c r="R13">
+        <v>5051.7700000000004</v>
+      </c>
+      <c r="S13">
+        <v>5053.66</v>
+      </c>
+      <c r="T13">
+        <v>5062.07</v>
+      </c>
+      <c r="W13" s="1">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>284.161</v>
+      </c>
+      <c r="Y13">
+        <v>211.88200000000001</v>
+      </c>
+      <c r="Z13">
+        <v>114.426</v>
+      </c>
+      <c r="AA13">
+        <v>213.54900000000001</v>
+      </c>
+      <c r="AB13">
+        <v>476.55700000000002</v>
+      </c>
+      <c r="AC13">
+        <v>389.10599999999999</v>
+      </c>
+      <c r="AD13">
+        <v>4705.6499999999996</v>
+      </c>
+      <c r="AE13">
+        <v>5000.03</v>
+      </c>
+      <c r="AF13">
+        <v>5001.67</v>
+      </c>
+      <c r="AG13">
+        <v>104.858</v>
+      </c>
+      <c r="AH13">
+        <v>366.63</v>
+      </c>
+      <c r="AI13">
+        <v>120.49</v>
+      </c>
+      <c r="AJ13">
+        <v>280.07</v>
+      </c>
+      <c r="AK13">
+        <v>517.46400000000006</v>
+      </c>
+      <c r="AL13">
+        <v>226.46700000000001</v>
+      </c>
+      <c r="AM13">
+        <v>419.50200000000001</v>
+      </c>
+      <c r="AN13">
+        <v>5000.09</v>
+      </c>
+      <c r="AO13">
+        <v>577.85799999999995</v>
+      </c>
+      <c r="AP13">
+        <v>5000.12</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>5000.53</v>
+      </c>
+      <c r="AU13">
+        <v>5001.34</v>
+      </c>
+      <c r="AV13">
+        <v>5011.21</v>
+      </c>
+      <c r="AW13">
+        <v>5004.7299999999996</v>
+      </c>
+      <c r="AX13">
+        <v>5006.07</v>
+      </c>
+      <c r="AY13">
+        <v>5006.96</v>
+      </c>
+      <c r="AZ13">
+        <v>5004.2</v>
+      </c>
+      <c r="BA13">
+        <v>5007.0200000000004</v>
+      </c>
+      <c r="BB13">
+        <v>5000.08</v>
+      </c>
+      <c r="BC13">
+        <v>5001.43</v>
+      </c>
+      <c r="BD13">
+        <v>5000.47</v>
+      </c>
+      <c r="BE13">
+        <v>5005.09</v>
+      </c>
+      <c r="BF13">
+        <v>5000.37</v>
+      </c>
+      <c r="BG13">
+        <v>5003.28</v>
+      </c>
+      <c r="BH13">
+        <v>5002.47</v>
+      </c>
+      <c r="BI13">
+        <v>5000.08</v>
+      </c>
+      <c r="BJ13">
+        <v>5004.5200000000004</v>
+      </c>
+      <c r="BK13">
+        <v>5003.18</v>
+      </c>
+      <c r="BL13">
+        <v>5004.0200000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5008.76</v>
+      </c>
+      <c r="C14">
+        <v>5011.17</v>
+      </c>
+      <c r="D14">
+        <v>5033.0200000000004</v>
+      </c>
+      <c r="E14">
+        <v>5021.26</v>
+      </c>
+      <c r="F14">
+        <v>5025.3900000000003</v>
+      </c>
+      <c r="G14">
+        <v>5007.82</v>
+      </c>
+      <c r="H14">
+        <v>5045.53</v>
+      </c>
+      <c r="I14">
+        <v>5040.34</v>
+      </c>
+      <c r="J14">
+        <v>5058.21</v>
+      </c>
+      <c r="K14">
+        <v>5036.0600000000004</v>
+      </c>
+      <c r="L14">
+        <v>5027.22</v>
+      </c>
+      <c r="M14">
+        <v>5031.13</v>
+      </c>
+      <c r="N14">
+        <v>5033.9399999999996</v>
+      </c>
+      <c r="O14">
+        <v>5048.03</v>
+      </c>
+      <c r="P14">
+        <v>5049.1499999999996</v>
+      </c>
+      <c r="Q14">
+        <v>5072.43</v>
+      </c>
+      <c r="R14">
+        <v>5084.83</v>
+      </c>
+      <c r="S14">
+        <v>5049.08</v>
+      </c>
+      <c r="T14">
+        <v>5037.55</v>
+      </c>
+      <c r="W14" s="1">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>552.85299999999995</v>
+      </c>
+      <c r="Y14">
+        <v>255.76599999999999</v>
+      </c>
+      <c r="Z14">
+        <v>580.79499999999996</v>
+      </c>
+      <c r="AA14">
+        <v>514.11099999999999</v>
+      </c>
+      <c r="AB14">
+        <v>2212.12</v>
+      </c>
+      <c r="AC14">
+        <v>1807.2</v>
+      </c>
+      <c r="AD14">
+        <v>3781.36</v>
+      </c>
+      <c r="AE14">
+        <v>127.44</v>
+      </c>
+      <c r="AF14">
+        <v>184.05199999999999</v>
+      </c>
+      <c r="AG14">
+        <v>297.26100000000002</v>
+      </c>
+      <c r="AH14">
+        <v>121.52500000000001</v>
+      </c>
+      <c r="AI14">
+        <v>96.162499999999994</v>
+      </c>
+      <c r="AJ14">
+        <v>168.23400000000001</v>
+      </c>
+      <c r="AK14">
+        <v>296.13200000000001</v>
+      </c>
+      <c r="AL14">
+        <v>1086.04</v>
+      </c>
+      <c r="AM14">
+        <v>257.779</v>
+      </c>
+      <c r="AN14">
+        <v>1138.57</v>
+      </c>
+      <c r="AO14">
+        <v>644.61599999999999</v>
+      </c>
+      <c r="AP14">
+        <v>807.77</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT14">
+        <v>5000.5</v>
+      </c>
+      <c r="AU14">
+        <v>5001.2700000000004</v>
+      </c>
+      <c r="AV14">
+        <v>5011.51</v>
+      </c>
+      <c r="AW14">
+        <v>5001.28</v>
+      </c>
+      <c r="AX14">
+        <v>5001.5</v>
+      </c>
+      <c r="AY14">
+        <v>5002.6099999999997</v>
+      </c>
+      <c r="AZ14">
+        <v>5000.84</v>
+      </c>
+      <c r="BA14">
+        <v>5002.42</v>
+      </c>
+      <c r="BB14">
+        <v>5014.67</v>
+      </c>
+      <c r="BC14">
+        <v>5005.29</v>
+      </c>
+      <c r="BD14">
+        <v>5002.6400000000003</v>
+      </c>
+      <c r="BE14">
+        <v>5001.12</v>
+      </c>
+      <c r="BF14">
+        <v>5002.8500000000004</v>
+      </c>
+      <c r="BG14">
+        <v>5002.96</v>
+      </c>
+      <c r="BH14">
+        <v>5003.6899999999996</v>
+      </c>
+      <c r="BI14">
+        <v>5006.17</v>
+      </c>
+      <c r="BJ14">
+        <v>5009.84</v>
+      </c>
+      <c r="BK14">
+        <v>5004.41</v>
+      </c>
+      <c r="BL14">
+        <v>5005.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5021.05</v>
+      </c>
+      <c r="C15">
+        <v>5018.08</v>
+      </c>
+      <c r="D15">
+        <v>5008.6000000000004</v>
+      </c>
+      <c r="E15">
+        <v>5014.5600000000004</v>
+      </c>
+      <c r="F15">
+        <v>5022.2299999999996</v>
+      </c>
+      <c r="G15">
+        <v>5025.09</v>
+      </c>
+      <c r="H15">
+        <v>5029.93</v>
+      </c>
+      <c r="I15">
+        <v>5029.5600000000004</v>
+      </c>
+      <c r="J15">
+        <v>5038.82</v>
+      </c>
+      <c r="K15">
+        <v>5025.26</v>
+      </c>
+      <c r="L15">
+        <v>5028.51</v>
+      </c>
+      <c r="M15">
+        <v>5042.22</v>
+      </c>
+      <c r="N15">
+        <v>5020.04</v>
+      </c>
+      <c r="O15">
+        <v>5059.4399999999996</v>
+      </c>
+      <c r="P15">
+        <v>5096.13</v>
+      </c>
+      <c r="Q15">
+        <v>5061.75</v>
+      </c>
+      <c r="R15">
+        <v>5048.63</v>
+      </c>
+      <c r="S15">
+        <v>5062.18</v>
+      </c>
+      <c r="T15">
+        <v>5063.17</v>
+      </c>
+      <c r="W15" s="1">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>341.32799999999997</v>
+      </c>
+      <c r="Y15">
+        <v>261.51400000000001</v>
+      </c>
+      <c r="Z15">
+        <v>2380.92</v>
+      </c>
+      <c r="AA15">
+        <v>587.952</v>
+      </c>
+      <c r="AB15">
+        <v>2135.46</v>
+      </c>
+      <c r="AC15">
+        <v>657.904</v>
+      </c>
+      <c r="AD15">
+        <v>108.633</v>
+      </c>
+      <c r="AE15">
+        <v>96.973399999999998</v>
+      </c>
+      <c r="AF15">
+        <v>72.982299999999995</v>
+      </c>
+      <c r="AG15">
+        <v>89.669700000000006</v>
+      </c>
+      <c r="AH15">
+        <v>134.23099999999999</v>
+      </c>
+      <c r="AI15">
+        <v>226.24199999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>226.44200000000001</v>
+      </c>
+      <c r="AK15">
+        <v>229.191</v>
+      </c>
+      <c r="AL15">
+        <v>821.904</v>
+      </c>
+      <c r="AM15">
+        <v>850.20399999999995</v>
+      </c>
+      <c r="AN15">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AO15">
+        <v>5000.76</v>
+      </c>
+      <c r="AP15">
+        <v>778.04</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>5008.3900000000003</v>
+      </c>
+      <c r="AU15">
+        <v>5001.25</v>
+      </c>
+      <c r="AV15">
+        <v>5000.34</v>
+      </c>
+      <c r="AW15">
+        <v>5002.3</v>
+      </c>
+      <c r="AX15">
+        <v>5001.18</v>
+      </c>
+      <c r="AY15">
+        <v>5001.13</v>
+      </c>
+      <c r="AZ15">
+        <v>5000.4399999999996</v>
+      </c>
+      <c r="BA15">
+        <v>5002.75</v>
+      </c>
+      <c r="BB15">
+        <v>5004.97</v>
+      </c>
+      <c r="BC15">
+        <v>5002.78</v>
+      </c>
+      <c r="BD15">
+        <v>5004.0600000000004</v>
+      </c>
+      <c r="BE15">
+        <v>5008.2299999999996</v>
+      </c>
+      <c r="BF15">
+        <v>5001.5600000000004</v>
+      </c>
+      <c r="BG15">
+        <v>5000.24</v>
+      </c>
+      <c r="BH15">
+        <v>5002.7700000000004</v>
+      </c>
+      <c r="BI15">
+        <v>5007.0200000000004</v>
+      </c>
+      <c r="BJ15">
+        <v>5000.95</v>
+      </c>
+      <c r="BK15">
+        <v>5000.88</v>
+      </c>
+      <c r="BL15">
+        <v>5001.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5014.78</v>
+      </c>
+      <c r="C16">
+        <v>5011.1000000000004</v>
+      </c>
+      <c r="D16">
+        <v>5023.57</v>
+      </c>
+      <c r="E16">
+        <v>5016.01</v>
+      </c>
+      <c r="F16">
+        <v>5022.2</v>
+      </c>
+      <c r="G16">
+        <v>5027.1400000000003</v>
+      </c>
+      <c r="H16">
+        <v>5030.4399999999996</v>
+      </c>
+      <c r="I16">
+        <v>5030.09</v>
+      </c>
+      <c r="J16">
+        <v>5025.09</v>
+      </c>
+      <c r="K16">
+        <v>5011.13</v>
+      </c>
+      <c r="L16">
+        <v>5047.9799999999996</v>
+      </c>
+      <c r="M16">
+        <v>5028.18</v>
+      </c>
+      <c r="N16">
+        <v>5040.03</v>
+      </c>
+      <c r="O16">
+        <v>5067.55</v>
+      </c>
+      <c r="P16">
+        <v>5065.8599999999997</v>
+      </c>
+      <c r="Q16">
+        <v>5050.6000000000004</v>
+      </c>
+      <c r="R16">
+        <v>5064.07</v>
+      </c>
+      <c r="S16">
+        <v>5036.22</v>
+      </c>
+      <c r="T16">
+        <v>5066.29</v>
+      </c>
+      <c r="W16" s="1">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>237.06899999999999</v>
+      </c>
+      <c r="Y16">
+        <v>167.39699999999999</v>
+      </c>
+      <c r="Z16">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AA16">
+        <v>717.62699999999995</v>
+      </c>
+      <c r="AB16">
+        <v>2980.21</v>
+      </c>
+      <c r="AC16">
+        <v>5000.07</v>
+      </c>
+      <c r="AD16">
+        <v>170.90100000000001</v>
+      </c>
+      <c r="AE16">
+        <v>87.682299999999998</v>
+      </c>
+      <c r="AF16">
+        <v>100.565</v>
+      </c>
+      <c r="AG16">
+        <v>271.59899999999999</v>
+      </c>
+      <c r="AH16">
+        <v>130.517</v>
+      </c>
+      <c r="AI16">
+        <v>143.66200000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>191.982</v>
+      </c>
+      <c r="AK16">
+        <v>440.20100000000002</v>
+      </c>
+      <c r="AL16">
+        <v>5000.01</v>
+      </c>
+      <c r="AM16">
+        <v>232.64</v>
+      </c>
+      <c r="AN16">
+        <v>2666.55</v>
+      </c>
+      <c r="AO16">
+        <v>1118.52</v>
+      </c>
+      <c r="AP16">
+        <v>1414.04</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT16">
+        <v>5000.82</v>
+      </c>
+      <c r="AU16">
+        <v>5000.3500000000004</v>
+      </c>
+      <c r="AV16">
+        <v>5007.04</v>
+      </c>
+      <c r="AW16">
+        <v>5000.78</v>
+      </c>
+      <c r="AX16">
+        <v>5000.47</v>
+      </c>
+      <c r="AY16">
+        <v>5003.17</v>
+      </c>
+      <c r="AZ16">
+        <v>5008.6400000000003</v>
+      </c>
+      <c r="BA16">
+        <v>5000.33</v>
+      </c>
+      <c r="BB16">
+        <v>5003.46</v>
+      </c>
+      <c r="BC16">
+        <v>5000.38</v>
+      </c>
+      <c r="BD16">
+        <v>5000.68</v>
+      </c>
+      <c r="BE16">
+        <v>5000.51</v>
+      </c>
+      <c r="BF16">
+        <v>5009.3100000000004</v>
+      </c>
+      <c r="BG16">
+        <v>5000.96</v>
+      </c>
+      <c r="BH16">
+        <v>5007.04</v>
+      </c>
+      <c r="BI16">
+        <v>5005.74</v>
+      </c>
+      <c r="BJ16">
+        <v>5001.8900000000003</v>
+      </c>
+      <c r="BK16">
+        <v>5002.37</v>
+      </c>
+      <c r="BL16">
+        <v>5003.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5019.3100000000004</v>
+      </c>
+      <c r="C17">
+        <v>5013.18</v>
+      </c>
+      <c r="D17">
+        <v>5020.7700000000004</v>
+      </c>
+      <c r="E17">
+        <v>5019.9399999999996</v>
+      </c>
+      <c r="F17">
+        <v>5025.96</v>
+      </c>
+      <c r="G17">
+        <v>5032.5200000000004</v>
+      </c>
+      <c r="H17">
+        <v>5029.2700000000004</v>
+      </c>
+      <c r="I17">
+        <v>5032.13</v>
+      </c>
+      <c r="J17">
+        <v>5046.79</v>
+      </c>
+      <c r="K17">
+        <v>5076.2299999999996</v>
+      </c>
+      <c r="L17">
+        <v>5061.74</v>
+      </c>
+      <c r="M17">
+        <v>5021.0200000000004</v>
+      </c>
+      <c r="N17">
+        <v>5034.6099999999997</v>
+      </c>
+      <c r="O17">
+        <v>5064.8900000000003</v>
+      </c>
+      <c r="P17">
+        <v>5045.42</v>
+      </c>
+      <c r="Q17">
+        <v>5084.32</v>
+      </c>
+      <c r="R17">
+        <v>5065.91</v>
+      </c>
+      <c r="S17">
+        <v>5052.49</v>
+      </c>
+      <c r="T17">
+        <v>5030.1400000000003</v>
+      </c>
+      <c r="W17" s="1">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>242.04400000000001</v>
+      </c>
+      <c r="Y17">
+        <v>543.47699999999998</v>
+      </c>
+      <c r="Z17">
+        <v>762.7</v>
+      </c>
+      <c r="AA17">
+        <v>1820.52</v>
+      </c>
+      <c r="AB17">
+        <v>4577.54</v>
+      </c>
+      <c r="AC17">
+        <v>55.0745</v>
+      </c>
+      <c r="AD17">
+        <v>47.164099999999998</v>
+      </c>
+      <c r="AE17">
+        <v>81.882800000000003</v>
+      </c>
+      <c r="AF17">
+        <v>125.233</v>
+      </c>
+      <c r="AG17">
+        <v>115.39</v>
+      </c>
+      <c r="AH17">
+        <v>222.273</v>
+      </c>
+      <c r="AI17">
+        <v>338.56</v>
+      </c>
+      <c r="AJ17">
+        <v>102.29600000000001</v>
+      </c>
+      <c r="AK17">
+        <v>271.00700000000001</v>
+      </c>
+      <c r="AL17">
+        <v>173.232</v>
+      </c>
+      <c r="AM17">
+        <v>571.90700000000004</v>
+      </c>
+      <c r="AN17">
+        <v>245.77699999999999</v>
+      </c>
+      <c r="AO17">
+        <v>192.626</v>
+      </c>
+      <c r="AP17">
+        <v>313.50299999999999</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT17">
+        <v>5001.38</v>
+      </c>
+      <c r="AU17">
+        <v>5000.6400000000003</v>
+      </c>
+      <c r="AV17">
+        <v>5002.34</v>
+      </c>
+      <c r="AW17">
+        <v>5008.3</v>
+      </c>
+      <c r="AX17">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="AY17">
+        <v>5001.91</v>
+      </c>
+      <c r="AZ17">
+        <v>5000.74</v>
+      </c>
+      <c r="BA17">
+        <v>5000.68</v>
+      </c>
+      <c r="BB17">
+        <v>5002.18</v>
+      </c>
+      <c r="BC17">
+        <v>5031.49</v>
+      </c>
+      <c r="BD17">
+        <v>5000.18</v>
+      </c>
+      <c r="BE17">
+        <v>5004.07</v>
+      </c>
+      <c r="BF17">
+        <v>5000.3100000000004</v>
+      </c>
+      <c r="BG17">
+        <v>5017.2</v>
+      </c>
+      <c r="BH17">
+        <v>5003.07</v>
+      </c>
+      <c r="BI17">
+        <v>5022.24</v>
+      </c>
+      <c r="BJ17">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="BK17">
+        <v>5007.4799999999996</v>
+      </c>
+      <c r="BL17">
+        <v>5004.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5017.82</v>
+      </c>
+      <c r="C18">
+        <v>5011.1000000000004</v>
+      </c>
+      <c r="D18">
+        <v>5019.75</v>
+      </c>
+      <c r="E18">
+        <v>5038.1499999999996</v>
+      </c>
+      <c r="F18">
+        <v>5015.97</v>
+      </c>
+      <c r="G18">
+        <v>5028.87</v>
+      </c>
+      <c r="H18">
+        <v>5026.1000000000004</v>
+      </c>
+      <c r="I18">
+        <v>5062.8500000000004</v>
+      </c>
+      <c r="J18">
+        <v>5049.83</v>
+      </c>
+      <c r="K18">
+        <v>5045.18</v>
+      </c>
+      <c r="L18">
+        <v>5026.4799999999996</v>
+      </c>
+      <c r="M18">
+        <v>5034.33</v>
+      </c>
+      <c r="N18">
+        <v>5048.3999999999996</v>
+      </c>
+      <c r="O18">
+        <v>5068.6099999999997</v>
+      </c>
+      <c r="P18">
+        <v>5037.93</v>
+      </c>
+      <c r="Q18">
+        <v>5048.3100000000004</v>
+      </c>
+      <c r="R18">
+        <v>5090.58</v>
+      </c>
+      <c r="S18">
+        <v>5057.62</v>
+      </c>
+      <c r="T18">
+        <v>5059.91</v>
+      </c>
+      <c r="W18" s="1">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>223.46799999999999</v>
+      </c>
+      <c r="Y18">
+        <v>3775.43</v>
+      </c>
+      <c r="Z18">
+        <v>2167.5100000000002</v>
+      </c>
+      <c r="AA18">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="AB18">
+        <v>46.180900000000001</v>
+      </c>
+      <c r="AC18">
+        <v>60.442399999999999</v>
+      </c>
+      <c r="AD18">
+        <v>142.65299999999999</v>
+      </c>
+      <c r="AE18">
+        <v>60.979799999999997</v>
+      </c>
+      <c r="AF18">
+        <v>82.608099999999993</v>
+      </c>
+      <c r="AG18">
+        <v>69.2881</v>
+      </c>
+      <c r="AH18">
+        <v>129.65100000000001</v>
+      </c>
+      <c r="AI18">
+        <v>158.77799999999999</v>
+      </c>
+      <c r="AJ18">
+        <v>138.16</v>
+      </c>
+      <c r="AK18">
+        <v>146.578</v>
+      </c>
+      <c r="AL18">
+        <v>225.678</v>
+      </c>
+      <c r="AM18">
+        <v>357.41800000000001</v>
+      </c>
+      <c r="AN18">
+        <v>814.37800000000004</v>
+      </c>
+      <c r="AO18">
+        <v>5000</v>
+      </c>
+      <c r="AP18">
+        <v>832.51499999999999</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT18">
+        <v>5002.79</v>
+      </c>
+      <c r="AU18">
+        <v>5001.62</v>
+      </c>
+      <c r="AV18">
+        <v>5003.7</v>
+      </c>
+      <c r="AW18">
+        <v>5000.03</v>
+      </c>
+      <c r="AX18">
+        <v>5000.18</v>
+      </c>
+      <c r="AY18">
+        <v>5006.07</v>
+      </c>
+      <c r="AZ18">
+        <v>5000.57</v>
+      </c>
+      <c r="BA18">
+        <v>5004.82</v>
+      </c>
+      <c r="BB18">
+        <v>5009.7700000000004</v>
+      </c>
+      <c r="BC18">
+        <v>5005.99</v>
+      </c>
+      <c r="BD18">
+        <v>5000.25</v>
+      </c>
+      <c r="BE18">
+        <v>5001.2299999999996</v>
+      </c>
+      <c r="BF18">
+        <v>5001.75</v>
+      </c>
+      <c r="BG18">
+        <v>5000.37</v>
+      </c>
+      <c r="BH18">
+        <v>5007.6099999999997</v>
+      </c>
+      <c r="BI18">
+        <v>5002.96</v>
+      </c>
+      <c r="BJ18">
+        <v>5025.37</v>
+      </c>
+      <c r="BK18">
+        <v>5001.2</v>
+      </c>
+      <c r="BL18">
+        <v>5007.8599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5006.41</v>
+      </c>
+      <c r="C19">
+        <v>5011.68</v>
+      </c>
+      <c r="D19">
+        <v>5041.8500000000004</v>
+      </c>
+      <c r="E19">
+        <v>5035.42</v>
+      </c>
+      <c r="F19">
+        <v>5030</v>
+      </c>
+      <c r="G19">
+        <v>5043.9399999999996</v>
+      </c>
+      <c r="H19">
+        <v>5021.01</v>
+      </c>
+      <c r="I19">
+        <v>5039.24</v>
+      </c>
+      <c r="J19">
+        <v>5043.8599999999997</v>
+      </c>
+      <c r="K19">
+        <v>5055.2</v>
+      </c>
+      <c r="L19">
+        <v>5039.6499999999996</v>
+      </c>
+      <c r="M19">
+        <v>5039.49</v>
+      </c>
+      <c r="N19">
+        <v>5055.17</v>
+      </c>
+      <c r="O19">
+        <v>5056.97</v>
+      </c>
+      <c r="P19">
+        <v>5050.37</v>
+      </c>
+      <c r="Q19">
+        <v>5087.8500000000004</v>
+      </c>
+      <c r="R19">
+        <v>5060.42</v>
+      </c>
+      <c r="S19">
+        <v>5070.22</v>
+      </c>
+      <c r="T19">
+        <v>5027.37</v>
+      </c>
+      <c r="W19" s="1">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>510.38900000000001</v>
+      </c>
+      <c r="Y19">
+        <v>381.94400000000002</v>
+      </c>
+      <c r="Z19">
+        <v>760.30200000000002</v>
+      </c>
+      <c r="AA19">
+        <v>4700.3500000000004</v>
+      </c>
+      <c r="AB19">
+        <v>56.976700000000001</v>
+      </c>
+      <c r="AC19">
+        <v>72.700999999999993</v>
+      </c>
+      <c r="AD19">
+        <v>100.88800000000001</v>
+      </c>
+      <c r="AE19">
+        <v>236.33099999999999</v>
+      </c>
+      <c r="AF19">
+        <v>115.318</v>
+      </c>
+      <c r="AG19">
+        <v>79.697400000000002</v>
+      </c>
+      <c r="AH19">
+        <v>143.65899999999999</v>
+      </c>
+      <c r="AI19">
+        <v>133.06399999999999</v>
+      </c>
+      <c r="AJ19">
+        <v>81.777100000000004</v>
+      </c>
+      <c r="AK19">
+        <v>172.09200000000001</v>
+      </c>
+      <c r="AL19">
+        <v>228.02</v>
+      </c>
+      <c r="AM19">
+        <v>116.782</v>
+      </c>
+      <c r="AN19">
+        <v>254.501</v>
+      </c>
+      <c r="AO19">
+        <v>344.08800000000002</v>
+      </c>
+      <c r="AP19">
+        <v>498.09899999999999</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT19">
+        <v>5000.3100000000004</v>
+      </c>
+      <c r="AU19">
+        <v>5000.3900000000003</v>
+      </c>
+      <c r="AV19">
+        <v>5009.2700000000004</v>
+      </c>
+      <c r="AW19">
+        <v>5004.3</v>
+      </c>
+      <c r="AX19">
+        <v>5013.8999999999996</v>
+      </c>
+      <c r="AY19">
+        <v>5008.53</v>
+      </c>
+      <c r="AZ19">
+        <v>5006.3</v>
+      </c>
+      <c r="BA19">
+        <v>5001.2700000000004</v>
+      </c>
+      <c r="BB19">
+        <v>5002.12</v>
+      </c>
+      <c r="BC19">
+        <v>5005.93</v>
+      </c>
+      <c r="BD19">
+        <v>5003</v>
+      </c>
+      <c r="BE19">
+        <v>5006.01</v>
+      </c>
+      <c r="BF19">
+        <v>5000.07</v>
+      </c>
+      <c r="BG19">
+        <v>5002.6099999999997</v>
+      </c>
+      <c r="BH19">
+        <v>5004.83</v>
+      </c>
+      <c r="BI19">
+        <v>5003.32</v>
+      </c>
+      <c r="BJ19">
+        <v>5001.4399999999996</v>
+      </c>
+      <c r="BK19">
+        <v>5000.07</v>
+      </c>
+      <c r="BL19">
+        <v>5003.3900000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5008.93</v>
+      </c>
+      <c r="C20">
+        <v>5010.78</v>
+      </c>
+      <c r="D20">
+        <v>5023.3</v>
+      </c>
+      <c r="E20">
+        <v>5046.99</v>
+      </c>
+      <c r="F20">
+        <v>5024.29</v>
+      </c>
+      <c r="G20">
+        <v>5022.8900000000003</v>
+      </c>
+      <c r="H20">
+        <v>5029.13</v>
+      </c>
+      <c r="I20">
+        <v>5031.3999999999996</v>
+      </c>
+      <c r="J20">
+        <v>5046.68</v>
+      </c>
+      <c r="K20">
+        <v>5043.66</v>
+      </c>
+      <c r="L20">
+        <v>5039.97</v>
+      </c>
+      <c r="M20">
+        <v>5040.05</v>
+      </c>
+      <c r="N20">
+        <v>5046.72</v>
+      </c>
+      <c r="O20">
+        <v>5049.82</v>
+      </c>
+      <c r="P20">
+        <v>5050.05</v>
+      </c>
+      <c r="Q20">
+        <v>5095.58</v>
+      </c>
+      <c r="R20">
+        <v>5072.3100000000004</v>
+      </c>
+      <c r="S20">
+        <v>5063</v>
+      </c>
+      <c r="T20">
+        <v>4985.63</v>
+      </c>
+      <c r="W20" s="1">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>164.25800000000001</v>
+      </c>
+      <c r="Y20">
+        <v>495.35399999999998</v>
+      </c>
+      <c r="Z20">
+        <v>1527.83</v>
+      </c>
+      <c r="AA20">
+        <v>82.142700000000005</v>
+      </c>
+      <c r="AB20">
+        <v>52.8645</v>
+      </c>
+      <c r="AC20">
+        <v>74.343400000000003</v>
+      </c>
+      <c r="AD20">
+        <v>106.557</v>
+      </c>
+      <c r="AE20">
+        <v>161.196</v>
+      </c>
+      <c r="AF20">
+        <v>150.096</v>
+      </c>
+      <c r="AG20">
+        <v>253.54</v>
+      </c>
+      <c r="AH20">
+        <v>85.965000000000003</v>
+      </c>
+      <c r="AI20">
+        <v>180.33</v>
+      </c>
+      <c r="AJ20">
+        <v>190.99600000000001</v>
+      </c>
+      <c r="AK20">
+        <v>205.566</v>
+      </c>
+      <c r="AL20">
+        <v>1860.7</v>
+      </c>
+      <c r="AM20">
+        <v>243.28399999999999</v>
+      </c>
+      <c r="AN20">
+        <v>242.04300000000001</v>
+      </c>
+      <c r="AO20">
+        <v>820.26800000000003</v>
+      </c>
+      <c r="AP20">
+        <v>209.36799999999999</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT20">
+        <v>5001.99</v>
+      </c>
+      <c r="AU20">
+        <v>5000.18</v>
+      </c>
+      <c r="AV20">
+        <v>5001.8</v>
+      </c>
+      <c r="AW20">
+        <v>5003.24</v>
+      </c>
+      <c r="AX20">
+        <v>5000.8599999999997</v>
+      </c>
+      <c r="AY20">
+        <v>5003.66</v>
+      </c>
+      <c r="AZ20">
+        <v>5006.3</v>
+      </c>
+      <c r="BA20">
+        <v>5003.97</v>
+      </c>
+      <c r="BB20">
+        <v>5006.0200000000004</v>
+      </c>
+      <c r="BC20">
+        <v>5005.72</v>
+      </c>
+      <c r="BD20">
+        <v>5000.46</v>
+      </c>
+      <c r="BE20">
+        <v>5001.04</v>
+      </c>
+      <c r="BF20">
+        <v>5003.03</v>
+      </c>
+      <c r="BG20">
+        <v>5003.55</v>
+      </c>
+      <c r="BH20">
+        <v>5005.78</v>
+      </c>
+      <c r="BI20">
+        <v>5012.46</v>
+      </c>
+      <c r="BJ20">
+        <v>5018.12</v>
+      </c>
+      <c r="BK20">
+        <v>5000.25</v>
+      </c>
+      <c r="BL20">
+        <v>4258.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5016.55</v>
+      </c>
+      <c r="C21">
+        <v>5027.72</v>
+      </c>
+      <c r="D21">
+        <v>5024.22</v>
+      </c>
+      <c r="E21">
+        <v>5022.92</v>
+      </c>
+      <c r="F21">
+        <v>5004.43</v>
+      </c>
+      <c r="G21">
+        <v>5014.8500000000004</v>
+      </c>
+      <c r="H21">
+        <v>5044.43</v>
+      </c>
+      <c r="I21">
+        <v>5040.8599999999997</v>
+      </c>
+      <c r="J21">
+        <v>5043.7299999999996</v>
+      </c>
+      <c r="K21">
+        <v>5048.72</v>
+      </c>
+      <c r="L21">
+        <v>5033.28</v>
+      </c>
+      <c r="M21">
+        <v>5035.6000000000004</v>
+      </c>
+      <c r="N21">
+        <v>5046.95</v>
+      </c>
+      <c r="O21">
+        <v>5064.17</v>
+      </c>
+      <c r="P21">
+        <v>5114.74</v>
+      </c>
+      <c r="Q21">
+        <v>5040.59</v>
+      </c>
+      <c r="R21">
+        <v>5056.5600000000004</v>
+      </c>
+      <c r="S21">
+        <v>5033.82</v>
+      </c>
+      <c r="T21">
+        <v>2827.48</v>
+      </c>
+      <c r="W21" s="1">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>218.78899999999999</v>
+      </c>
+      <c r="Y21">
+        <v>220.19</v>
+      </c>
+      <c r="Z21">
+        <v>1485.41</v>
+      </c>
+      <c r="AA21">
+        <v>31.8889</v>
+      </c>
+      <c r="AB21">
+        <v>49.175800000000002</v>
+      </c>
+      <c r="AC21">
+        <v>71.340900000000005</v>
+      </c>
+      <c r="AD21">
+        <v>84.700299999999999</v>
+      </c>
+      <c r="AE21">
+        <v>132.529</v>
+      </c>
+      <c r="AF21">
+        <v>90.362099999999998</v>
+      </c>
+      <c r="AG21">
+        <v>176.899</v>
+      </c>
+      <c r="AH21">
+        <v>139.672</v>
+      </c>
+      <c r="AI21">
+        <v>224.309</v>
+      </c>
+      <c r="AJ21">
+        <v>127.051</v>
+      </c>
+      <c r="AK21">
+        <v>134.58000000000001</v>
+      </c>
+      <c r="AL21">
+        <v>196.44399999999999</v>
+      </c>
+      <c r="AM21">
+        <v>308.98099999999999</v>
+      </c>
+      <c r="AN21">
+        <v>418.06599999999997</v>
+      </c>
+      <c r="AO21">
+        <v>741.70500000000004</v>
+      </c>
+      <c r="AP21">
+        <v>483.815</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT21">
+        <v>5003.08</v>
+      </c>
+      <c r="AU21">
+        <v>5002.26</v>
+      </c>
+      <c r="AV21">
+        <v>5001.04</v>
+      </c>
+      <c r="AW21">
+        <v>5000.32</v>
+      </c>
+      <c r="AX21">
+        <v>4887.29</v>
+      </c>
+      <c r="AY21">
+        <v>4793.38</v>
+      </c>
+      <c r="AZ21">
+        <v>5002.8500000000004</v>
+      </c>
+      <c r="BA21">
+        <v>5011.6400000000003</v>
+      </c>
+      <c r="BB21">
+        <v>5004.32</v>
+      </c>
+      <c r="BC21">
+        <v>5002.1899999999996</v>
+      </c>
+      <c r="BD21">
+        <v>5000.38</v>
+      </c>
+      <c r="BE21">
+        <v>5003.71</v>
+      </c>
+      <c r="BF21">
+        <v>5009</v>
+      </c>
+      <c r="BG21">
+        <v>5002.13</v>
+      </c>
+      <c r="BH21">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="BI21">
+        <v>5006.92</v>
+      </c>
+      <c r="BJ21">
+        <v>5003.7700000000004</v>
+      </c>
+      <c r="BK21">
+        <v>5002.43</v>
+      </c>
+      <c r="BL21">
+        <v>668.21199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="X1:AP1"/>
+    <mergeCell ref="AT1:BL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:BL22 AU4:BL4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:AP22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4:BL22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:AP3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU3:BL3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:BL21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4500"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/X-OR/benchmark.xlsx
+++ b/examples/X-OR/benchmark.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\Visual Studio 2019\Projects\Neural-net-2\examples\X-OR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD09E0-B187-4BA5-BD8A-120B1B472AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126FA070-BF93-4F87-8E67-C34CD21F9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="averageLearnTime" sheetId="1" r:id="rId1"/>
     <sheet name="CPU" sheetId="2" r:id="rId2"/>
-    <sheet name="GPU" sheetId="3" r:id="rId3"/>
+    <sheet name="CPU2" sheetId="4" r:id="rId3"/>
+    <sheet name="GPU" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>averageLearnTime</t>
   </si>
@@ -4682,7 +4683,7 @@
   <dimension ref="A1:BL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM27" sqref="AM27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8571,10 +8572,3903 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF0C941-9032-4360-8A7D-C719E0934430}">
+  <dimension ref="A1:BL22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ24" sqref="AQ24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="42" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="5.140625" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="64" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AT1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>11</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5000.01</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>5000.3100000000004</v>
+      </c>
+      <c r="E3">
+        <v>5000.79</v>
+      </c>
+      <c r="F3">
+        <v>5000.32</v>
+      </c>
+      <c r="G3">
+        <v>5000.01</v>
+      </c>
+      <c r="H3">
+        <v>5000.51</v>
+      </c>
+      <c r="I3">
+        <v>5001.12</v>
+      </c>
+      <c r="J3">
+        <v>5000.09</v>
+      </c>
+      <c r="K3">
+        <v>5000.01</v>
+      </c>
+      <c r="L3">
+        <v>5000.95</v>
+      </c>
+      <c r="M3">
+        <v>5000.32</v>
+      </c>
+      <c r="N3">
+        <v>5000.16</v>
+      </c>
+      <c r="O3">
+        <v>5000.04</v>
+      </c>
+      <c r="P3">
+        <v>5001.04</v>
+      </c>
+      <c r="Q3">
+        <v>5000.08</v>
+      </c>
+      <c r="R3">
+        <v>5000.6899999999996</v>
+      </c>
+      <c r="S3">
+        <v>5001.0200000000004</v>
+      </c>
+      <c r="T3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>5000.12</v>
+      </c>
+      <c r="Y3">
+        <v>5000</v>
+      </c>
+      <c r="Z3">
+        <v>5003.1099999999997</v>
+      </c>
+      <c r="AA3">
+        <v>5006.92</v>
+      </c>
+      <c r="AB3">
+        <v>5003.18</v>
+      </c>
+      <c r="AC3">
+        <v>5000.01</v>
+      </c>
+      <c r="AD3">
+        <v>5005.05</v>
+      </c>
+      <c r="AE3">
+        <v>5011.16</v>
+      </c>
+      <c r="AF3">
+        <v>5000.83</v>
+      </c>
+      <c r="AG3">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AH3">
+        <v>5009.3999999999996</v>
+      </c>
+      <c r="AI3">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="AJ3">
+        <v>5001.3999999999996</v>
+      </c>
+      <c r="AK3">
+        <v>5000.21</v>
+      </c>
+      <c r="AL3">
+        <v>5009.43</v>
+      </c>
+      <c r="AM3">
+        <v>5000.6899999999996</v>
+      </c>
+      <c r="AN3">
+        <v>5006.7700000000004</v>
+      </c>
+      <c r="AO3">
+        <v>5000.03</v>
+      </c>
+      <c r="AP3">
+        <v>5000.03</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>5000</v>
+      </c>
+      <c r="AU3">
+        <v>5000</v>
+      </c>
+      <c r="AV3">
+        <v>5000</v>
+      </c>
+      <c r="AW3">
+        <v>5000</v>
+      </c>
+      <c r="AX3">
+        <v>5000</v>
+      </c>
+      <c r="AY3">
+        <v>5000</v>
+      </c>
+      <c r="AZ3">
+        <v>5000</v>
+      </c>
+      <c r="BA3">
+        <v>5000</v>
+      </c>
+      <c r="BB3">
+        <v>5000</v>
+      </c>
+      <c r="BC3">
+        <v>5000</v>
+      </c>
+      <c r="BD3">
+        <v>5000</v>
+      </c>
+      <c r="BE3">
+        <v>5000</v>
+      </c>
+      <c r="BF3">
+        <v>5000</v>
+      </c>
+      <c r="BG3">
+        <v>5000</v>
+      </c>
+      <c r="BH3">
+        <v>5000</v>
+      </c>
+      <c r="BI3">
+        <v>5000</v>
+      </c>
+      <c r="BJ3">
+        <v>5000</v>
+      </c>
+      <c r="BK3">
+        <v>5000</v>
+      </c>
+      <c r="BL3">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5000.16</v>
+      </c>
+      <c r="C4">
+        <v>1514.23</v>
+      </c>
+      <c r="D4">
+        <v>883.90099999999995</v>
+      </c>
+      <c r="E4">
+        <v>2070.58</v>
+      </c>
+      <c r="F4">
+        <v>2539.19</v>
+      </c>
+      <c r="G4">
+        <v>1975.96</v>
+      </c>
+      <c r="H4">
+        <v>3429.79</v>
+      </c>
+      <c r="I4">
+        <v>4053.79</v>
+      </c>
+      <c r="J4">
+        <v>4564.1099999999997</v>
+      </c>
+      <c r="K4">
+        <v>5000.47</v>
+      </c>
+      <c r="L4">
+        <v>5002.3999999999996</v>
+      </c>
+      <c r="M4">
+        <v>5001.47</v>
+      </c>
+      <c r="N4">
+        <v>5001.7299999999996</v>
+      </c>
+      <c r="O4">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="P4">
+        <v>5001.5600000000004</v>
+      </c>
+      <c r="Q4">
+        <v>5001.43</v>
+      </c>
+      <c r="R4">
+        <v>5002.47</v>
+      </c>
+      <c r="S4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="T4">
+        <v>5000.03</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>5001.21</v>
+      </c>
+      <c r="Y4">
+        <v>5000</v>
+      </c>
+      <c r="Z4">
+        <v>2369.59</v>
+      </c>
+      <c r="AA4">
+        <v>5000.01</v>
+      </c>
+      <c r="AB4">
+        <v>5001.29</v>
+      </c>
+      <c r="AC4">
+        <v>5000.07</v>
+      </c>
+      <c r="AD4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AE4">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AF4">
+        <v>5000.03</v>
+      </c>
+      <c r="AG4">
+        <v>5004.57</v>
+      </c>
+      <c r="AH4">
+        <v>5010.54</v>
+      </c>
+      <c r="AI4">
+        <v>5008.12</v>
+      </c>
+      <c r="AJ4">
+        <v>5017.17</v>
+      </c>
+      <c r="AK4">
+        <v>5000.72</v>
+      </c>
+      <c r="AL4">
+        <v>5009.97</v>
+      </c>
+      <c r="AM4">
+        <v>5013.24</v>
+      </c>
+      <c r="AN4">
+        <v>5016.87</v>
+      </c>
+      <c r="AO4">
+        <v>5000.03</v>
+      </c>
+      <c r="AP4">
+        <v>5000.05</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>5000</v>
+      </c>
+      <c r="AU4">
+        <v>11.523</v>
+      </c>
+      <c r="AV4">
+        <v>5.9326999999999996</v>
+      </c>
+      <c r="AW4">
+        <v>46.0047</v>
+      </c>
+      <c r="AX4">
+        <v>139.708</v>
+      </c>
+      <c r="AY4">
+        <v>7.8551000000000002</v>
+      </c>
+      <c r="AZ4">
+        <v>185.345</v>
+      </c>
+      <c r="BA4">
+        <v>1256.25</v>
+      </c>
+      <c r="BB4">
+        <v>641</v>
+      </c>
+      <c r="BC4">
+        <v>5000</v>
+      </c>
+      <c r="BD4">
+        <v>5000.01</v>
+      </c>
+      <c r="BE4">
+        <v>5000</v>
+      </c>
+      <c r="BF4">
+        <v>5000</v>
+      </c>
+      <c r="BG4">
+        <v>5000.01</v>
+      </c>
+      <c r="BH4">
+        <v>5000.01</v>
+      </c>
+      <c r="BI4">
+        <v>5000</v>
+      </c>
+      <c r="BJ4">
+        <v>5000.01</v>
+      </c>
+      <c r="BK4">
+        <v>5000.01</v>
+      </c>
+      <c r="BL4">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1313.14</v>
+      </c>
+      <c r="C5">
+        <v>43.268500000000003</v>
+      </c>
+      <c r="D5">
+        <v>18.507000000000001</v>
+      </c>
+      <c r="E5">
+        <v>106.364</v>
+      </c>
+      <c r="F5">
+        <v>611.75800000000004</v>
+      </c>
+      <c r="G5">
+        <v>1749.87</v>
+      </c>
+      <c r="H5">
+        <v>976.86099999999999</v>
+      </c>
+      <c r="I5">
+        <v>2273.84</v>
+      </c>
+      <c r="J5">
+        <v>2524.04</v>
+      </c>
+      <c r="K5">
+        <v>3764.13</v>
+      </c>
+      <c r="L5">
+        <v>4661.0200000000004</v>
+      </c>
+      <c r="M5">
+        <v>4892.8</v>
+      </c>
+      <c r="N5">
+        <v>4878.29</v>
+      </c>
+      <c r="O5">
+        <v>5000.03</v>
+      </c>
+      <c r="P5">
+        <v>4727.1499999999996</v>
+      </c>
+      <c r="Q5">
+        <v>5000.5600000000004</v>
+      </c>
+      <c r="R5">
+        <v>5001.75</v>
+      </c>
+      <c r="S5">
+        <v>5000.04</v>
+      </c>
+      <c r="T5">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>5000</v>
+      </c>
+      <c r="Y5">
+        <v>155.71199999999999</v>
+      </c>
+      <c r="Z5">
+        <v>37.476799999999997</v>
+      </c>
+      <c r="AA5">
+        <v>795.24400000000003</v>
+      </c>
+      <c r="AB5">
+        <v>5000.01</v>
+      </c>
+      <c r="AC5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AD5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AE5">
+        <v>5007.17</v>
+      </c>
+      <c r="AF5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AG5">
+        <v>5003.08</v>
+      </c>
+      <c r="AH5">
+        <v>5018.3599999999997</v>
+      </c>
+      <c r="AI5">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AJ5">
+        <v>5000.04</v>
+      </c>
+      <c r="AK5">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AL5">
+        <v>5000.05</v>
+      </c>
+      <c r="AM5">
+        <v>5002.41</v>
+      </c>
+      <c r="AN5">
+        <v>5017.3100000000004</v>
+      </c>
+      <c r="AO5">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AP5">
+        <v>5000.3500000000004</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>16.749199999999998</v>
+      </c>
+      <c r="AU5">
+        <v>4.3483999999999998</v>
+      </c>
+      <c r="AV5">
+        <v>4.1616</v>
+      </c>
+      <c r="AW5">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="AX5">
+        <v>4.5503</v>
+      </c>
+      <c r="AY5">
+        <v>20.238</v>
+      </c>
+      <c r="AZ5">
+        <v>84.045199999999994</v>
+      </c>
+      <c r="BA5">
+        <v>83.194500000000005</v>
+      </c>
+      <c r="BB5">
+        <v>95.783500000000004</v>
+      </c>
+      <c r="BC5">
+        <v>645.85500000000002</v>
+      </c>
+      <c r="BD5">
+        <v>1831.99</v>
+      </c>
+      <c r="BE5">
+        <v>3927.75</v>
+      </c>
+      <c r="BF5">
+        <v>3782.71</v>
+      </c>
+      <c r="BG5">
+        <v>5000</v>
+      </c>
+      <c r="BH5">
+        <v>2271.17</v>
+      </c>
+      <c r="BI5">
+        <v>5000</v>
+      </c>
+      <c r="BJ5">
+        <v>5000.01</v>
+      </c>
+      <c r="BK5">
+        <v>5000.01</v>
+      </c>
+      <c r="BL5">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>522.72299999999996</v>
+      </c>
+      <c r="C6">
+        <v>173.68199999999999</v>
+      </c>
+      <c r="D6">
+        <v>68.071200000000005</v>
+      </c>
+      <c r="E6">
+        <v>25.776800000000001</v>
+      </c>
+      <c r="F6">
+        <v>622.99900000000002</v>
+      </c>
+      <c r="G6">
+        <v>1266.96</v>
+      </c>
+      <c r="H6">
+        <v>2429</v>
+      </c>
+      <c r="I6">
+        <v>2519.84</v>
+      </c>
+      <c r="J6">
+        <v>1546.63</v>
+      </c>
+      <c r="K6">
+        <v>4075.85</v>
+      </c>
+      <c r="L6">
+        <v>4943.22</v>
+      </c>
+      <c r="M6">
+        <v>3890.39</v>
+      </c>
+      <c r="N6">
+        <v>4992.13</v>
+      </c>
+      <c r="O6">
+        <v>4985.7</v>
+      </c>
+      <c r="P6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="Q6">
+        <v>5000.68</v>
+      </c>
+      <c r="R6">
+        <v>5000.03</v>
+      </c>
+      <c r="S6">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="T6">
+        <v>5000.03</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>5000</v>
+      </c>
+      <c r="Y6">
+        <v>1096.69</v>
+      </c>
+      <c r="Z6">
+        <v>517.16600000000005</v>
+      </c>
+      <c r="AA6">
+        <v>56.3613</v>
+      </c>
+      <c r="AB6">
+        <v>5000.01</v>
+      </c>
+      <c r="AC6">
+        <v>5001.4799999999996</v>
+      </c>
+      <c r="AD6">
+        <v>5000.03</v>
+      </c>
+      <c r="AE6">
+        <v>5000.03</v>
+      </c>
+      <c r="AF6">
+        <v>5001.3500000000004</v>
+      </c>
+      <c r="AG6">
+        <v>5013.3500000000004</v>
+      </c>
+      <c r="AH6">
+        <v>5000.04</v>
+      </c>
+      <c r="AI6">
+        <v>5000.05</v>
+      </c>
+      <c r="AJ6">
+        <v>5000.05</v>
+      </c>
+      <c r="AK6">
+        <v>5007.29</v>
+      </c>
+      <c r="AL6">
+        <v>5000.32</v>
+      </c>
+      <c r="AM6">
+        <v>5006.5200000000004</v>
+      </c>
+      <c r="AN6">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AO6">
+        <v>5002.01</v>
+      </c>
+      <c r="AP6">
+        <v>5000.07</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <v>3.9033000000000002</v>
+      </c>
+      <c r="AU6">
+        <v>2.6025</v>
+      </c>
+      <c r="AV6">
+        <v>3.8532000000000002</v>
+      </c>
+      <c r="AW6">
+        <v>5.1835000000000004</v>
+      </c>
+      <c r="AX6">
+        <v>7.6951000000000001</v>
+      </c>
+      <c r="AY6">
+        <v>52.224400000000003</v>
+      </c>
+      <c r="AZ6">
+        <v>25.944900000000001</v>
+      </c>
+      <c r="BA6">
+        <v>250.87899999999999</v>
+      </c>
+      <c r="BB6">
+        <v>69.344800000000006</v>
+      </c>
+      <c r="BC6">
+        <v>1369.08</v>
+      </c>
+      <c r="BD6">
+        <v>4431.96</v>
+      </c>
+      <c r="BE6">
+        <v>228.86500000000001</v>
+      </c>
+      <c r="BF6">
+        <v>4921.09</v>
+      </c>
+      <c r="BG6">
+        <v>4847.55</v>
+      </c>
+      <c r="BH6">
+        <v>5000.01</v>
+      </c>
+      <c r="BI6">
+        <v>5000.01</v>
+      </c>
+      <c r="BJ6">
+        <v>5000</v>
+      </c>
+      <c r="BK6">
+        <v>5000</v>
+      </c>
+      <c r="BL6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36.417200000000001</v>
+      </c>
+      <c r="C7">
+        <v>15.6569</v>
+      </c>
+      <c r="D7">
+        <v>18.255500000000001</v>
+      </c>
+      <c r="E7">
+        <v>80.036799999999999</v>
+      </c>
+      <c r="F7">
+        <v>597.476</v>
+      </c>
+      <c r="G7">
+        <v>1100.6199999999999</v>
+      </c>
+      <c r="H7">
+        <v>2319.3000000000002</v>
+      </c>
+      <c r="I7">
+        <v>1621.68</v>
+      </c>
+      <c r="J7">
+        <v>3933.46</v>
+      </c>
+      <c r="K7">
+        <v>4921.12</v>
+      </c>
+      <c r="L7">
+        <v>3295.66</v>
+      </c>
+      <c r="M7">
+        <v>3798.98</v>
+      </c>
+      <c r="N7">
+        <v>4090.8</v>
+      </c>
+      <c r="O7">
+        <v>5002.4399999999996</v>
+      </c>
+      <c r="P7">
+        <v>4391.6000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>4689.12</v>
+      </c>
+      <c r="R7">
+        <v>4650.4799999999996</v>
+      </c>
+      <c r="S7">
+        <v>4827.17</v>
+      </c>
+      <c r="T7">
+        <v>5000.05</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>174.34800000000001</v>
+      </c>
+      <c r="Y7">
+        <v>47.787799999999997</v>
+      </c>
+      <c r="Z7">
+        <v>36.5886</v>
+      </c>
+      <c r="AA7">
+        <v>650.52499999999998</v>
+      </c>
+      <c r="AB7">
+        <v>5000.04</v>
+      </c>
+      <c r="AC7">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AD7">
+        <v>5000.03</v>
+      </c>
+      <c r="AE7">
+        <v>5000.01</v>
+      </c>
+      <c r="AF7">
+        <v>5004.38</v>
+      </c>
+      <c r="AG7">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AH7">
+        <v>5000.04</v>
+      </c>
+      <c r="AI7">
+        <v>5004.88</v>
+      </c>
+      <c r="AJ7">
+        <v>5000.09</v>
+      </c>
+      <c r="AK7">
+        <v>5012.38</v>
+      </c>
+      <c r="AL7">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AM7">
+        <v>5026.18</v>
+      </c>
+      <c r="AN7">
+        <v>5010.38</v>
+      </c>
+      <c r="AO7">
+        <v>5002.84</v>
+      </c>
+      <c r="AP7">
+        <v>5000.09</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>2.1707999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>2.9051999999999998</v>
+      </c>
+      <c r="AV7">
+        <v>4.0579000000000001</v>
+      </c>
+      <c r="AW7">
+        <v>5.9259000000000004</v>
+      </c>
+      <c r="AX7">
+        <v>13.7699</v>
+      </c>
+      <c r="AY7">
+        <v>21.4419</v>
+      </c>
+      <c r="AZ7">
+        <v>34.009799999999998</v>
+      </c>
+      <c r="BA7">
+        <v>57.804200000000002</v>
+      </c>
+      <c r="BB7">
+        <v>1165.47</v>
+      </c>
+      <c r="BC7">
+        <v>4210.9399999999996</v>
+      </c>
+      <c r="BD7">
+        <v>159.34200000000001</v>
+      </c>
+      <c r="BE7">
+        <v>574.81899999999996</v>
+      </c>
+      <c r="BF7">
+        <v>1056.05</v>
+      </c>
+      <c r="BG7">
+        <v>5000.01</v>
+      </c>
+      <c r="BH7">
+        <v>1481.1</v>
+      </c>
+      <c r="BI7">
+        <v>1846.6</v>
+      </c>
+      <c r="BJ7">
+        <v>1819.46</v>
+      </c>
+      <c r="BK7">
+        <v>3268.5</v>
+      </c>
+      <c r="BL7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>19.046600000000002</v>
+      </c>
+      <c r="C8">
+        <v>13.1677</v>
+      </c>
+      <c r="D8">
+        <v>18.1205</v>
+      </c>
+      <c r="E8">
+        <v>25.070900000000002</v>
+      </c>
+      <c r="F8">
+        <v>102.321</v>
+      </c>
+      <c r="G8">
+        <v>863.77800000000002</v>
+      </c>
+      <c r="H8">
+        <v>1996.83</v>
+      </c>
+      <c r="I8">
+        <v>2883.89</v>
+      </c>
+      <c r="J8">
+        <v>3562.12</v>
+      </c>
+      <c r="K8">
+        <v>3287.76</v>
+      </c>
+      <c r="L8">
+        <v>4248.5200000000004</v>
+      </c>
+      <c r="M8">
+        <v>5001.07</v>
+      </c>
+      <c r="N8">
+        <v>4249.82</v>
+      </c>
+      <c r="O8">
+        <v>4736.07</v>
+      </c>
+      <c r="P8">
+        <v>5001.37</v>
+      </c>
+      <c r="Q8">
+        <v>4549.26</v>
+      </c>
+      <c r="R8">
+        <v>5000.09</v>
+      </c>
+      <c r="S8">
+        <v>5000.04</v>
+      </c>
+      <c r="T8">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>94.263499999999993</v>
+      </c>
+      <c r="Y8">
+        <v>51.3598</v>
+      </c>
+      <c r="Z8">
+        <v>79.192899999999995</v>
+      </c>
+      <c r="AA8">
+        <v>102.273</v>
+      </c>
+      <c r="AB8">
+        <v>302.18</v>
+      </c>
+      <c r="AC8">
+        <v>5000.03</v>
+      </c>
+      <c r="AD8">
+        <v>5000.03</v>
+      </c>
+      <c r="AE8">
+        <v>5000.03</v>
+      </c>
+      <c r="AF8">
+        <v>5000.05</v>
+      </c>
+      <c r="AG8">
+        <v>5018.05</v>
+      </c>
+      <c r="AH8">
+        <v>5005.2</v>
+      </c>
+      <c r="AI8">
+        <v>5006.26</v>
+      </c>
+      <c r="AJ8">
+        <v>5005.22</v>
+      </c>
+      <c r="AK8">
+        <v>5001.3</v>
+      </c>
+      <c r="AL8">
+        <v>5011.34</v>
+      </c>
+      <c r="AM8">
+        <v>5000.08</v>
+      </c>
+      <c r="AN8">
+        <v>5000.32</v>
+      </c>
+      <c r="AO8">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AP8">
+        <v>5000.09</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT8">
+        <v>1.8102</v>
+      </c>
+      <c r="AU8">
+        <v>2.72</v>
+      </c>
+      <c r="AV8">
+        <v>6.6958000000000002</v>
+      </c>
+      <c r="AW8">
+        <v>4.9657999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>12.257899999999999</v>
+      </c>
+      <c r="AY8">
+        <v>20.7166</v>
+      </c>
+      <c r="AZ8">
+        <v>50.288200000000003</v>
+      </c>
+      <c r="BA8">
+        <v>45.8718</v>
+      </c>
+      <c r="BB8">
+        <v>38.368499999999997</v>
+      </c>
+      <c r="BC8">
+        <v>29.6251</v>
+      </c>
+      <c r="BD8">
+        <v>1333.54</v>
+      </c>
+      <c r="BE8">
+        <v>5000.04</v>
+      </c>
+      <c r="BF8">
+        <v>483.95699999999999</v>
+      </c>
+      <c r="BG8">
+        <v>3339.58</v>
+      </c>
+      <c r="BH8">
+        <v>5000</v>
+      </c>
+      <c r="BI8">
+        <v>492.17099999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="BK8">
+        <v>5000</v>
+      </c>
+      <c r="BL8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>22.023599999999998</v>
+      </c>
+      <c r="C9">
+        <v>15.685</v>
+      </c>
+      <c r="D9">
+        <v>16.0565</v>
+      </c>
+      <c r="E9">
+        <v>22.0853</v>
+      </c>
+      <c r="F9">
+        <v>482.06200000000001</v>
+      </c>
+      <c r="G9">
+        <v>152.62100000000001</v>
+      </c>
+      <c r="H9">
+        <v>2676.99</v>
+      </c>
+      <c r="I9">
+        <v>3173.45</v>
+      </c>
+      <c r="J9">
+        <v>2345.6999999999998</v>
+      </c>
+      <c r="K9">
+        <v>2638.86</v>
+      </c>
+      <c r="L9">
+        <v>4136.17</v>
+      </c>
+      <c r="M9">
+        <v>4379.24</v>
+      </c>
+      <c r="N9">
+        <v>4384.66</v>
+      </c>
+      <c r="O9">
+        <v>4007.31</v>
+      </c>
+      <c r="P9">
+        <v>4899.99</v>
+      </c>
+      <c r="Q9">
+        <v>4742.68</v>
+      </c>
+      <c r="R9">
+        <v>4800.68</v>
+      </c>
+      <c r="S9">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="T9">
+        <v>5000.08</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>75.744600000000005</v>
+      </c>
+      <c r="Y9">
+        <v>47.460099999999997</v>
+      </c>
+      <c r="Z9">
+        <v>71.486199999999997</v>
+      </c>
+      <c r="AA9">
+        <v>79.346900000000005</v>
+      </c>
+      <c r="AB9">
+        <v>3453.7</v>
+      </c>
+      <c r="AC9">
+        <v>598.67999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>5000.05</v>
+      </c>
+      <c r="AE9">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AF9">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AG9">
+        <v>5001.1099999999997</v>
+      </c>
+      <c r="AH9">
+        <v>5021.3900000000003</v>
+      </c>
+      <c r="AI9">
+        <v>5000.7</v>
+      </c>
+      <c r="AJ9">
+        <v>5009.12</v>
+      </c>
+      <c r="AK9">
+        <v>5000.09</v>
+      </c>
+      <c r="AL9">
+        <v>5000.09</v>
+      </c>
+      <c r="AM9">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AN9">
+        <v>5016.8500000000004</v>
+      </c>
+      <c r="AO9">
+        <v>5000.12</v>
+      </c>
+      <c r="AP9">
+        <v>5000.13</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT9">
+        <v>2.2688000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>3.2717000000000001</v>
+      </c>
+      <c r="AV9">
+        <v>2.7601</v>
+      </c>
+      <c r="AW9">
+        <v>4.6704999999999997</v>
+      </c>
+      <c r="AX9">
+        <v>6.7381000000000002</v>
+      </c>
+      <c r="AY9">
+        <v>13.7386</v>
+      </c>
+      <c r="AZ9">
+        <v>19.753599999999999</v>
+      </c>
+      <c r="BA9">
+        <v>427.78399999999999</v>
+      </c>
+      <c r="BB9">
+        <v>75.364500000000007</v>
+      </c>
+      <c r="BC9">
+        <v>466.52</v>
+      </c>
+      <c r="BD9">
+        <v>289.81700000000001</v>
+      </c>
+      <c r="BE9">
+        <v>1057.0899999999999</v>
+      </c>
+      <c r="BF9">
+        <v>671.64499999999998</v>
+      </c>
+      <c r="BG9">
+        <v>402.61700000000002</v>
+      </c>
+      <c r="BH9">
+        <v>3999.45</v>
+      </c>
+      <c r="BI9">
+        <v>3235.89</v>
+      </c>
+      <c r="BJ9">
+        <v>2989.41</v>
+      </c>
+      <c r="BK9">
+        <v>5000</v>
+      </c>
+      <c r="BL9">
+        <v>5000.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19.274100000000001</v>
+      </c>
+      <c r="C10">
+        <v>11.2798</v>
+      </c>
+      <c r="D10">
+        <v>39.547600000000003</v>
+      </c>
+      <c r="E10">
+        <v>18.710699999999999</v>
+      </c>
+      <c r="F10">
+        <v>74.335599999999999</v>
+      </c>
+      <c r="G10">
+        <v>813.78899999999999</v>
+      </c>
+      <c r="H10">
+        <v>1945.98</v>
+      </c>
+      <c r="I10">
+        <v>1871.49</v>
+      </c>
+      <c r="J10">
+        <v>3944.86</v>
+      </c>
+      <c r="K10">
+        <v>3834.09</v>
+      </c>
+      <c r="L10">
+        <v>4121.3900000000003</v>
+      </c>
+      <c r="M10">
+        <v>3754.61</v>
+      </c>
+      <c r="N10">
+        <v>4560.21</v>
+      </c>
+      <c r="O10">
+        <v>5000.05</v>
+      </c>
+      <c r="P10">
+        <v>5001.5200000000004</v>
+      </c>
+      <c r="Q10">
+        <v>4733.8900000000003</v>
+      </c>
+      <c r="R10">
+        <v>4152</v>
+      </c>
+      <c r="S10">
+        <v>3880.97</v>
+      </c>
+      <c r="T10">
+        <v>4712.9799999999996</v>
+      </c>
+      <c r="W10" s="1">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>43.845300000000002</v>
+      </c>
+      <c r="Y10">
+        <v>20.746300000000002</v>
+      </c>
+      <c r="Z10">
+        <v>289.66399999999999</v>
+      </c>
+      <c r="AA10">
+        <v>56.624699999999997</v>
+      </c>
+      <c r="AB10">
+        <v>233.571</v>
+      </c>
+      <c r="AC10">
+        <v>5000.04</v>
+      </c>
+      <c r="AD10">
+        <v>5000.04</v>
+      </c>
+      <c r="AE10">
+        <v>5000.01</v>
+      </c>
+      <c r="AF10">
+        <v>5000.07</v>
+      </c>
+      <c r="AG10">
+        <v>5010.5600000000004</v>
+      </c>
+      <c r="AH10">
+        <v>5001.68</v>
+      </c>
+      <c r="AI10">
+        <v>5000.38</v>
+      </c>
+      <c r="AJ10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AK10">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AL10">
+        <v>5014.59</v>
+      </c>
+      <c r="AM10">
+        <v>5005.8999999999996</v>
+      </c>
+      <c r="AN10">
+        <v>5000.13</v>
+      </c>
+      <c r="AO10">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AP10">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>6.3688000000000002</v>
+      </c>
+      <c r="AU10">
+        <v>4.2337999999999996</v>
+      </c>
+      <c r="AV10">
+        <v>4.5396999999999998</v>
+      </c>
+      <c r="AW10">
+        <v>5.3037999999999998</v>
+      </c>
+      <c r="AX10">
+        <v>13.683299999999999</v>
+      </c>
+      <c r="AY10">
+        <v>14.7766</v>
+      </c>
+      <c r="AZ10">
+        <v>27.089600000000001</v>
+      </c>
+      <c r="BA10">
+        <v>60.6327</v>
+      </c>
+      <c r="BB10">
+        <v>262.22899999999998</v>
+      </c>
+      <c r="BC10">
+        <v>29.116499999999998</v>
+      </c>
+      <c r="BD10">
+        <v>1416.05</v>
+      </c>
+      <c r="BE10">
+        <v>97.558199999999999</v>
+      </c>
+      <c r="BF10">
+        <v>601.55200000000002</v>
+      </c>
+      <c r="BG10">
+        <v>5000</v>
+      </c>
+      <c r="BH10">
+        <v>5000.01</v>
+      </c>
+      <c r="BI10">
+        <v>2332.5100000000002</v>
+      </c>
+      <c r="BJ10">
+        <v>454.01400000000001</v>
+      </c>
+      <c r="BK10">
+        <v>102.35</v>
+      </c>
+      <c r="BL10">
+        <v>2129.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>28.6112</v>
+      </c>
+      <c r="C11">
+        <v>11.042400000000001</v>
+      </c>
+      <c r="D11">
+        <v>19.452000000000002</v>
+      </c>
+      <c r="E11">
+        <v>75.191800000000001</v>
+      </c>
+      <c r="F11">
+        <v>182.15100000000001</v>
+      </c>
+      <c r="G11">
+        <v>608.37900000000002</v>
+      </c>
+      <c r="H11">
+        <v>1210.48</v>
+      </c>
+      <c r="I11">
+        <v>1759.84</v>
+      </c>
+      <c r="J11">
+        <v>3619.22</v>
+      </c>
+      <c r="K11">
+        <v>3334.19</v>
+      </c>
+      <c r="L11">
+        <v>4115.72</v>
+      </c>
+      <c r="M11">
+        <v>4546.7</v>
+      </c>
+      <c r="N11">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="O11">
+        <v>3600.02</v>
+      </c>
+      <c r="P11">
+        <v>2102.21</v>
+      </c>
+      <c r="Q11">
+        <v>3834.29</v>
+      </c>
+      <c r="R11">
+        <v>3753.1</v>
+      </c>
+      <c r="S11">
+        <v>3498.16</v>
+      </c>
+      <c r="T11">
+        <v>4645.95</v>
+      </c>
+      <c r="W11" s="1">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>90.760999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>20.7394</v>
+      </c>
+      <c r="Z11">
+        <v>40.771900000000002</v>
+      </c>
+      <c r="AA11">
+        <v>541.58100000000002</v>
+      </c>
+      <c r="AB11">
+        <v>519.62300000000005</v>
+      </c>
+      <c r="AC11">
+        <v>681.11199999999997</v>
+      </c>
+      <c r="AD11">
+        <v>5000.01</v>
+      </c>
+      <c r="AE11">
+        <v>5000.01</v>
+      </c>
+      <c r="AF11">
+        <v>5000.07</v>
+      </c>
+      <c r="AG11">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AH11">
+        <v>5000.08</v>
+      </c>
+      <c r="AI11">
+        <v>5001.58</v>
+      </c>
+      <c r="AJ11">
+        <v>5000.91</v>
+      </c>
+      <c r="AK11">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AL11">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AM11">
+        <v>5000.4399999999996</v>
+      </c>
+      <c r="AN11">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="AO11">
+        <v>5000.09</v>
+      </c>
+      <c r="AP11">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT11">
+        <v>2.5871</v>
+      </c>
+      <c r="AU11">
+        <v>4.2550999999999997</v>
+      </c>
+      <c r="AV11">
+        <v>4.3657000000000004</v>
+      </c>
+      <c r="AW11">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="AX11">
+        <v>13.307399999999999</v>
+      </c>
+      <c r="AY11">
+        <v>19.457000000000001</v>
+      </c>
+      <c r="AZ11">
+        <v>58.617800000000003</v>
+      </c>
+      <c r="BA11">
+        <v>23.226199999999999</v>
+      </c>
+      <c r="BB11">
+        <v>101.74299999999999</v>
+      </c>
+      <c r="BC11">
+        <v>94.224199999999996</v>
+      </c>
+      <c r="BD11">
+        <v>155.83199999999999</v>
+      </c>
+      <c r="BE11">
+        <v>464.87799999999999</v>
+      </c>
+      <c r="BF11">
+        <v>5000</v>
+      </c>
+      <c r="BG11">
+        <v>98.436099999999996</v>
+      </c>
+      <c r="BH11">
+        <v>58.973999999999997</v>
+      </c>
+      <c r="BI11">
+        <v>108.25700000000001</v>
+      </c>
+      <c r="BJ11">
+        <v>254.94</v>
+      </c>
+      <c r="BK11">
+        <v>978.98900000000003</v>
+      </c>
+      <c r="BL11">
+        <v>2064.1999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>16.636800000000001</v>
+      </c>
+      <c r="C12">
+        <v>13.4886</v>
+      </c>
+      <c r="D12">
+        <v>125.71899999999999</v>
+      </c>
+      <c r="E12">
+        <v>109.752</v>
+      </c>
+      <c r="F12">
+        <v>216.345</v>
+      </c>
+      <c r="G12">
+        <v>579.21</v>
+      </c>
+      <c r="H12">
+        <v>1625.83</v>
+      </c>
+      <c r="I12">
+        <v>3203.6</v>
+      </c>
+      <c r="J12">
+        <v>4553.8900000000003</v>
+      </c>
+      <c r="K12">
+        <v>4079.62</v>
+      </c>
+      <c r="L12">
+        <v>2095.92</v>
+      </c>
+      <c r="M12">
+        <v>2850.41</v>
+      </c>
+      <c r="N12">
+        <v>2061.61</v>
+      </c>
+      <c r="O12">
+        <v>1128.2</v>
+      </c>
+      <c r="P12">
+        <v>2801.48</v>
+      </c>
+      <c r="Q12">
+        <v>3306.3</v>
+      </c>
+      <c r="R12">
+        <v>4208.58</v>
+      </c>
+      <c r="S12">
+        <v>3726.64</v>
+      </c>
+      <c r="T12">
+        <v>2887.35</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>31.884899999999998</v>
+      </c>
+      <c r="Y12">
+        <v>43.771900000000002</v>
+      </c>
+      <c r="Z12">
+        <v>1047.8399999999999</v>
+      </c>
+      <c r="AA12">
+        <v>365.76499999999999</v>
+      </c>
+      <c r="AB12">
+        <v>515.25</v>
+      </c>
+      <c r="AC12">
+        <v>562.61699999999996</v>
+      </c>
+      <c r="AD12">
+        <v>5000.01</v>
+      </c>
+      <c r="AE12">
+        <v>5000.07</v>
+      </c>
+      <c r="AF12">
+        <v>5004.12</v>
+      </c>
+      <c r="AG12">
+        <v>5000.09</v>
+      </c>
+      <c r="AH12">
+        <v>5003.07</v>
+      </c>
+      <c r="AI12">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AJ12">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AK12">
+        <v>5000.12</v>
+      </c>
+      <c r="AL12">
+        <v>5012.22</v>
+      </c>
+      <c r="AM12">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="AN12">
+        <v>5000.18</v>
+      </c>
+      <c r="AO12">
+        <v>5000.16</v>
+      </c>
+      <c r="AP12">
+        <v>5000.17</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>2.8816000000000002</v>
+      </c>
+      <c r="AU12">
+        <v>5.8118999999999996</v>
+      </c>
+      <c r="AV12">
+        <v>7.0433000000000003</v>
+      </c>
+      <c r="AW12">
+        <v>14.259</v>
+      </c>
+      <c r="AX12">
+        <v>19.139600000000002</v>
+      </c>
+      <c r="AY12">
+        <v>6.7281000000000004</v>
+      </c>
+      <c r="AZ12">
+        <v>36.156399999999998</v>
+      </c>
+      <c r="BA12">
+        <v>94.417299999999997</v>
+      </c>
+      <c r="BB12">
+        <v>1650.02</v>
+      </c>
+      <c r="BC12">
+        <v>54.495800000000003</v>
+      </c>
+      <c r="BD12">
+        <v>27.510300000000001</v>
+      </c>
+      <c r="BE12">
+        <v>51.887599999999999</v>
+      </c>
+      <c r="BF12">
+        <v>51.403399999999998</v>
+      </c>
+      <c r="BG12">
+        <v>56.526200000000003</v>
+      </c>
+      <c r="BH12">
+        <v>128.65</v>
+      </c>
+      <c r="BI12">
+        <v>190.16800000000001</v>
+      </c>
+      <c r="BJ12">
+        <v>443.64</v>
+      </c>
+      <c r="BK12">
+        <v>212.28100000000001</v>
+      </c>
+      <c r="BL12">
+        <v>173.00299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>18.869800000000001</v>
+      </c>
+      <c r="C13">
+        <v>20.153099999999998</v>
+      </c>
+      <c r="D13">
+        <v>20.790700000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.270099999999999</v>
+      </c>
+      <c r="F13">
+        <v>388.74</v>
+      </c>
+      <c r="G13">
+        <v>1065.23</v>
+      </c>
+      <c r="H13">
+        <v>2847.02</v>
+      </c>
+      <c r="I13">
+        <v>3370.01</v>
+      </c>
+      <c r="J13">
+        <v>3956.35</v>
+      </c>
+      <c r="K13">
+        <v>648.471</v>
+      </c>
+      <c r="L13">
+        <v>1499.08</v>
+      </c>
+      <c r="M13">
+        <v>1532.85</v>
+      </c>
+      <c r="N13">
+        <v>2543.23</v>
+      </c>
+      <c r="O13">
+        <v>3192.41</v>
+      </c>
+      <c r="P13">
+        <v>3111.13</v>
+      </c>
+      <c r="Q13">
+        <v>3769.22</v>
+      </c>
+      <c r="R13">
+        <v>4131.05</v>
+      </c>
+      <c r="S13">
+        <v>1828.25</v>
+      </c>
+      <c r="T13">
+        <v>3562.77</v>
+      </c>
+      <c r="W13" s="1">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>36.579500000000003</v>
+      </c>
+      <c r="Y13">
+        <v>57.410600000000002</v>
+      </c>
+      <c r="Z13">
+        <v>90.496700000000004</v>
+      </c>
+      <c r="AA13">
+        <v>46.914700000000003</v>
+      </c>
+      <c r="AB13">
+        <v>3114.54</v>
+      </c>
+      <c r="AC13">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AD13">
+        <v>5000.9399999999996</v>
+      </c>
+      <c r="AE13">
+        <v>5000.08</v>
+      </c>
+      <c r="AF13">
+        <v>5015.8500000000004</v>
+      </c>
+      <c r="AG13">
+        <v>5000.07</v>
+      </c>
+      <c r="AH13">
+        <v>5000.07</v>
+      </c>
+      <c r="AI13">
+        <v>5002.25</v>
+      </c>
+      <c r="AJ13">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AK13">
+        <v>5000.13</v>
+      </c>
+      <c r="AL13">
+        <v>5000.17</v>
+      </c>
+      <c r="AM13">
+        <v>5000.04</v>
+      </c>
+      <c r="AN13">
+        <v>5002.67</v>
+      </c>
+      <c r="AO13">
+        <v>5000.12</v>
+      </c>
+      <c r="AP13">
+        <v>5002.84</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>4.2077</v>
+      </c>
+      <c r="AU13">
+        <v>7.0465999999999998</v>
+      </c>
+      <c r="AV13">
+        <v>6.5850999999999997</v>
+      </c>
+      <c r="AW13">
+        <v>9.8582999999999998</v>
+      </c>
+      <c r="AX13">
+        <v>20.020700000000001</v>
+      </c>
+      <c r="AY13">
+        <v>19.7746</v>
+      </c>
+      <c r="AZ13">
+        <v>105.026</v>
+      </c>
+      <c r="BA13">
+        <v>315.28800000000001</v>
+      </c>
+      <c r="BB13">
+        <v>801.79700000000003</v>
+      </c>
+      <c r="BC13">
+        <v>50.512700000000002</v>
+      </c>
+      <c r="BD13">
+        <v>31.9358</v>
+      </c>
+      <c r="BE13">
+        <v>19.2865</v>
+      </c>
+      <c r="BF13">
+        <v>98.574299999999994</v>
+      </c>
+      <c r="BG13">
+        <v>195.947</v>
+      </c>
+      <c r="BH13">
+        <v>125.616</v>
+      </c>
+      <c r="BI13">
+        <v>61.618299999999998</v>
+      </c>
+      <c r="BJ13">
+        <v>1154.3699999999999</v>
+      </c>
+      <c r="BK13">
+        <v>47.8401</v>
+      </c>
+      <c r="BL13">
+        <v>72.365700000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>584.68700000000001</v>
+      </c>
+      <c r="C14">
+        <v>13.163600000000001</v>
+      </c>
+      <c r="D14">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="E14">
+        <v>664.43499999999995</v>
+      </c>
+      <c r="F14">
+        <v>798.36</v>
+      </c>
+      <c r="G14">
+        <v>658.54600000000005</v>
+      </c>
+      <c r="H14">
+        <v>1772.32</v>
+      </c>
+      <c r="I14">
+        <v>70.697000000000003</v>
+      </c>
+      <c r="J14">
+        <v>195.52600000000001</v>
+      </c>
+      <c r="K14">
+        <v>1034.68</v>
+      </c>
+      <c r="L14">
+        <v>1731.8</v>
+      </c>
+      <c r="M14">
+        <v>3198.67</v>
+      </c>
+      <c r="N14">
+        <v>3156.96</v>
+      </c>
+      <c r="O14">
+        <v>1485.13</v>
+      </c>
+      <c r="P14">
+        <v>2126.9</v>
+      </c>
+      <c r="Q14">
+        <v>2747.47</v>
+      </c>
+      <c r="R14">
+        <v>2871.07</v>
+      </c>
+      <c r="S14">
+        <v>1578.94</v>
+      </c>
+      <c r="T14">
+        <v>3358.72</v>
+      </c>
+      <c r="W14" s="1">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>5000.01</v>
+      </c>
+      <c r="Y14">
+        <v>34.5336</v>
+      </c>
+      <c r="Z14">
+        <v>60.713200000000001</v>
+      </c>
+      <c r="AA14">
+        <v>5000.01</v>
+      </c>
+      <c r="AB14">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AC14">
+        <v>3875.67</v>
+      </c>
+      <c r="AD14">
+        <v>5000.05</v>
+      </c>
+      <c r="AE14">
+        <v>163.458</v>
+      </c>
+      <c r="AF14">
+        <v>783.28399999999999</v>
+      </c>
+      <c r="AG14">
+        <v>4080.24</v>
+      </c>
+      <c r="AH14">
+        <v>5000.33</v>
+      </c>
+      <c r="AI14">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AJ14">
+        <v>5008.2299999999996</v>
+      </c>
+      <c r="AK14">
+        <v>5000.12</v>
+      </c>
+      <c r="AL14">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AM14">
+        <v>5000.16</v>
+      </c>
+      <c r="AN14">
+        <v>5000.76</v>
+      </c>
+      <c r="AO14">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AP14">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT14">
+        <v>3.7829000000000002</v>
+      </c>
+      <c r="AU14">
+        <v>3.6097999999999999</v>
+      </c>
+      <c r="AV14">
+        <v>4.9409000000000001</v>
+      </c>
+      <c r="AW14">
+        <v>22.477599999999999</v>
+      </c>
+      <c r="AX14">
+        <v>25.505600000000001</v>
+      </c>
+      <c r="AY14">
+        <v>37.251600000000003</v>
+      </c>
+      <c r="AZ14">
+        <v>101.58499999999999</v>
+      </c>
+      <c r="BA14">
+        <v>24.616</v>
+      </c>
+      <c r="BB14">
+        <v>24.434999999999999</v>
+      </c>
+      <c r="BC14">
+        <v>33.376199999999997</v>
+      </c>
+      <c r="BD14">
+        <v>71.972099999999998</v>
+      </c>
+      <c r="BE14">
+        <v>179.57900000000001</v>
+      </c>
+      <c r="BF14">
+        <v>326.536</v>
+      </c>
+      <c r="BG14">
+        <v>68.211299999999994</v>
+      </c>
+      <c r="BH14">
+        <v>96.707700000000003</v>
+      </c>
+      <c r="BI14">
+        <v>215.10400000000001</v>
+      </c>
+      <c r="BJ14">
+        <v>162.548</v>
+      </c>
+      <c r="BK14">
+        <v>133.20400000000001</v>
+      </c>
+      <c r="BL14">
+        <v>288.99599999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11.531499999999999</v>
+      </c>
+      <c r="C15">
+        <v>20.020299999999999</v>
+      </c>
+      <c r="D15">
+        <v>534.83299999999997</v>
+      </c>
+      <c r="E15">
+        <v>118.119</v>
+      </c>
+      <c r="F15">
+        <v>782.15599999999995</v>
+      </c>
+      <c r="G15">
+        <v>741.26300000000003</v>
+      </c>
+      <c r="H15">
+        <v>56.451799999999999</v>
+      </c>
+      <c r="I15">
+        <v>782.18499999999995</v>
+      </c>
+      <c r="J15">
+        <v>470.54</v>
+      </c>
+      <c r="K15">
+        <v>277.995</v>
+      </c>
+      <c r="L15">
+        <v>1463.05</v>
+      </c>
+      <c r="M15">
+        <v>1852.18</v>
+      </c>
+      <c r="N15">
+        <v>733.26199999999994</v>
+      </c>
+      <c r="O15">
+        <v>2154.65</v>
+      </c>
+      <c r="P15">
+        <v>2866.92</v>
+      </c>
+      <c r="Q15">
+        <v>4547.9399999999996</v>
+      </c>
+      <c r="R15">
+        <v>2825.34</v>
+      </c>
+      <c r="S15">
+        <v>2863.1</v>
+      </c>
+      <c r="T15">
+        <v>4556.8999999999996</v>
+      </c>
+      <c r="W15" s="1">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>27.935600000000001</v>
+      </c>
+      <c r="Y15">
+        <v>66.487799999999993</v>
+      </c>
+      <c r="Z15">
+        <v>5000.01</v>
+      </c>
+      <c r="AA15">
+        <v>599.13599999999997</v>
+      </c>
+      <c r="AB15">
+        <v>561.79899999999998</v>
+      </c>
+      <c r="AC15">
+        <v>1869.84</v>
+      </c>
+      <c r="AD15">
+        <v>127.313</v>
+      </c>
+      <c r="AE15">
+        <v>2423.41</v>
+      </c>
+      <c r="AF15">
+        <v>2948.4</v>
+      </c>
+      <c r="AG15">
+        <v>1318.97</v>
+      </c>
+      <c r="AH15">
+        <v>5000.13</v>
+      </c>
+      <c r="AI15">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AJ15">
+        <v>5000.18</v>
+      </c>
+      <c r="AK15">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AL15">
+        <v>5000.17</v>
+      </c>
+      <c r="AM15">
+        <v>5002.45</v>
+      </c>
+      <c r="AN15">
+        <v>5000.57</v>
+      </c>
+      <c r="AO15">
+        <v>5000.24</v>
+      </c>
+      <c r="AP15">
+        <v>5000.13</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>4.0105000000000004</v>
+      </c>
+      <c r="AU15">
+        <v>5.8916000000000004</v>
+      </c>
+      <c r="AV15">
+        <v>11.944699999999999</v>
+      </c>
+      <c r="AW15">
+        <v>14.154</v>
+      </c>
+      <c r="AX15">
+        <v>97.533100000000005</v>
+      </c>
+      <c r="AY15">
+        <v>50.143599999999999</v>
+      </c>
+      <c r="AZ15">
+        <v>20.815899999999999</v>
+      </c>
+      <c r="BA15">
+        <v>22.628900000000002</v>
+      </c>
+      <c r="BB15">
+        <v>26.780200000000001</v>
+      </c>
+      <c r="BC15">
+        <v>31.6935</v>
+      </c>
+      <c r="BD15">
+        <v>50.944699999999997</v>
+      </c>
+      <c r="BE15">
+        <v>161.76300000000001</v>
+      </c>
+      <c r="BF15">
+        <v>36.322699999999998</v>
+      </c>
+      <c r="BG15">
+        <v>58.394799999999996</v>
+      </c>
+      <c r="BH15">
+        <v>71.435599999999994</v>
+      </c>
+      <c r="BI15">
+        <v>475.50700000000001</v>
+      </c>
+      <c r="BJ15">
+        <v>89.951099999999997</v>
+      </c>
+      <c r="BK15">
+        <v>71.8964</v>
+      </c>
+      <c r="BL15">
+        <v>568.202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>18.0383</v>
+      </c>
+      <c r="C16">
+        <v>152.97</v>
+      </c>
+      <c r="D16">
+        <v>539.43799999999999</v>
+      </c>
+      <c r="E16">
+        <v>438.00900000000001</v>
+      </c>
+      <c r="F16">
+        <v>783.24699999999996</v>
+      </c>
+      <c r="G16">
+        <v>1128.68</v>
+      </c>
+      <c r="H16">
+        <v>41.514600000000002</v>
+      </c>
+      <c r="I16">
+        <v>776.87</v>
+      </c>
+      <c r="J16">
+        <v>622.62900000000002</v>
+      </c>
+      <c r="K16">
+        <v>177.892</v>
+      </c>
+      <c r="L16">
+        <v>253.22499999999999</v>
+      </c>
+      <c r="M16">
+        <v>233.13399999999999</v>
+      </c>
+      <c r="N16">
+        <v>1241.52</v>
+      </c>
+      <c r="O16">
+        <v>1792.7</v>
+      </c>
+      <c r="P16">
+        <v>1581.22</v>
+      </c>
+      <c r="Q16">
+        <v>2384.35</v>
+      </c>
+      <c r="R16">
+        <v>3400.41</v>
+      </c>
+      <c r="S16">
+        <v>2745.22</v>
+      </c>
+      <c r="T16">
+        <v>2455.0500000000002</v>
+      </c>
+      <c r="W16" s="1">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>32.814999999999998</v>
+      </c>
+      <c r="Y16">
+        <v>1389.16</v>
+      </c>
+      <c r="Z16">
+        <v>5000.53</v>
+      </c>
+      <c r="AA16">
+        <v>3301.57</v>
+      </c>
+      <c r="AB16">
+        <v>5006.1499999999996</v>
+      </c>
+      <c r="AC16">
+        <v>5000.8</v>
+      </c>
+      <c r="AD16">
+        <v>138.38300000000001</v>
+      </c>
+      <c r="AE16">
+        <v>5000.01</v>
+      </c>
+      <c r="AF16">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AG16">
+        <v>803.73299999999995</v>
+      </c>
+      <c r="AH16">
+        <v>925.32299999999998</v>
+      </c>
+      <c r="AI16">
+        <v>755.00199999999995</v>
+      </c>
+      <c r="AJ16">
+        <v>5000.1099999999997</v>
+      </c>
+      <c r="AK16">
+        <v>5000.2</v>
+      </c>
+      <c r="AL16">
+        <v>5000.16</v>
+      </c>
+      <c r="AM16">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="AN16">
+        <v>5000.29</v>
+      </c>
+      <c r="AO16">
+        <v>5000.22</v>
+      </c>
+      <c r="AP16">
+        <v>5000.25</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT16">
+        <v>4.6128</v>
+      </c>
+      <c r="AU16">
+        <v>7.3384</v>
+      </c>
+      <c r="AV16">
+        <v>14.257999999999999</v>
+      </c>
+      <c r="AW16">
+        <v>18.479800000000001</v>
+      </c>
+      <c r="AX16">
+        <v>92.665700000000001</v>
+      </c>
+      <c r="AY16">
+        <v>99.489500000000007</v>
+      </c>
+      <c r="AZ16">
+        <v>17.0991</v>
+      </c>
+      <c r="BA16">
+        <v>34.630899999999997</v>
+      </c>
+      <c r="BB16">
+        <v>25.0549</v>
+      </c>
+      <c r="BC16">
+        <v>26.4941</v>
+      </c>
+      <c r="BD16">
+        <v>40.025599999999997</v>
+      </c>
+      <c r="BE16">
+        <v>56.727899999999998</v>
+      </c>
+      <c r="BF16">
+        <v>54.698399999999999</v>
+      </c>
+      <c r="BG16">
+        <v>184.49100000000001</v>
+      </c>
+      <c r="BH16">
+        <v>149.59</v>
+      </c>
+      <c r="BI16">
+        <v>215.90899999999999</v>
+      </c>
+      <c r="BJ16">
+        <v>341.94499999999999</v>
+      </c>
+      <c r="BK16">
+        <v>140.495</v>
+      </c>
+      <c r="BL16">
+        <v>405.37200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>19.274799999999999</v>
+      </c>
+      <c r="C17">
+        <v>45.4328</v>
+      </c>
+      <c r="D17">
+        <v>611.28</v>
+      </c>
+      <c r="E17">
+        <v>1076.1600000000001</v>
+      </c>
+      <c r="F17">
+        <v>1617.08</v>
+      </c>
+      <c r="G17">
+        <v>134.196</v>
+      </c>
+      <c r="H17">
+        <v>132.376</v>
+      </c>
+      <c r="I17">
+        <v>479.27499999999998</v>
+      </c>
+      <c r="J17">
+        <v>276.91699999999997</v>
+      </c>
+      <c r="K17">
+        <v>364.82400000000001</v>
+      </c>
+      <c r="L17">
+        <v>171.208</v>
+      </c>
+      <c r="M17">
+        <v>2456.77</v>
+      </c>
+      <c r="N17">
+        <v>1396.12</v>
+      </c>
+      <c r="O17">
+        <v>560.29600000000005</v>
+      </c>
+      <c r="P17">
+        <v>759.48699999999997</v>
+      </c>
+      <c r="Q17">
+        <v>1864.37</v>
+      </c>
+      <c r="R17">
+        <v>2836.93</v>
+      </c>
+      <c r="S17">
+        <v>1895.43</v>
+      </c>
+      <c r="T17">
+        <v>2378.5700000000002</v>
+      </c>
+      <c r="W17" s="1">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>51.505699999999997</v>
+      </c>
+      <c r="Y17">
+        <v>187.809</v>
+      </c>
+      <c r="Z17">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AA17">
+        <v>5000.01</v>
+      </c>
+      <c r="AB17">
+        <v>5000.05</v>
+      </c>
+      <c r="AC17">
+        <v>716.59199999999998</v>
+      </c>
+      <c r="AD17">
+        <v>476.012</v>
+      </c>
+      <c r="AE17">
+        <v>4224.08</v>
+      </c>
+      <c r="AF17">
+        <v>649.02300000000002</v>
+      </c>
+      <c r="AG17">
+        <v>1875.83</v>
+      </c>
+      <c r="AH17">
+        <v>1001.33</v>
+      </c>
+      <c r="AI17">
+        <v>5000.1899999999996</v>
+      </c>
+      <c r="AJ17">
+        <v>5000.21</v>
+      </c>
+      <c r="AK17">
+        <v>3836.37</v>
+      </c>
+      <c r="AL17">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AM17">
+        <v>5000.1400000000003</v>
+      </c>
+      <c r="AN17">
+        <v>5000.24</v>
+      </c>
+      <c r="AO17">
+        <v>5000.04</v>
+      </c>
+      <c r="AP17">
+        <v>5000.16</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT17">
+        <v>6.8810000000000002</v>
+      </c>
+      <c r="AU17">
+        <v>8.9311000000000007</v>
+      </c>
+      <c r="AV17">
+        <v>13.1228</v>
+      </c>
+      <c r="AW17">
+        <v>35.5715</v>
+      </c>
+      <c r="AX17">
+        <v>27.312799999999999</v>
+      </c>
+      <c r="AY17">
+        <v>21.456600000000002</v>
+      </c>
+      <c r="AZ17">
+        <v>14.8391</v>
+      </c>
+      <c r="BA17">
+        <v>33.687100000000001</v>
+      </c>
+      <c r="BB17">
+        <v>21.410499999999999</v>
+      </c>
+      <c r="BC17">
+        <v>38.942900000000002</v>
+      </c>
+      <c r="BD17">
+        <v>25.018599999999999</v>
+      </c>
+      <c r="BE17">
+        <v>41.673400000000001</v>
+      </c>
+      <c r="BF17">
+        <v>115.65600000000001</v>
+      </c>
+      <c r="BG17">
+        <v>42.685099999999998</v>
+      </c>
+      <c r="BH17">
+        <v>59.410400000000003</v>
+      </c>
+      <c r="BI17">
+        <v>137.41499999999999</v>
+      </c>
+      <c r="BJ17">
+        <v>91.012100000000004</v>
+      </c>
+      <c r="BK17">
+        <v>102.91500000000001</v>
+      </c>
+      <c r="BL17">
+        <v>161.94999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17.814699999999998</v>
+      </c>
+      <c r="C18">
+        <v>147.607</v>
+      </c>
+      <c r="D18">
+        <v>208.90799999999999</v>
+      </c>
+      <c r="E18">
+        <v>416.01600000000002</v>
+      </c>
+      <c r="F18">
+        <v>67.008799999999994</v>
+      </c>
+      <c r="G18">
+        <v>159.77799999999999</v>
+      </c>
+      <c r="H18">
+        <v>130.279</v>
+      </c>
+      <c r="I18">
+        <v>395.24599999999998</v>
+      </c>
+      <c r="J18">
+        <v>648.23</v>
+      </c>
+      <c r="K18">
+        <v>815.91499999999996</v>
+      </c>
+      <c r="L18">
+        <v>2230.86</v>
+      </c>
+      <c r="M18">
+        <v>601.25699999999995</v>
+      </c>
+      <c r="N18">
+        <v>2275.34</v>
+      </c>
+      <c r="O18">
+        <v>2221.6</v>
+      </c>
+      <c r="P18">
+        <v>883.48800000000006</v>
+      </c>
+      <c r="Q18">
+        <v>1130.81</v>
+      </c>
+      <c r="R18">
+        <v>2464.35</v>
+      </c>
+      <c r="S18">
+        <v>2095.7199999999998</v>
+      </c>
+      <c r="T18">
+        <v>2707.93</v>
+      </c>
+      <c r="W18" s="1">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>22.900700000000001</v>
+      </c>
+      <c r="Y18">
+        <v>1311.3</v>
+      </c>
+      <c r="Z18">
+        <v>819.80799999999999</v>
+      </c>
+      <c r="AA18">
+        <v>3395.29</v>
+      </c>
+      <c r="AB18">
+        <v>94.887799999999999</v>
+      </c>
+      <c r="AC18">
+        <v>1154.31</v>
+      </c>
+      <c r="AD18">
+        <v>468.30099999999999</v>
+      </c>
+      <c r="AE18">
+        <v>1827.31</v>
+      </c>
+      <c r="AF18">
+        <v>3972.32</v>
+      </c>
+      <c r="AG18">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AH18">
+        <v>5000.1899999999996</v>
+      </c>
+      <c r="AI18">
+        <v>5000.0600000000004</v>
+      </c>
+      <c r="AJ18">
+        <v>5000.17</v>
+      </c>
+      <c r="AK18">
+        <v>5000.22</v>
+      </c>
+      <c r="AL18">
+        <v>5016.1899999999996</v>
+      </c>
+      <c r="AM18">
+        <v>4534.7</v>
+      </c>
+      <c r="AN18">
+        <v>5000.17</v>
+      </c>
+      <c r="AO18">
+        <v>5000.2700000000004</v>
+      </c>
+      <c r="AP18">
+        <v>5000.1499999999996</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT18">
+        <v>6.8421000000000003</v>
+      </c>
+      <c r="AU18">
+        <v>7.4782000000000002</v>
+      </c>
+      <c r="AV18">
+        <v>20.8459</v>
+      </c>
+      <c r="AW18">
+        <v>30.453499999999998</v>
+      </c>
+      <c r="AX18">
+        <v>33.534500000000001</v>
+      </c>
+      <c r="AY18">
+        <v>21.589099999999998</v>
+      </c>
+      <c r="AZ18">
+        <v>17.110600000000002</v>
+      </c>
+      <c r="BA18">
+        <v>34.862400000000001</v>
+      </c>
+      <c r="BB18">
+        <v>40.379100000000001</v>
+      </c>
+      <c r="BC18">
+        <v>45.267299999999999</v>
+      </c>
+      <c r="BD18">
+        <v>120.31699999999999</v>
+      </c>
+      <c r="BE18">
+        <v>46.976300000000002</v>
+      </c>
+      <c r="BF18">
+        <v>63.819299999999998</v>
+      </c>
+      <c r="BG18">
+        <v>128.60499999999999</v>
+      </c>
+      <c r="BH18">
+        <v>86.583200000000005</v>
+      </c>
+      <c r="BI18">
+        <v>62.325400000000002</v>
+      </c>
+      <c r="BJ18">
+        <v>135.37700000000001</v>
+      </c>
+      <c r="BK18">
+        <v>139.68100000000001</v>
+      </c>
+      <c r="BL18">
+        <v>132.75399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>26.143000000000001</v>
+      </c>
+      <c r="C19">
+        <v>407.82299999999998</v>
+      </c>
+      <c r="D19">
+        <v>639.78899999999999</v>
+      </c>
+      <c r="E19">
+        <v>178.988</v>
+      </c>
+      <c r="F19">
+        <v>49.053199999999997</v>
+      </c>
+      <c r="G19">
+        <v>95.215100000000007</v>
+      </c>
+      <c r="H19">
+        <v>68.683499999999995</v>
+      </c>
+      <c r="I19">
+        <v>122.46299999999999</v>
+      </c>
+      <c r="J19">
+        <v>686.11599999999999</v>
+      </c>
+      <c r="K19">
+        <v>514.50900000000001</v>
+      </c>
+      <c r="L19">
+        <v>1232.82</v>
+      </c>
+      <c r="M19">
+        <v>1162.4000000000001</v>
+      </c>
+      <c r="N19">
+        <v>1392.29</v>
+      </c>
+      <c r="O19">
+        <v>1816.13</v>
+      </c>
+      <c r="P19">
+        <v>2671.14</v>
+      </c>
+      <c r="Q19">
+        <v>2177.04</v>
+      </c>
+      <c r="R19">
+        <v>1769.23</v>
+      </c>
+      <c r="S19">
+        <v>2060.8200000000002</v>
+      </c>
+      <c r="T19">
+        <v>1743.1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>49.910499999999999</v>
+      </c>
+      <c r="Y19">
+        <v>1824.25</v>
+      </c>
+      <c r="Z19">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AA19">
+        <v>648.24699999999996</v>
+      </c>
+      <c r="AB19">
+        <v>51.046700000000001</v>
+      </c>
+      <c r="AC19">
+        <v>422.255</v>
+      </c>
+      <c r="AD19">
+        <v>251.41200000000001</v>
+      </c>
+      <c r="AE19">
+        <v>405.839</v>
+      </c>
+      <c r="AF19">
+        <v>670.00400000000002</v>
+      </c>
+      <c r="AG19">
+        <v>2954.27</v>
+      </c>
+      <c r="AH19">
+        <v>5000.12</v>
+      </c>
+      <c r="AI19">
+        <v>5000.2</v>
+      </c>
+      <c r="AJ19">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="AK19">
+        <v>5006.08</v>
+      </c>
+      <c r="AL19">
+        <v>5000.21</v>
+      </c>
+      <c r="AM19">
+        <v>5000.07</v>
+      </c>
+      <c r="AN19">
+        <v>5000.17</v>
+      </c>
+      <c r="AO19">
+        <v>5000.3500000000004</v>
+      </c>
+      <c r="AP19">
+        <v>4557.37</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT19">
+        <v>4.4863999999999997</v>
+      </c>
+      <c r="AU19">
+        <v>9.9818999999999996</v>
+      </c>
+      <c r="AV19">
+        <v>36.076999999999998</v>
+      </c>
+      <c r="AW19">
+        <v>18.298100000000002</v>
+      </c>
+      <c r="AX19">
+        <v>15.7761</v>
+      </c>
+      <c r="AY19">
+        <v>24.068000000000001</v>
+      </c>
+      <c r="AZ19">
+        <v>24.2973</v>
+      </c>
+      <c r="BA19">
+        <v>41.978400000000001</v>
+      </c>
+      <c r="BB19">
+        <v>50.0105</v>
+      </c>
+      <c r="BC19">
+        <v>22.2531</v>
+      </c>
+      <c r="BD19">
+        <v>55.484299999999998</v>
+      </c>
+      <c r="BE19">
+        <v>94.682599999999994</v>
+      </c>
+      <c r="BF19">
+        <v>76.637799999999999</v>
+      </c>
+      <c r="BG19">
+        <v>173.21199999999999</v>
+      </c>
+      <c r="BH19">
+        <v>199.488</v>
+      </c>
+      <c r="BI19">
+        <v>143.928</v>
+      </c>
+      <c r="BJ19">
+        <v>104.142</v>
+      </c>
+      <c r="BK19">
+        <v>244.959</v>
+      </c>
+      <c r="BL19">
+        <v>199.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>521.15</v>
+      </c>
+      <c r="C20">
+        <v>230.17500000000001</v>
+      </c>
+      <c r="D20">
+        <v>404.18900000000002</v>
+      </c>
+      <c r="E20">
+        <v>1054.74</v>
+      </c>
+      <c r="F20">
+        <v>590.14700000000005</v>
+      </c>
+      <c r="G20">
+        <v>53.901000000000003</v>
+      </c>
+      <c r="H20">
+        <v>69.989000000000004</v>
+      </c>
+      <c r="I20">
+        <v>613.56799999999998</v>
+      </c>
+      <c r="J20">
+        <v>96.403300000000002</v>
+      </c>
+      <c r="K20">
+        <v>300.27100000000002</v>
+      </c>
+      <c r="L20">
+        <v>1091.47</v>
+      </c>
+      <c r="M20">
+        <v>612.49</v>
+      </c>
+      <c r="N20">
+        <v>312.166</v>
+      </c>
+      <c r="O20">
+        <v>1457.26</v>
+      </c>
+      <c r="P20">
+        <v>1551.64</v>
+      </c>
+      <c r="Q20">
+        <v>1677.26</v>
+      </c>
+      <c r="R20">
+        <v>1234.6099999999999</v>
+      </c>
+      <c r="S20">
+        <v>1954.76</v>
+      </c>
+      <c r="T20">
+        <v>3251.77</v>
+      </c>
+      <c r="W20" s="1">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>5000</v>
+      </c>
+      <c r="Y20">
+        <v>1955.35</v>
+      </c>
+      <c r="Z20">
+        <v>3338.03</v>
+      </c>
+      <c r="AA20">
+        <v>5000.08</v>
+      </c>
+      <c r="AB20">
+        <v>5000.09</v>
+      </c>
+      <c r="AC20">
+        <v>120.173</v>
+      </c>
+      <c r="AD20">
+        <v>188.434</v>
+      </c>
+      <c r="AE20">
+        <v>5000</v>
+      </c>
+      <c r="AF20">
+        <v>157.887</v>
+      </c>
+      <c r="AG20">
+        <v>1454.79</v>
+      </c>
+      <c r="AH20">
+        <v>5000.16</v>
+      </c>
+      <c r="AI20">
+        <v>542.75800000000004</v>
+      </c>
+      <c r="AJ20">
+        <v>1497</v>
+      </c>
+      <c r="AK20">
+        <v>5000.12</v>
+      </c>
+      <c r="AL20">
+        <v>5000.25</v>
+      </c>
+      <c r="AM20">
+        <v>5000.34</v>
+      </c>
+      <c r="AN20">
+        <v>5000</v>
+      </c>
+      <c r="AO20">
+        <v>5000.38</v>
+      </c>
+      <c r="AP20">
+        <v>5000.2299999999996</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT20">
+        <v>5.7861000000000002</v>
+      </c>
+      <c r="AU20">
+        <v>14.307</v>
+      </c>
+      <c r="AV20">
+        <v>18.219100000000001</v>
+      </c>
+      <c r="AW20">
+        <v>23.0334</v>
+      </c>
+      <c r="AX20">
+        <v>37.763199999999998</v>
+      </c>
+      <c r="AY20">
+        <v>16.551100000000002</v>
+      </c>
+      <c r="AZ20">
+        <v>14.611800000000001</v>
+      </c>
+      <c r="BA20">
+        <v>38.109099999999998</v>
+      </c>
+      <c r="BB20">
+        <v>34.585500000000003</v>
+      </c>
+      <c r="BC20">
+        <v>66.668499999999995</v>
+      </c>
+      <c r="BD20">
+        <v>64.4542</v>
+      </c>
+      <c r="BE20">
+        <v>96.137799999999999</v>
+      </c>
+      <c r="BF20">
+        <v>54.5867</v>
+      </c>
+      <c r="BG20">
+        <v>59.212499999999999</v>
+      </c>
+      <c r="BH20">
+        <v>91.831599999999995</v>
+      </c>
+      <c r="BI20">
+        <v>104.23099999999999</v>
+      </c>
+      <c r="BJ20">
+        <v>125.467</v>
+      </c>
+      <c r="BK20">
+        <v>126.203</v>
+      </c>
+      <c r="BL20">
+        <v>488.851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>28.416399999999999</v>
+      </c>
+      <c r="C21">
+        <v>605.62900000000002</v>
+      </c>
+      <c r="D21">
+        <v>916.93700000000001</v>
+      </c>
+      <c r="E21">
+        <v>165.66499999999999</v>
+      </c>
+      <c r="F21">
+        <v>72.601600000000005</v>
+      </c>
+      <c r="G21">
+        <v>250.54599999999999</v>
+      </c>
+      <c r="H21">
+        <v>265.476</v>
+      </c>
+      <c r="I21">
+        <v>260.89400000000001</v>
+      </c>
+      <c r="J21">
+        <v>170.21899999999999</v>
+      </c>
+      <c r="K21">
+        <v>352.29</v>
+      </c>
+      <c r="L21">
+        <v>586.02099999999996</v>
+      </c>
+      <c r="M21">
+        <v>1830.82</v>
+      </c>
+      <c r="N21">
+        <v>744.02700000000004</v>
+      </c>
+      <c r="O21">
+        <v>685.86300000000006</v>
+      </c>
+      <c r="P21">
+        <v>814.18799999999999</v>
+      </c>
+      <c r="Q21">
+        <v>1544.91</v>
+      </c>
+      <c r="R21">
+        <v>1667.92</v>
+      </c>
+      <c r="S21">
+        <v>2138.21</v>
+      </c>
+      <c r="T21">
+        <v>1334.98</v>
+      </c>
+      <c r="W21" s="1">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>46.255499999999998</v>
+      </c>
+      <c r="Y21">
+        <v>5006.54</v>
+      </c>
+      <c r="Z21">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="AA21">
+        <v>1288.51</v>
+      </c>
+      <c r="AB21">
+        <v>233.71299999999999</v>
+      </c>
+      <c r="AC21">
+        <v>1410.44</v>
+      </c>
+      <c r="AD21">
+        <v>1304.93</v>
+      </c>
+      <c r="AE21">
+        <v>799</v>
+      </c>
+      <c r="AF21">
+        <v>482.11099999999999</v>
+      </c>
+      <c r="AG21">
+        <v>309.22500000000002</v>
+      </c>
+      <c r="AH21">
+        <v>3026.2</v>
+      </c>
+      <c r="AI21">
+        <v>5000.47</v>
+      </c>
+      <c r="AJ21">
+        <v>1110.94</v>
+      </c>
+      <c r="AK21">
+        <v>2027.93</v>
+      </c>
+      <c r="AL21">
+        <v>4803.79</v>
+      </c>
+      <c r="AM21">
+        <v>5000.25</v>
+      </c>
+      <c r="AN21">
+        <v>5000.21</v>
+      </c>
+      <c r="AO21">
+        <v>5000.41</v>
+      </c>
+      <c r="AP21">
+        <v>2582.77</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT21">
+        <v>8.1575000000000006</v>
+      </c>
+      <c r="AU21">
+        <v>16.3262</v>
+      </c>
+      <c r="AV21">
+        <v>41.389600000000002</v>
+      </c>
+      <c r="AW21">
+        <v>18.517199999999999</v>
+      </c>
+      <c r="AX21">
+        <v>19.069400000000002</v>
+      </c>
+      <c r="AY21">
+        <v>55.093200000000003</v>
+      </c>
+      <c r="AZ21">
+        <v>36.895699999999998</v>
+      </c>
+      <c r="BA21">
+        <v>44.429400000000001</v>
+      </c>
+      <c r="BB21">
+        <v>32.279400000000003</v>
+      </c>
+      <c r="BC21">
+        <v>46.681699999999999</v>
+      </c>
+      <c r="BD21">
+        <v>35.6265</v>
+      </c>
+      <c r="BE21">
+        <v>80.423000000000002</v>
+      </c>
+      <c r="BF21">
+        <v>89.969499999999996</v>
+      </c>
+      <c r="BG21">
+        <v>55.504199999999997</v>
+      </c>
+      <c r="BH21">
+        <v>130.79400000000001</v>
+      </c>
+      <c r="BI21">
+        <v>93.2119</v>
+      </c>
+      <c r="BJ21">
+        <v>173.58099999999999</v>
+      </c>
+      <c r="BK21">
+        <v>85.349699999999999</v>
+      </c>
+      <c r="BL21">
+        <v>143.97200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="X1:AP1"/>
+    <mergeCell ref="AT1:BL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T21 C22:T22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:BL22 AU4:BL4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:T22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:AP22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4:BL22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:T3 W3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:AP3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="5000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU3:BL3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:BL3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA6965-6ABD-4CDC-9570-24036AA1D793}">
   <dimension ref="A1:BL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
